--- a/info_wunder.xlsx
+++ b/info_wunder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\tecnicatura_ia\adscripcion\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\tecnicatura_ia\adscripcion\wunder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BA87C1-8895-4749-9B9D-38BFDAC2EC21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D72183-66E9-4DC9-9E6C-290394B33E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estaciones" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="299">
   <si>
     <t>ISANLORE34</t>
   </si>
@@ -471,168 +471,87 @@
     <t>Adscripcion1$</t>
   </si>
   <si>
-    <t>9018fead0aa34de798fead0aa32de757</t>
-  </si>
-  <si>
     <t>proyecto3@gmail.com</t>
   </si>
   <si>
     <t>rosario5@gmail.com</t>
   </si>
   <si>
-    <t>2bd1dee00a454ebe91dee00a458ebe79</t>
-  </si>
-  <si>
     <t>roldan6@gmail.com</t>
   </si>
   <si>
-    <t>e2aa52fada2f4902aa52fada2fa902e1</t>
-  </si>
-  <si>
     <t>baigorria7@gmail.com</t>
   </si>
   <si>
-    <t>3ad659ace1134a8f9659ace113aa8f81</t>
-  </si>
-  <si>
     <t>perez8@gmail.com</t>
   </si>
   <si>
-    <t>14527949de8b4a11927949de8bfa113d</t>
-  </si>
-  <si>
     <t>baigorria9@gmail.com</t>
   </si>
   <si>
-    <t>3f3b3235558d473dbb3235558df73d22</t>
-  </si>
-  <si>
     <t>cordoba10@gmail.com</t>
   </si>
   <si>
-    <t>40f85fd26c3d4861b85fd26c3dc86146</t>
-  </si>
-  <si>
     <t>yacanto11@gmail.com</t>
   </si>
   <si>
-    <t>33914afbb3aa4bad914afbb3aaebad27</t>
-  </si>
-  <si>
     <t>sangeronimo12@gmail.com</t>
   </si>
   <si>
-    <t>08815bdc1efa41a1815bdc1efa51a139</t>
-  </si>
-  <si>
     <t>recreo13@gmail.com</t>
   </si>
   <si>
-    <t>a73d7df1ccf04596bd7df1ccf0f59636</t>
-  </si>
-  <si>
     <t>correa14@gmail.com</t>
   </si>
   <si>
-    <t>8b80656dee6f4fc580656dee6fcfc542</t>
-  </si>
-  <si>
     <t>lasrosas15@gmail.com</t>
   </si>
   <si>
-    <t>ec77cca0d1b7488bb7cca0d1b7e88bed</t>
-  </si>
-  <si>
     <t>sanfrancisco16@gmail.com</t>
   </si>
   <si>
-    <t>ae6e762c6d084cd4ae762c6d083cd4ae</t>
-  </si>
-  <si>
     <t>sanlorenzo17@gmail.com</t>
   </si>
   <si>
-    <t>f4330c3d495243f8b30c3d495263f8a0</t>
-  </si>
-  <si>
     <t>viedma18@gmail.com</t>
   </si>
   <si>
-    <t>52f0f4d954c144aab0f4d954c194aa00</t>
-  </si>
-  <si>
     <t>sanfernando19@gmail.com</t>
   </si>
   <si>
-    <t>cd599783fc4e4d7d999783fc4ecd7d6c</t>
-  </si>
-  <si>
     <t>santarosa20@gmail.com</t>
   </si>
   <si>
-    <t>e220a3bad8254f49a0a3bad825bf49e3</t>
-  </si>
-  <si>
     <t>parana21@gmail.com</t>
   </si>
   <si>
-    <t>10f9f411db3040bab9f411db3000ba32</t>
-  </si>
-  <si>
     <t>corrientes22@gmail.com</t>
   </si>
   <si>
-    <t>4902c626326f4fb782c626326fffb738</t>
-  </si>
-  <si>
     <t>posadas23@gmail.com</t>
   </si>
   <si>
-    <t>e20206c8df604ef28206c8df606ef232</t>
-  </si>
-  <si>
     <t>resistencia24@gmail.com</t>
   </si>
   <si>
-    <t>6e0b4795fa9e4ed68b4795fa9e2ed6bc</t>
-  </si>
-  <si>
     <t>formosa25@gmail.com</t>
   </si>
   <si>
-    <t>610a5b77df2040408a5b77df20f040ca</t>
-  </si>
-  <si>
     <t>sansalvador26@gmail.com</t>
   </si>
   <si>
-    <t>cf7afe50bfd84f16bafe50bfd8ff1609</t>
-  </si>
-  <si>
     <t>mendoza27@gmail.com</t>
   </si>
   <si>
-    <t>d84c0cfe007143178c0cfe0071b31747</t>
-  </si>
-  <si>
-    <t>18a0402c06bf400ba0402c06bfe00b50</t>
-  </si>
-  <si>
     <t>junin28@gmail.com</t>
   </si>
   <si>
-    <t>797a6d9bf6c349f5ba6d9bf6c379f551</t>
-  </si>
-  <si>
     <t>ushuaia29@gmail.com</t>
   </si>
   <si>
     <t>chilecito30@gmail.com</t>
   </si>
   <si>
-    <t>6f0c6db9ef4e47398c6db9ef4e3739dc</t>
-  </si>
-  <si>
     <t>2025-17-2</t>
   </si>
   <si>
@@ -648,27 +567,6 @@
     <t>cuenta</t>
   </si>
   <si>
-    <t>ff3d7deb35a444ebbd7deb35a444ebbd</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>NO REPORTA OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>carga</t>
-  </si>
-  <si>
-    <t>FALTAN OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>c63c8138c1b241c4bc8138c1b241c4b4</t>
-  </si>
-  <si>
-    <t>06c599115fe349848599115fe309845f</t>
-  </si>
-  <si>
     <t>precipTotal</t>
   </si>
   <si>
@@ -916,6 +814,114 @@
   </si>
   <si>
     <t>Tamaño_DB_gigabytes</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>sin observaciones</t>
+  </si>
+  <si>
+    <t>buscar_obs</t>
+  </si>
+  <si>
+    <t>índice</t>
+  </si>
+  <si>
+    <t>66d6d2df24cb428a96d2df24cbc28ad4</t>
+  </si>
+  <si>
+    <t>2efc62145baa4503bc62145baac50320</t>
+  </si>
+  <si>
+    <t>17ae9bc6979c4f94ae9bc6979c2f94be</t>
+  </si>
+  <si>
+    <t>3061cd3105fb4d04a1cd3105fb3d04f5</t>
+  </si>
+  <si>
+    <t>e973d41675604a8fb3d41675603a8ff9</t>
+  </si>
+  <si>
+    <t>8bc93c50250c46aa893c50250c96aadf</t>
+  </si>
+  <si>
+    <t>d067936f17814b7ca7936f1781cb7c1b</t>
+  </si>
+  <si>
+    <t>08f138f5654748c5b138f5654758c5a4</t>
+  </si>
+  <si>
+    <t>8c92a311e735492392a311e735d9237a</t>
+  </si>
+  <si>
+    <t>dde8c7d371bc419aa8c7d371bc519afc</t>
+  </si>
+  <si>
+    <t>6d59e6d09ba3475e99e6d09ba3b75e6e</t>
+  </si>
+  <si>
+    <t>138d67d38eb74ca48d67d38eb75ca4ab</t>
+  </si>
+  <si>
+    <t>c188728eab2a419b88728eab2aa19b25</t>
+  </si>
+  <si>
+    <t>9303edaba7304a9583edaba7300a957d</t>
+  </si>
+  <si>
+    <t>0f0e22e43a7a43e88e22e43a7a83e8da</t>
+  </si>
+  <si>
+    <t>243492574df94a8cb492574df9ea8c05</t>
+  </si>
+  <si>
+    <t>e63848374c6d4d40b848374c6dad4079</t>
+  </si>
+  <si>
+    <t>0c14813f1b8b407694813f1b8bb076e2</t>
+  </si>
+  <si>
+    <t>54b23a5618e44f6eb23a5618e41f6e9c</t>
+  </si>
+  <si>
+    <t>4dbccecd242a4f3cbccecd242a2f3cb5</t>
+  </si>
+  <si>
+    <t>e1038f8b4ca14ca4838f8b4ca1aca47a</t>
+  </si>
+  <si>
+    <t>fc16f61266a149a596f61266a179a57d</t>
+  </si>
+  <si>
+    <t>dfc0485c358144c880485c3581e4c847</t>
+  </si>
+  <si>
+    <t>55e505190b3d4cb8a505190b3d0cb8a1</t>
+  </si>
+  <si>
+    <t>fbe797d9a97b4dd8a797d9a97b0dd8c2</t>
+  </si>
+  <si>
+    <t>9224a923c2304f37a4a923c2300f37f1</t>
+  </si>
+  <si>
+    <t>afd41505a3b74a9b941505a3b7aa9bd9</t>
+  </si>
+  <si>
+    <t>7d604673531d44d7a04673531d74d7fa</t>
+  </si>
+  <si>
+    <t>0c27731125054b16a773112505bb1673</t>
+  </si>
+  <si>
+    <t>577cefbef73d40b9bcefbef73dd0b922</t>
+  </si>
+  <si>
+    <t>fecha_ultimo_reporte</t>
+  </si>
+  <si>
+    <t>dias_obs</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1022,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,14 +1060,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1069,14 +1072,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,7 +1133,30 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1168,6 +1238,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F1D090AC-1028-4E37-8AF3-21AF76AA1915}" name="Table3" displayName="Table3" ref="A1:F144" totalsRowShown="0">
+  <autoFilter ref="A1:F144" xr:uid="{0178986E-7A41-44C1-BFAB-9C4133D6CE5D}"/>
+  <sortState ref="A2:F144">
+    <sortCondition ref="E1:E144"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{32E268D2-049C-4DC8-A1E2-52ADDED4FC74}" name="índice" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2D40DACC-075A-47A6-8206-96627E160B72}" name="id" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5AF1C093-77D3-4351-81A5-6EEB9E2ADA96}" name="inicio" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{81953E3E-C968-4444-9FE5-4633B7C51C99}" name="fecha_ultimo_reporte" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AB0A46F0-AC6A-4779-ADBF-1D9936A32704}" name="dias_obs"/>
+    <tableColumn id="4" xr3:uid="{D21B3D98-A9FF-42E6-8F6A-AA58B6B9CACD}" name="buscar_obs" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DF68B9A-0AFF-4602-9436-E7459724E358}" name="datos" displayName="datos" ref="A1:C9" totalsRowShown="0">
   <autoFilter ref="A1:C9" xr:uid="{BFCD7372-330F-4BD0-B60B-F7EE38920419}"/>
   <tableColumns count="3">
@@ -1179,7 +1267,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8406F332-9390-46BC-B9AB-90345478A30F}" name="campos" displayName="campos" ref="E1:H38" totalsRowShown="0">
   <autoFilter ref="E1:H38" xr:uid="{45A698CD-51B2-4237-A170-39DD2745C01C}"/>
   <tableColumns count="4">
@@ -1372,932 +1460,3473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:A144"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="31" customWidth="1"/>
+    <col min="5" max="5" width="31" style="33" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>141</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="22">
+        <v>45306</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E2" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>240</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="I2"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="22">
+        <v>45067</v>
+      </c>
+      <c r="D3" s="32">
+        <v>45344.902569444443</v>
+      </c>
+      <c r="E3" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>277.90256944444263</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="34"/>
+      <c r="I3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>72</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="22">
+        <v>45104</v>
+      </c>
+      <c r="D4" s="32">
+        <v>45386.999872685185</v>
+      </c>
+      <c r="E4" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>282.99987268518453</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="34"/>
+      <c r="I4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>63</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="22">
+        <v>45209</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E5" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>337</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="34"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>47</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="22">
+        <v>45200</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E6" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>346</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="22">
+        <v>45040</v>
+      </c>
+      <c r="D7" s="32">
+        <v>45407.999849537038</v>
+      </c>
+      <c r="E7" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>367.99984953703824</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="34"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>114</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="22">
+        <v>45153</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E8" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>393</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="34"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="22">
+        <v>44920</v>
+      </c>
+      <c r="D9" s="32">
+        <v>45324.995092592595</v>
+      </c>
+      <c r="E9" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>404.99509259259503</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="34"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="22">
+        <v>45136</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E10" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>410</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="34"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="22">
+        <v>45124</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E11" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>422</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="34"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>48</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="22">
+        <v>45118</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E12" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>428</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="34"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>67</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="22">
+        <v>45106</v>
+      </c>
+      <c r="D13" s="32">
+        <v>45539.996655092589</v>
+      </c>
+      <c r="E13" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>433.99665509258921</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>86</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="22">
+        <v>45092</v>
+      </c>
+      <c r="D14" s="32">
+        <v>45531.999537037038</v>
+      </c>
+      <c r="E14" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>439.99953703703795</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="34"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="22">
+        <v>45104</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E15" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>442</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="34"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="22">
+        <v>45100</v>
+      </c>
+      <c r="D16" s="32">
+        <v>45545.595462962963</v>
+      </c>
+      <c r="E16" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>445.59546296296321</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="34"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>117</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="22">
+        <v>45083</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E17" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>463</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="34"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>140</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="22">
+        <v>45063</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E18" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>483</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>78</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="22">
+        <v>45060</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E19" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>486</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="34"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>77</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="22">
+        <v>45046</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E20" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>500</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="34"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>130</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="22">
+        <v>45033</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E21" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>513</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="34"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>73</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="22">
+        <v>45016</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E22" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>530</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="34"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>76</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="22">
+        <v>45007</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E23" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>539</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="34"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>91</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="22">
+        <v>45007</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E24" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>539</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="34"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>90</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="22">
+        <v>45004</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E25" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>542</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="34"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="22">
+        <v>44986</v>
+      </c>
+      <c r="D26" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E26" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>560</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="34"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>135</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="22">
+        <v>44981</v>
+      </c>
+      <c r="D27" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E27" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>565</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="34"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>62</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="22">
+        <v>44970</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E28" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>576</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="34"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="22">
+        <v>44956</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E29" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>590</v>
+      </c>
+      <c r="F29" s="24">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="34"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>89</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="22">
+        <v>44916</v>
+      </c>
+      <c r="D30" s="32">
+        <v>45510.999884259261</v>
+      </c>
+      <c r="E30" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>594.99988425926131</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="34"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>6</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="22">
+        <v>44943</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E31" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>603</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="34"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>113</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="22">
+        <v>44932</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E32" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>614</v>
+      </c>
+      <c r="F32" s="24">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="34"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>45</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="22">
+        <v>44778</v>
+      </c>
+      <c r="D33" s="32">
+        <v>45400.999976851854</v>
+      </c>
+      <c r="E33" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>622.99997685185372</v>
+      </c>
+      <c r="F33" s="24">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="34"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>18</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="22">
+        <v>44923</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E34" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>623</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="34"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>31</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="22">
+        <v>44918</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E35" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>628</v>
+      </c>
+      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="34"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>66</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="22">
+        <v>44916</v>
+      </c>
+      <c r="D36" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E36" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>630</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="34"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>61</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="22">
+        <v>44915</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E37" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>631</v>
+      </c>
+      <c r="F37" s="24">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="34"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>52</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="22">
+        <v>44910</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E38" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>636</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="34"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>104</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="22">
+        <v>44620</v>
+      </c>
+      <c r="D39" s="32">
+        <v>45283.999884259261</v>
+      </c>
+      <c r="E39" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>663.99988425926131</v>
+      </c>
+      <c r="F39" s="24">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="34"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>1</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C40" s="22">
+        <v>44874</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E40" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>672</v>
+      </c>
+      <c r="F40" s="24">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="34"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>30</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="22">
+        <v>44874</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E41" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>672</v>
+      </c>
+      <c r="F41" s="24">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="34"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>28</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="22">
+        <v>44866</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E42" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>680</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="34"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>69</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="22">
+        <v>44816</v>
+      </c>
+      <c r="D43" s="32">
+        <v>45499.857685185183</v>
+      </c>
+      <c r="E43" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>683.85768518518307</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="34"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>134</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="22">
+        <v>44859</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E44" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>687</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="34"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>112</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="22">
+        <v>44855</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E45" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>691</v>
+      </c>
+      <c r="F45" s="25">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="34"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>70</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="22">
+        <v>44846</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E46" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>700</v>
+      </c>
+      <c r="F46" s="25">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="34"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>88</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="22">
+        <v>44844</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E47" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>702</v>
+      </c>
+      <c r="F47" s="25">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="34"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>87</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="22">
+        <v>44828</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E48" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>718</v>
+      </c>
+      <c r="F48" s="25">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="34"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>142</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="22">
+        <v>44819</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E49" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>727</v>
+      </c>
+      <c r="F49" s="25">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="34"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>106</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="22">
+        <v>44798</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E50" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>748</v>
+      </c>
+      <c r="F50" s="25">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="34"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>120</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="22">
+        <v>44783</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E51" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>763</v>
+      </c>
+      <c r="F51" s="25">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="34"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>68</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="22">
+        <v>44758</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E52" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>788</v>
+      </c>
+      <c r="F52" s="25">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="34"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>44</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="22">
+        <v>44752</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E53" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>794</v>
+      </c>
+      <c r="F53" s="25">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="34"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>16</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="22">
+        <v>44738</v>
+      </c>
+      <c r="D54" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E54" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>808</v>
+      </c>
+      <c r="F54" s="25">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="34"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>125</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="22">
+        <v>44735</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E55" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>811</v>
+      </c>
+      <c r="F55" s="25">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>75</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="22">
+        <v>44734</v>
+      </c>
+      <c r="D56" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E56" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>812</v>
+      </c>
+      <c r="F56" s="25">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="34"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>84</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="22">
+        <v>44460</v>
+      </c>
+      <c r="D57" s="32">
+        <v>45278.999930555554</v>
+      </c>
+      <c r="E57" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>818.99993055555387</v>
+      </c>
+      <c r="F57" s="25">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="34"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>43</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="22">
+        <v>44719</v>
+      </c>
+      <c r="D58" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E58" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>827</v>
+      </c>
+      <c r="F58" s="25">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="34"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>20</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="22">
+        <v>44680</v>
+      </c>
+      <c r="D59" s="32">
+        <v>45525.999895833331</v>
+      </c>
+      <c r="E59" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>845.99989583333081</v>
+      </c>
+      <c r="F59" s="25">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="34"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>105</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="22">
+        <v>44680</v>
+      </c>
+      <c r="D60" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E60" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>866</v>
+      </c>
+      <c r="F60" s="25">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="34"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>115</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="22">
+        <v>44450</v>
+      </c>
+      <c r="D61" s="32">
+        <v>45325.999918981484</v>
+      </c>
+      <c r="E61" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>875.99991898148437</v>
+      </c>
+      <c r="F61" s="25">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="34"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>56</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="22">
+        <v>44629</v>
+      </c>
+      <c r="D62" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E62" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>917</v>
+      </c>
+      <c r="F62" s="25">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="34"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>129</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="22">
+        <v>44336</v>
+      </c>
+      <c r="D63" s="32">
+        <v>45278.999942129631</v>
+      </c>
+      <c r="E63" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>942.99994212963065</v>
+      </c>
+      <c r="F63" s="25">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="34"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>42</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="22">
+        <v>44602</v>
+      </c>
+      <c r="D64" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E64" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>944</v>
+      </c>
+      <c r="F64" s="25">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="34"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>103</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="22">
+        <v>44598</v>
+      </c>
+      <c r="D65" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E65" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>948</v>
+      </c>
+      <c r="F65" s="25">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="34"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>111</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="22">
+        <v>44428</v>
+      </c>
+      <c r="D66" s="32">
+        <v>45396.999988425923</v>
+      </c>
+      <c r="E66" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>968.99998842592322</v>
+      </c>
+      <c r="F66" s="25">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="34"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>119</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="22">
+        <v>44414</v>
+      </c>
+      <c r="D67" s="32">
+        <v>45400.874641203707</v>
+      </c>
+      <c r="E67" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>986.87464120370714</v>
+      </c>
+      <c r="F67" s="25">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="34"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>15</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="22">
+        <v>44534</v>
+      </c>
+      <c r="D68" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E68" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1012</v>
+      </c>
+      <c r="F68" s="25">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="34"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>41</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="22">
+        <v>44525</v>
+      </c>
+      <c r="D69" s="32">
+        <v>45544.357870370368</v>
+      </c>
+      <c r="E69" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1019.3578703703679</v>
+      </c>
+      <c r="F69" s="25">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="34"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>27</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="22">
+        <v>44418</v>
+      </c>
+      <c r="D70" s="32">
+        <v>45468.999965277777</v>
+      </c>
+      <c r="E70" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1050.9999652777769</v>
+      </c>
+      <c r="F70" s="25">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="34"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>118</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="22">
+        <v>44493</v>
+      </c>
+      <c r="D71" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E71" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1053</v>
+      </c>
+      <c r="F71" s="25">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="34"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>11</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="22">
+        <v>44461</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E72" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1085</v>
+      </c>
+      <c r="F72" s="25">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="34"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>65</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="22">
+        <v>44457</v>
+      </c>
+      <c r="D73" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E73" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1089</v>
+      </c>
+      <c r="F73" s="25">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="34"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>81</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="22">
+        <v>44369</v>
+      </c>
+      <c r="D74" s="32">
+        <v>45476.941145833334</v>
+      </c>
+      <c r="E74" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1107.9411458333343</v>
+      </c>
+      <c r="F74" s="25">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="34"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>83</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="22">
+        <v>44432</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E75" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1114</v>
+      </c>
+      <c r="F75" s="25">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="34"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>39</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="22">
+        <v>44406</v>
+      </c>
+      <c r="D76" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E76" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1140</v>
+      </c>
+      <c r="F76" s="26">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="34"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>40</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="22">
+        <v>44406</v>
+      </c>
+      <c r="D77" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E77" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1140</v>
+      </c>
+      <c r="F77" s="26">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="34"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>82</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="22">
+        <v>44406</v>
+      </c>
+      <c r="D78" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E78" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1140</v>
+      </c>
+      <c r="F78" s="26">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="34"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>38</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="22">
+        <v>44382</v>
+      </c>
+      <c r="D79" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E79" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1164</v>
+      </c>
+      <c r="F79" s="26">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="34"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>80</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="22">
+        <v>44375</v>
+      </c>
+      <c r="D80" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E80" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1171</v>
+      </c>
+      <c r="F80" s="26">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="34"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <v>143</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="22">
+        <v>44358</v>
+      </c>
+      <c r="D81" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E81" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1188</v>
+      </c>
+      <c r="F81" s="26">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="34"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>101</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="22">
+        <v>44275</v>
+      </c>
+      <c r="D82" s="32">
+        <v>45463.999884259261</v>
+      </c>
+      <c r="E82" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1188.9998842592613</v>
+      </c>
+      <c r="F82" s="26">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="34"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <v>102</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="22">
+        <v>44341</v>
+      </c>
+      <c r="D83" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E83" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1205</v>
+      </c>
+      <c r="F83" s="26">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="34"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>136</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="22">
+        <v>44313</v>
+      </c>
+      <c r="D84" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E84" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1233</v>
+      </c>
+      <c r="F84" s="26">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="34"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
+        <v>124</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="22">
+        <v>44285</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E85" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1261</v>
+      </c>
+      <c r="F85" s="26">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="34"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <v>26</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="22">
+        <v>44282</v>
+      </c>
+      <c r="D86" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E86" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1264</v>
+      </c>
+      <c r="F86" s="26">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="34"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>50</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="22">
+        <v>44251</v>
+      </c>
+      <c r="D87" s="32">
+        <v>45518.999826388892</v>
+      </c>
+      <c r="E87" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1267.999826388892</v>
+      </c>
+      <c r="F87" s="26">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="34"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>37</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="22">
+        <v>44254</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E88" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1292</v>
+      </c>
+      <c r="F88" s="26">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="34"/>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
+        <v>36</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="22">
+        <v>44252</v>
+      </c>
+      <c r="D89" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E89" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1294</v>
+      </c>
+      <c r="F89" s="26">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="34"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>64</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="22">
+        <v>44250</v>
+      </c>
+      <c r="D90" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E90" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1296</v>
+      </c>
+      <c r="F90" s="26">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="34"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
+        <v>60</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="22">
+        <v>44210</v>
+      </c>
+      <c r="D91" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E91" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1336</v>
+      </c>
+      <c r="F91" s="26">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="34"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>14</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="22">
+        <v>44194</v>
+      </c>
+      <c r="D92" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E92" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1352</v>
+      </c>
+      <c r="F92" s="26">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="34"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <v>59</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="22">
+        <v>44184</v>
+      </c>
+      <c r="D93" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E93" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1362</v>
+      </c>
+      <c r="F93" s="26">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="34"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <v>5</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="C94" s="22">
+        <v>44172</v>
+      </c>
+      <c r="D94" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E94" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1374</v>
+      </c>
+      <c r="F94" s="26">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="34"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
+        <v>100</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="22">
+        <v>44156</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E95" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1390</v>
+      </c>
+      <c r="F95" s="26">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="34"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
+        <v>99</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="22">
+        <v>44129</v>
+      </c>
+      <c r="D96" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E96" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1417</v>
+      </c>
+      <c r="F96" s="26">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="34"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
+        <v>35</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="22">
+        <v>44128</v>
+      </c>
+      <c r="D97" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E97" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1418</v>
+      </c>
+      <c r="F97" s="27">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="34"/>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
+        <v>58</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="22">
+        <v>44126</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E98" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1420</v>
+      </c>
+      <c r="F98" s="27">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="34"/>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
+        <v>34</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="22">
+        <v>44117</v>
+      </c>
+      <c r="D99" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E99" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1429</v>
+      </c>
+      <c r="F99" s="27">
+        <v>0</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="34"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B100" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="22">
+        <v>44106</v>
+      </c>
+      <c r="D100" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E100" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1440</v>
+      </c>
+      <c r="F100" s="27">
+        <v>0</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="34"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>55</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" s="22">
+        <v>44105</v>
+      </c>
+      <c r="D101" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E101" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1441</v>
+      </c>
+      <c r="F101" s="27">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="34"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
+        <v>98</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="22">
+        <v>44082</v>
+      </c>
+      <c r="D102" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E102" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1464</v>
+      </c>
+      <c r="F102" s="27">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="34"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="14">
+        <v>33</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="22">
+        <v>44060</v>
+      </c>
+      <c r="D103" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E103" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1486</v>
+      </c>
+      <c r="F103" s="27">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="34"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
+        <v>110</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="22">
+        <v>44051</v>
+      </c>
+      <c r="D104" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E104" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1495</v>
+      </c>
+      <c r="F104" s="27">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="34"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="14">
+        <v>13</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="22">
+        <v>44040</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E105" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1506</v>
+      </c>
+      <c r="F105" s="27">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="34"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
+        <v>32</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="22">
+        <v>44018</v>
+      </c>
+      <c r="D106" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E106" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1528</v>
+      </c>
+      <c r="F106" s="27">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="34"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
+        <v>123</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="22">
+        <v>44016</v>
+      </c>
+      <c r="D107" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E107" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1530</v>
+      </c>
+      <c r="F107" s="27">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="34"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="14">
+        <v>97</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="22">
+        <v>43999</v>
+      </c>
+      <c r="D108" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E108" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1547</v>
+      </c>
+      <c r="F108" s="27">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="34"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="14">
+        <v>49</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="22">
+        <v>43982</v>
+      </c>
+      <c r="D109" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E109" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1564</v>
+      </c>
+      <c r="F109" s="27">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="34"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
+        <v>96</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="22">
+        <v>43886</v>
+      </c>
+      <c r="D110" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E110" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1660</v>
+      </c>
+      <c r="F110" s="27">
+        <v>0</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="34"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
+        <v>128</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="22">
+        <v>43864</v>
+      </c>
+      <c r="D111" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E111" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1682</v>
+      </c>
+      <c r="F111" s="27">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="34"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B112" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="C112" s="22">
+        <v>43827</v>
+      </c>
+      <c r="D112" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E112" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1719</v>
+      </c>
+      <c r="F112" s="27">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="H112" s="34"/>
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>57</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="22">
+        <v>43799</v>
+      </c>
+      <c r="D113" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E113" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1747</v>
+      </c>
+      <c r="F113" s="27">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="34"/>
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
+        <v>74</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="22">
+        <v>43736</v>
+      </c>
+      <c r="D114" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E114" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1810</v>
+      </c>
+      <c r="F114" s="27">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="34"/>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
+        <v>95</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="22">
+        <v>43729</v>
+      </c>
+      <c r="D115" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E115" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1817</v>
+      </c>
+      <c r="F115" s="27">
+        <v>0</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="34"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
+        <v>94</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="22">
+        <v>43650</v>
+      </c>
+      <c r="D116" s="32">
+        <v>45542.998993055553</v>
+      </c>
+      <c r="E116" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1892.998993055553</v>
+      </c>
+      <c r="F116" s="27">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="34"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
+        <v>127</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="22">
+        <v>43621</v>
+      </c>
+      <c r="D117" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E117" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1925</v>
+      </c>
+      <c r="F117" s="27">
+        <v>0</v>
+      </c>
+      <c r="G117" s="2"/>
+      <c r="H117" s="34"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
+        <v>139</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="22">
+        <v>43612</v>
+      </c>
+      <c r="D118" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E118" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1934</v>
+      </c>
+      <c r="F118" s="29">
+        <v>0</v>
+      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" s="34"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
+        <v>138</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="22">
+        <v>43572</v>
+      </c>
+      <c r="D119" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E119" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1974</v>
+      </c>
+      <c r="F119" s="29">
+        <v>0</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="34"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
+        <v>93</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="22">
+        <v>43567</v>
+      </c>
+      <c r="D120" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E120" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1979</v>
+      </c>
+      <c r="F120" s="29">
+        <v>0</v>
+      </c>
+      <c r="G120" s="2"/>
+      <c r="H120" s="34"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
+        <v>71</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="22">
+        <v>43535</v>
+      </c>
+      <c r="D121" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E121" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2011</v>
+      </c>
+      <c r="F121" s="29">
+        <v>0</v>
+      </c>
+      <c r="G121" s="2"/>
+      <c r="H121" s="34"/>
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
+        <v>116</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="22">
+        <v>43487</v>
+      </c>
+      <c r="D122" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E122" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2059</v>
+      </c>
+      <c r="F122" s="29">
+        <v>0</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="34"/>
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
+        <v>137</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="22">
+        <v>43433</v>
+      </c>
+      <c r="D123" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E123" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2113</v>
+      </c>
+      <c r="F123" s="29">
+        <v>0</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="34"/>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
+        <v>109</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="22">
+        <v>43419</v>
+      </c>
+      <c r="D124" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E124" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2127</v>
+      </c>
+      <c r="F124" s="29">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="34"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="14">
+        <v>85</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" s="22">
+        <v>43357</v>
+      </c>
+      <c r="D125" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E125" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2189</v>
+      </c>
+      <c r="F125" s="29">
+        <v>0</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="34"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
+        <v>79</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="22">
+        <v>43349</v>
+      </c>
+      <c r="D126" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E126" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2197</v>
+      </c>
+      <c r="F126" s="29">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2"/>
+      <c r="H126" s="34"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
+        <v>122</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="22">
+        <v>43329</v>
+      </c>
+      <c r="D127" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E127" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2217</v>
+      </c>
+      <c r="F127" s="30">
+        <v>0</v>
+      </c>
+      <c r="G127" s="2"/>
+      <c r="H127" s="34"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
+        <v>121</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="22">
+        <v>43245</v>
+      </c>
+      <c r="D128" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E128" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2301</v>
+      </c>
+      <c r="F128" s="30">
+        <v>0</v>
+      </c>
+      <c r="G128" s="2"/>
+      <c r="H128" s="34"/>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="14">
+        <v>23</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="22">
+        <v>43163</v>
+      </c>
+      <c r="D129" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E129" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2383</v>
+      </c>
+      <c r="F129" s="30">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="34"/>
+      <c r="J129" s="4"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="14">
+        <v>22</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="22">
+        <v>42833</v>
+      </c>
+      <c r="D130" s="32">
+        <v>45360.991597222222</v>
+      </c>
+      <c r="E130" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2527.9915972222225</v>
+      </c>
+      <c r="F130" s="30">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="34"/>
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="14">
+        <v>108</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C131" s="22">
+        <v>42940</v>
+      </c>
+      <c r="D131" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E131" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2606</v>
+      </c>
+      <c r="F131" s="30">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="34"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="14">
+        <v>126</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" s="22">
+        <v>42866</v>
+      </c>
+      <c r="D132" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E132" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2680</v>
+      </c>
+      <c r="F132" s="14">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2"/>
+      <c r="H132" s="34"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="14">
+        <v>21</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="22">
+        <v>42826</v>
+      </c>
+      <c r="D133" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E133" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2720</v>
+      </c>
+      <c r="F133" s="30">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="34"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="14">
+        <v>19</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="22">
+        <v>42736</v>
+      </c>
+      <c r="D134" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E134" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2810</v>
+      </c>
+      <c r="F134" s="30">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" s="34"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="14">
+        <v>51</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="22">
+        <v>42736</v>
+      </c>
+      <c r="D135" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E135" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2810</v>
+      </c>
+      <c r="F135" s="30">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="34"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
+        <v>133</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C136" s="22">
+        <v>42403</v>
+      </c>
+      <c r="D136" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E136" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>3143</v>
+      </c>
+      <c r="F136" s="30">
+        <v>0</v>
+      </c>
+      <c r="G136" s="2"/>
+      <c r="H136" s="34"/>
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="14">
+        <v>25</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="22">
+        <v>42208</v>
+      </c>
+      <c r="D137" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E137" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>3338</v>
+      </c>
+      <c r="F137" s="30">
+        <v>0</v>
+      </c>
+      <c r="G137" s="2"/>
+      <c r="H137" s="34"/>
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="14">
+        <v>132</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" s="22">
+        <v>41674</v>
+      </c>
+      <c r="D138" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E138" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>3872</v>
+      </c>
+      <c r="F138" s="30">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2"/>
+      <c r="H138" s="34"/>
+      <c r="J138" s="4"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="14">
+        <v>24</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="22">
+        <v>41350</v>
+      </c>
+      <c r="D139" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E139" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>4196</v>
+      </c>
+      <c r="F139" s="30">
+        <v>0</v>
+      </c>
+      <c r="G139" s="2"/>
+      <c r="H139" s="34"/>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="14">
+        <v>131</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C140" s="22">
+        <v>41049</v>
+      </c>
+      <c r="D140" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E140" s="34">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>4497</v>
+      </c>
+      <c r="F140" s="30">
+        <v>0</v>
+      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" s="34"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="14">
         <v>17</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="C141" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D141" t="s">
+        <v>264</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" s="30">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2"/>
+      <c r="H141" s="34"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="14">
         <v>54</v>
       </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="B142" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="C142" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D142" t="s">
+        <v>264</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" s="30">
+        <v>0</v>
+      </c>
+      <c r="G142" s="2"/>
+      <c r="H142" s="34"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="14">
         <v>92</v>
       </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="B143" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="C143" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D143" t="s">
+        <v>264</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143" s="30">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2"/>
+      <c r="H143" s="34"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="14">
         <v>107</v>
       </c>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="B144" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D144" s="2"/>
+      <c r="C144" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D144" t="s">
+        <v>264</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144" s="30">
+        <v>0</v>
+      </c>
+      <c r="G144" s="2"/>
+      <c r="H144" s="34"/>
+      <c r="J144" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="H2:H144">
+    <sortCondition descending="1" ref="H2:H144"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2305,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C3B681-42F9-41A2-B521-362FB4730680}">
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,15 +4947,15 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>147</v>
@@ -2334,10 +4963,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,7 +4974,7 @@
         <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -2354,16 +4983,16 @@
         <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2372,223 +5001,223 @@
         <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>164</v>
+      <c r="A15" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" t="s">
-        <v>189</v>
+        <v>168</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
     </row>
     <row r="225" spans="6:6" x14ac:dyDescent="0.25">
@@ -2655,8 +5284,11 @@
       <c r="F245" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{A461DFE7-4315-4EC7-913E-A3A81FE43FDB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2664,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A905401-12BF-43E6-A189-B8D84824F13C}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,47 +5317,47 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="H1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -2736,30 +5368,30 @@
         <v>4</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -2773,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="L3" s="13">
         <v>31977051</v>
@@ -2781,19 +5413,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -2803,11 +5435,11 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="36">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="L4">
         <f>COUNTA(campos[campo])</f>
@@ -2816,19 +5448,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -2838,9 +5470,9 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="36"/>
       <c r="K5" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="L5">
         <f>SUMIF(campos[longitudes],"fija",campos[tamaño_biyes])</f>
@@ -2849,19 +5481,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -2871,9 +5503,9 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="36"/>
       <c r="K6" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="L6">
         <f>COUNTIF(campos[longitudes],"variable")</f>
@@ -2882,19 +5514,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -2904,9 +5536,9 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="36"/>
       <c r="K7" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="L7">
         <f>SUMIF(campos[longitudes],"variable",campos[tamaño_biyes])</f>
@@ -2915,19 +5547,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -2941,7 +5573,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="L8">
         <f>INT(2 + ((L4+ 7) / 8))</f>
@@ -2950,19 +5582,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -2976,7 +5608,7 @@
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="L9">
         <f>IF(L6&gt;0,2+2*L6+L7,0)</f>
@@ -2985,10 +5617,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3002,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="L10">
         <f>L5+L9+L8+4</f>
@@ -3011,10 +5643,10 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" t="s">
         <v>222</v>
-      </c>
-      <c r="F11" t="s">
-        <v>256</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3028,26 +5660,26 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L11" s="17">
+        <v>239</v>
+      </c>
+      <c r="L11" s="16">
         <f>8096/(L10+2)</f>
         <v>57.014084507042256</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="23">
+      <c r="A12" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="39">
         <f>L14+L29</f>
         <v>4.2859356589977011</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3061,7 +5693,7 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="L12" s="13">
         <f>_xlfn.CEILING.MATH(L3/L11)</f>
@@ -3069,13 +5701,13 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3089,7 +5721,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="L13" s="13">
         <f>L12*8192</f>
@@ -3098,10 +5730,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3112,19 +5744,19 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>293</v>
-      </c>
-      <c r="L14" s="18">
+        <v>259</v>
+      </c>
+      <c r="L14" s="17">
         <f>L13/POWER(1024,3)</f>
         <v>4.2790451049804688</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="F15" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3137,10 +5769,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3150,18 +5782,18 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="J16" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3172,19 +5804,19 @@
         <v>4</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="K17" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F18" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3194,11 +5826,11 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="36">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -3206,10 +5838,10 @@
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" t="s">
         <v>230</v>
-      </c>
-      <c r="F19" t="s">
-        <v>264</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3219,21 +5851,21 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="36"/>
       <c r="K19" t="s">
-        <v>282</v>
-      </c>
-      <c r="L19" s="18">
+        <v>248</v>
+      </c>
+      <c r="L19" s="17">
         <f>8096*((100 -L18)/100)/(L10+2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="F20" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3243,21 +5875,21 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="36"/>
       <c r="K20" t="s">
-        <v>284</v>
-      </c>
-      <c r="L20" s="17">
+        <v>250</v>
+      </c>
+      <c r="L20" s="16">
         <f>_xlfn.CEILING.MATH(L3/(L11-L19))</f>
         <v>560863</v>
       </c>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3267,21 +5899,21 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="36"/>
       <c r="K21" t="s">
-        <v>285</v>
-      </c>
-      <c r="L21" s="16">
+        <v>251</v>
+      </c>
+      <c r="L21" s="15">
         <f>8192*L20</f>
         <v>4594589696</v>
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3291,11 +5923,11 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="36">
         <v>2</v>
       </c>
-      <c r="K22" s="21" t="s">
-        <v>286</v>
+      <c r="K22" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -3303,10 +5935,10 @@
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3316,9 +5948,9 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J23" s="15"/>
+      <c r="J23" s="36"/>
       <c r="K23" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="L23">
         <f>H2</f>
@@ -3327,10 +5959,10 @@
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3340,9 +5972,9 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="36"/>
       <c r="K24" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="L24">
         <f>L23+1+6</f>
@@ -3351,10 +5983,10 @@
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3364,9 +5996,9 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="36"/>
       <c r="K25" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="L25">
         <f>_xlfn.FLOOR.MATH(8096/(L24+2))</f>
@@ -3375,10 +6007,10 @@
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3388,21 +6020,21 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="36"/>
       <c r="K26" t="s">
-        <v>290</v>
-      </c>
-      <c r="L26" s="17">
+        <v>256</v>
+      </c>
+      <c r="L26" s="16">
         <f>ROUND(1+LOG(L20/L25,L25),0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3412,21 +6044,21 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J27" s="15"/>
+      <c r="J27" s="36"/>
       <c r="K27" t="s">
-        <v>291</v>
-      </c>
-      <c r="L27" s="16">
+        <v>257</v>
+      </c>
+      <c r="L27" s="15">
         <f>L12/POWER(L25,1)+L12/POWER(L25,2)</f>
         <v>903.15869614664859</v>
       </c>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3436,21 +6068,21 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J28" s="15"/>
+      <c r="J28" s="36"/>
       <c r="K28" t="s">
-        <v>294</v>
-      </c>
-      <c r="L28" s="16">
+        <v>260</v>
+      </c>
+      <c r="L28" s="15">
         <f>8192*L27</f>
         <v>7398676.0388333453</v>
       </c>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3460,21 +6092,21 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J29" s="15"/>
+      <c r="J29" s="36"/>
       <c r="K29" t="s">
-        <v>295</v>
-      </c>
-      <c r="L29" s="18">
+        <v>261</v>
+      </c>
+      <c r="L29" s="17">
         <f>L28/POWER(1024,3)</f>
         <v>6.8905540172321212E-3</v>
       </c>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3484,15 +6116,15 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J30" s="20"/>
-      <c r="L30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3502,14 +6134,14 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="M31" s="19"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3522,10 +6154,10 @@
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3538,10 +6170,10 @@
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3554,10 +6186,10 @@
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3570,10 +6202,10 @@
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="F36" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3586,10 +6218,10 @@
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3602,10 +6234,10 @@
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],2,FALSE)</f>
@@ -3618,13 +6250,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="J4:J7"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J18:J21"/>
     <mergeCell ref="J22:J29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="J4:J7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F38" xr:uid="{2592A699-A406-4B3B-A78A-23F942191ED6}">

--- a/info_wunder.xlsx
+++ b/info_wunder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\tecnicatura_ia\adscripcion\wunder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D72183-66E9-4DC9-9E6C-290394B33E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF4174-C2A6-42DA-A7C1-E2B778AD3AB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1128,12 +1128,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1239,17 +1246,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F1D090AC-1028-4E37-8AF3-21AF76AA1915}" name="Table3" displayName="Table3" ref="A1:F144" totalsRowShown="0">
-  <autoFilter ref="A1:F144" xr:uid="{0178986E-7A41-44C1-BFAB-9C4133D6CE5D}"/>
+  <autoFilter ref="A1:F144" xr:uid="{0178986E-7A41-44C1-BFAB-9C4133D6CE5D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="IROSAR5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:F144">
-    <sortCondition ref="E1:E144"/>
+    <sortCondition ref="B1:B144"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{32E268D2-049C-4DC8-A1E2-52ADDED4FC74}" name="índice" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2D40DACC-075A-47A6-8206-96627E160B72}" name="id" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5AF1C093-77D3-4351-81A5-6EEB9E2ADA96}" name="inicio" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{81953E3E-C968-4444-9FE5-4633B7C51C99}" name="fecha_ultimo_reporte" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{AB0A46F0-AC6A-4779-ADBF-1D9936A32704}" name="dias_obs"/>
-    <tableColumn id="4" xr3:uid="{D21B3D98-A9FF-42E6-8F6A-AA58B6B9CACD}" name="buscar_obs" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{32E268D2-049C-4DC8-A1E2-52ADDED4FC74}" name="índice" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2D40DACC-075A-47A6-8206-96627E160B72}" name="id" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5AF1C093-77D3-4351-81A5-6EEB9E2ADA96}" name="inicio" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{81953E3E-C968-4444-9FE5-4633B7C51C99}" name="fecha_ultimo_reporte" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{AB0A46F0-AC6A-4779-ADBF-1D9936A32704}" name="dias_obs" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D21B3D98-A9FF-42E6-8F6A-AA58B6B9CACD}" name="buscar_obs" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1463,7 +1476,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,46 +1511,46 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>141</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="22">
-        <v>45306</v>
+        <v>44874</v>
       </c>
       <c r="D2" s="4">
         <v>45546</v>
       </c>
-      <c r="E2" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>240</v>
+      <c r="E2" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>672</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="22">
-        <v>45067</v>
-      </c>
-      <c r="D3" s="32">
-        <v>45344.902569444443</v>
-      </c>
-      <c r="E3" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>277.90256944444263</v>
+        <v>44986</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E3" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>560</v>
       </c>
       <c r="F3" s="21">
         <v>0</v>
@@ -1547,22 +1560,22 @@
       <c r="I3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>72</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="22">
-        <v>45104</v>
+        <v>45067</v>
       </c>
       <c r="D4" s="32">
-        <v>45386.999872685185</v>
-      </c>
-      <c r="E4" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>282.99987268518453</v>
+        <v>45344.902569444443</v>
+      </c>
+      <c r="E4" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>277.90256944444263</v>
       </c>
       <c r="F4" s="21">
         <v>0</v>
@@ -1572,22 +1585,22 @@
       <c r="I4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>63</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="22">
-        <v>45209</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E5" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>337</v>
+        <v>45040</v>
+      </c>
+      <c r="D5" s="32">
+        <v>45407.999849537038</v>
+      </c>
+      <c r="E5" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>367.99984953703824</v>
       </c>
       <c r="F5" s="21">
         <v>0</v>
@@ -1596,22 +1609,22 @@
       <c r="H5" s="34"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>47</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="22">
-        <v>45200</v>
+        <v>44172</v>
       </c>
       <c r="D6" s="4">
         <v>45546</v>
       </c>
-      <c r="E6" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>346</v>
+      <c r="E6" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1374</v>
       </c>
       <c r="F6" s="21">
         <v>0</v>
@@ -1621,22 +1634,22 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="22">
-        <v>45040</v>
-      </c>
-      <c r="D7" s="32">
-        <v>45407.999849537038</v>
-      </c>
-      <c r="E7" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>367.99984953703824</v>
+        <v>44943</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E7" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>603</v>
       </c>
       <c r="F7" s="21">
         <v>0</v>
@@ -1645,22 +1658,22 @@
       <c r="H7" s="34"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C8" s="22">
-        <v>45153</v>
+        <v>45124</v>
       </c>
       <c r="D8" s="4">
         <v>45546</v>
       </c>
-      <c r="E8" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>393</v>
+      <c r="E8" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>422</v>
       </c>
       <c r="F8" s="21">
         <v>0</v>
@@ -1669,22 +1682,22 @@
       <c r="H8" s="34"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C9" s="22">
-        <v>44920</v>
-      </c>
-      <c r="D9" s="32">
-        <v>45324.995092592595</v>
-      </c>
-      <c r="E9" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>404.99509259259503</v>
+        <v>45104</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E9" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>442</v>
       </c>
       <c r="F9" s="21">
         <v>0</v>
@@ -1693,7 +1706,7 @@
       <c r="H9" s="34"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1706,7 +1719,7 @@
       <c r="D10" s="4">
         <v>45546</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="41">
         <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
         <v>410</v>
       </c>
@@ -1717,22 +1730,22 @@
       <c r="H10" s="34"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="22">
-        <v>45124</v>
+        <v>44106</v>
       </c>
       <c r="D11" s="4">
         <v>45546</v>
       </c>
-      <c r="E11" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>422</v>
+      <c r="E11" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1440</v>
       </c>
       <c r="F11" s="21">
         <v>0</v>
@@ -1741,22 +1754,22 @@
       <c r="H11" s="34"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C12" s="22">
-        <v>45118</v>
+        <v>44461</v>
       </c>
       <c r="D12" s="4">
         <v>45546</v>
       </c>
-      <c r="E12" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>428</v>
+      <c r="E12" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1085</v>
       </c>
       <c r="F12" s="21">
         <v>0</v>
@@ -1765,22 +1778,22 @@
       <c r="H12" s="34"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C13" s="22">
-        <v>45106</v>
-      </c>
-      <c r="D13" s="32">
-        <v>45539.996655092589</v>
-      </c>
-      <c r="E13" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>433.99665509258921</v>
+        <v>43827</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E13" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1719</v>
       </c>
       <c r="F13" s="21">
         <v>0</v>
@@ -1790,22 +1803,22 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="C14" s="22">
-        <v>45092</v>
-      </c>
-      <c r="D14" s="32">
-        <v>45531.999537037038</v>
-      </c>
-      <c r="E14" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>439.99953703703795</v>
+        <v>44040</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E14" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1506</v>
       </c>
       <c r="F14" s="21">
         <v>0</v>
@@ -1814,22 +1827,22 @@
       <c r="H14" s="34"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="22">
-        <v>45104</v>
+        <v>44194</v>
       </c>
       <c r="D15" s="4">
         <v>45546</v>
       </c>
-      <c r="E15" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>442</v>
+      <c r="E15" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1352</v>
       </c>
       <c r="F15" s="21">
         <v>0</v>
@@ -1838,22 +1851,22 @@
       <c r="H15" s="34"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C16" s="22">
-        <v>45100</v>
-      </c>
-      <c r="D16" s="32">
-        <v>45545.595462962963</v>
-      </c>
-      <c r="E16" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>445.59546296296321</v>
+        <v>44358</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E16" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1188</v>
       </c>
       <c r="F16" s="21">
         <v>0</v>
@@ -1862,22 +1875,22 @@
       <c r="H16" s="34"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="C17" s="22">
-        <v>45083</v>
+        <v>44534</v>
       </c>
       <c r="D17" s="4">
         <v>45546</v>
       </c>
-      <c r="E17" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>463</v>
+      <c r="E17" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1012</v>
       </c>
       <c r="F17" s="21">
         <v>0</v>
@@ -1886,22 +1899,22 @@
       <c r="H17" s="34"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="C18" s="22">
-        <v>45063</v>
+        <v>44738</v>
       </c>
       <c r="D18" s="4">
         <v>45546</v>
       </c>
-      <c r="E18" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>483</v>
+      <c r="E18" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>808</v>
       </c>
       <c r="F18" s="14">
         <v>0</v>
@@ -1909,22 +1922,22 @@
       <c r="G18" s="2"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C19" s="22">
-        <v>45060</v>
+        <v>44819</v>
       </c>
       <c r="D19" s="4">
         <v>45546</v>
       </c>
-      <c r="E19" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>486</v>
+      <c r="E19" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>727</v>
       </c>
       <c r="F19" s="14">
         <v>0</v>
@@ -1933,23 +1946,20 @@
       <c r="H19" s="34"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="22">
-        <v>45046</v>
-      </c>
-      <c r="D20" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E20" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>500</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="42"/>
       <c r="F20" s="21">
         <v>0</v>
       </c>
@@ -1957,22 +1967,22 @@
       <c r="H20" s="34"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="C21" s="22">
-        <v>45033</v>
+        <v>44923</v>
       </c>
       <c r="D21" s="4">
         <v>45546</v>
       </c>
-      <c r="E21" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>513</v>
+      <c r="E21" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>623</v>
       </c>
       <c r="F21" s="21">
         <v>0</v>
@@ -1981,22 +1991,22 @@
       <c r="H21" s="34"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C22" s="22">
-        <v>45016</v>
+        <v>42736</v>
       </c>
       <c r="D22" s="4">
         <v>45546</v>
       </c>
-      <c r="E22" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>530</v>
+      <c r="E22" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2810</v>
       </c>
       <c r="F22" s="24">
         <v>0</v>
@@ -2005,22 +2015,22 @@
       <c r="H22" s="34"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C23" s="22">
-        <v>45007</v>
-      </c>
-      <c r="D23" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E23" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>539</v>
+        <v>44680</v>
+      </c>
+      <c r="D23" s="32">
+        <v>45525.999895833331</v>
+      </c>
+      <c r="E23" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>845.99989583333081</v>
       </c>
       <c r="F23" s="24">
         <v>0</v>
@@ -2029,22 +2039,22 @@
       <c r="H23" s="34"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C24" s="22">
-        <v>45007</v>
+        <v>42826</v>
       </c>
       <c r="D24" s="4">
         <v>45546</v>
       </c>
-      <c r="E24" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>539</v>
+      <c r="E24" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2720</v>
       </c>
       <c r="F24" s="24">
         <v>0</v>
@@ -2053,22 +2063,22 @@
       <c r="H24" s="34"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C25" s="22">
-        <v>45004</v>
-      </c>
-      <c r="D25" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E25" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>542</v>
+        <v>42833</v>
+      </c>
+      <c r="D25" s="32">
+        <v>45360.991597222222</v>
+      </c>
+      <c r="E25" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2527.9915972222225</v>
       </c>
       <c r="F25" s="24">
         <v>0</v>
@@ -2077,22 +2087,22 @@
       <c r="H25" s="34"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C26" s="22">
-        <v>44986</v>
+        <v>43163</v>
       </c>
       <c r="D26" s="4">
         <v>45546</v>
       </c>
-      <c r="E26" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>560</v>
+      <c r="E26" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2383</v>
       </c>
       <c r="F26" s="24">
         <v>0</v>
@@ -2101,22 +2111,22 @@
       <c r="H26" s="34"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="C27" s="22">
-        <v>44981</v>
+        <v>41350</v>
       </c>
       <c r="D27" s="4">
         <v>45546</v>
       </c>
-      <c r="E27" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>565</v>
+      <c r="E27" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>4196</v>
       </c>
       <c r="F27" s="24">
         <v>0</v>
@@ -2125,22 +2135,22 @@
       <c r="H27" s="34"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C28" s="22">
-        <v>44970</v>
+        <v>42208</v>
       </c>
       <c r="D28" s="4">
         <v>45546</v>
       </c>
-      <c r="E28" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>576</v>
+      <c r="E28" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>3338</v>
       </c>
       <c r="F28" s="24">
         <v>0</v>
@@ -2149,22 +2159,22 @@
       <c r="H28" s="34"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
+        <v>26</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="C29" s="22">
-        <v>44956</v>
+        <v>44282</v>
       </c>
       <c r="D29" s="4">
         <v>45546</v>
       </c>
-      <c r="E29" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>590</v>
+      <c r="E29" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1264</v>
       </c>
       <c r="F29" s="24">
         <v>0</v>
@@ -2173,22 +2183,22 @@
       <c r="H29" s="34"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C30" s="22">
-        <v>44916</v>
+        <v>44418</v>
       </c>
       <c r="D30" s="32">
-        <v>45510.999884259261</v>
-      </c>
-      <c r="E30" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>594.99988425926131</v>
+        <v>45468.999965277777</v>
+      </c>
+      <c r="E30" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1050.9999652777769</v>
       </c>
       <c r="F30" s="24">
         <v>0</v>
@@ -2197,22 +2207,22 @@
       <c r="H30" s="34"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C31" s="22">
-        <v>44943</v>
+        <v>44866</v>
       </c>
       <c r="D31" s="4">
         <v>45546</v>
       </c>
-      <c r="E31" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>603</v>
+      <c r="E31" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>680</v>
       </c>
       <c r="F31" s="24">
         <v>0</v>
@@ -2221,22 +2231,22 @@
       <c r="H31" s="34"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="C32" s="22">
-        <v>44932</v>
+        <v>44956</v>
       </c>
       <c r="D32" s="4">
         <v>45546</v>
       </c>
-      <c r="E32" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>614</v>
+      <c r="E32" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>590</v>
       </c>
       <c r="F32" s="24">
         <v>0</v>
@@ -2245,22 +2255,22 @@
       <c r="H32" s="34"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C33" s="22">
-        <v>44778</v>
-      </c>
-      <c r="D33" s="32">
-        <v>45400.999976851854</v>
-      </c>
-      <c r="E33" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>622.99997685185372</v>
+        <v>44874</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E33" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>672</v>
       </c>
       <c r="F33" s="24">
         <v>0</v>
@@ -2269,22 +2279,22 @@
       <c r="H33" s="34"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C34" s="22">
-        <v>44923</v>
+        <v>44918</v>
       </c>
       <c r="D34" s="4">
         <v>45546</v>
       </c>
-      <c r="E34" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>623</v>
+      <c r="E34" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>628</v>
       </c>
       <c r="F34" s="24">
         <v>0</v>
@@ -2293,22 +2303,22 @@
       <c r="H34" s="34"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35" s="22">
-        <v>44918</v>
+        <v>44060</v>
       </c>
       <c r="D35" s="4">
         <v>45546</v>
       </c>
-      <c r="E35" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>628</v>
+      <c r="E35" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1486</v>
       </c>
       <c r="F35" s="24">
         <v>0</v>
@@ -2317,22 +2327,22 @@
       <c r="H35" s="34"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C36" s="22">
-        <v>44916</v>
+        <v>44117</v>
       </c>
       <c r="D36" s="4">
         <v>45546</v>
       </c>
-      <c r="E36" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>630</v>
+      <c r="E36" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1429</v>
       </c>
       <c r="F36" s="24">
         <v>0</v>
@@ -2341,22 +2351,22 @@
       <c r="H36" s="34"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C37" s="22">
-        <v>44915</v>
+        <v>44128</v>
       </c>
       <c r="D37" s="4">
         <v>45546</v>
       </c>
-      <c r="E37" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>631</v>
+      <c r="E37" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1418</v>
       </c>
       <c r="F37" s="24">
         <v>0</v>
@@ -2365,22 +2375,22 @@
       <c r="H37" s="34"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C38" s="22">
-        <v>44910</v>
+        <v>44252</v>
       </c>
       <c r="D38" s="4">
         <v>45546</v>
       </c>
-      <c r="E38" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>636</v>
+      <c r="E38" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1294</v>
       </c>
       <c r="F38" s="24">
         <v>0</v>
@@ -2389,22 +2399,22 @@
       <c r="H38" s="34"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C39" s="22">
-        <v>44620</v>
-      </c>
-      <c r="D39" s="32">
-        <v>45283.999884259261</v>
-      </c>
-      <c r="E39" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>663.99988425926131</v>
+        <v>44254</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E39" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1292</v>
       </c>
       <c r="F39" s="24">
         <v>0</v>
@@ -2413,22 +2423,22 @@
       <c r="H39" s="34"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>1</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C40" s="22">
-        <v>44874</v>
+        <v>44382</v>
       </c>
       <c r="D40" s="4">
         <v>45546</v>
       </c>
-      <c r="E40" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>672</v>
+      <c r="E40" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1164</v>
       </c>
       <c r="F40" s="24">
         <v>0</v>
@@ -2437,22 +2447,22 @@
       <c r="H40" s="34"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C41" s="22">
-        <v>44874</v>
+        <v>44406</v>
       </c>
       <c r="D41" s="4">
         <v>45546</v>
       </c>
-      <c r="E41" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>672</v>
+      <c r="E41" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1140</v>
       </c>
       <c r="F41" s="24">
         <v>0</v>
@@ -2461,22 +2471,22 @@
       <c r="H41" s="34"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C42" s="22">
-        <v>44866</v>
+        <v>44406</v>
       </c>
       <c r="D42" s="4">
         <v>45546</v>
       </c>
-      <c r="E42" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>680</v>
+      <c r="E42" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1140</v>
       </c>
       <c r="F42" s="24">
         <v>0</v>
@@ -2485,22 +2495,22 @@
       <c r="H42" s="34"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C43" s="22">
-        <v>44816</v>
+        <v>44525</v>
       </c>
       <c r="D43" s="32">
-        <v>45499.857685185183</v>
-      </c>
-      <c r="E43" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>683.85768518518307</v>
+        <v>45544.357870370368</v>
+      </c>
+      <c r="E43" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1019.3578703703679</v>
       </c>
       <c r="F43" s="24">
         <v>0</v>
@@ -2509,22 +2519,22 @@
       <c r="H43" s="34"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C44" s="22">
-        <v>44859</v>
+        <v>44602</v>
       </c>
       <c r="D44" s="4">
         <v>45546</v>
       </c>
-      <c r="E44" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>687</v>
+      <c r="E44" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>944</v>
       </c>
       <c r="F44" s="24">
         <v>0</v>
@@ -2533,22 +2543,22 @@
       <c r="H44" s="34"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C45" s="22">
-        <v>44855</v>
+        <v>44719</v>
       </c>
       <c r="D45" s="4">
         <v>45546</v>
       </c>
-      <c r="E45" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>691</v>
+      <c r="E45" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>827</v>
       </c>
       <c r="F45" s="25">
         <v>0</v>
@@ -2557,22 +2567,22 @@
       <c r="H45" s="34"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C46" s="22">
-        <v>44846</v>
+        <v>44752</v>
       </c>
       <c r="D46" s="4">
         <v>45546</v>
       </c>
-      <c r="E46" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>700</v>
+      <c r="E46" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>794</v>
       </c>
       <c r="F46" s="25">
         <v>0</v>
@@ -2581,22 +2591,22 @@
       <c r="H46" s="34"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C47" s="22">
-        <v>44844</v>
-      </c>
-      <c r="D47" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E47" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>702</v>
+        <v>44778</v>
+      </c>
+      <c r="D47" s="32">
+        <v>45400.999976851854</v>
+      </c>
+      <c r="E47" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>622.99997685185372</v>
       </c>
       <c r="F47" s="25">
         <v>0</v>
@@ -2605,22 +2615,22 @@
       <c r="H47" s="34"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C48" s="22">
-        <v>44828</v>
-      </c>
-      <c r="D48" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E48" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>718</v>
+        <v>45100</v>
+      </c>
+      <c r="D48" s="32">
+        <v>45545.595462962963</v>
+      </c>
+      <c r="E48" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>445.59546296296321</v>
       </c>
       <c r="F48" s="25">
         <v>0</v>
@@ -2629,22 +2639,22 @@
       <c r="H48" s="34"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C49" s="22">
-        <v>44819</v>
+        <v>45200</v>
       </c>
       <c r="D49" s="4">
         <v>45546</v>
       </c>
-      <c r="E49" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>727</v>
+      <c r="E49" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>346</v>
       </c>
       <c r="F49" s="25">
         <v>0</v>
@@ -2653,22 +2663,22 @@
       <c r="H49" s="34"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="C50" s="22">
-        <v>44798</v>
+        <v>44018</v>
       </c>
       <c r="D50" s="4">
         <v>45546</v>
       </c>
-      <c r="E50" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>748</v>
+      <c r="E50" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1528</v>
       </c>
       <c r="F50" s="25">
         <v>0</v>
@@ -2677,22 +2687,22 @@
       <c r="H50" s="34"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C51" s="22">
-        <v>44783</v>
+        <v>45118</v>
       </c>
       <c r="D51" s="4">
         <v>45546</v>
       </c>
-      <c r="E51" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>763</v>
+      <c r="E51" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>428</v>
       </c>
       <c r="F51" s="25">
         <v>0</v>
@@ -2701,22 +2711,22 @@
       <c r="H51" s="34"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C52" s="22">
-        <v>44758</v>
+        <v>43982</v>
       </c>
       <c r="D52" s="4">
         <v>45546</v>
       </c>
-      <c r="E52" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>788</v>
+      <c r="E52" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1564</v>
       </c>
       <c r="F52" s="25">
         <v>0</v>
@@ -2725,22 +2735,22 @@
       <c r="H52" s="34"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
-        <v>44</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C53" s="22">
-        <v>44752</v>
-      </c>
-      <c r="D53" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E53" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>794</v>
+        <v>44251</v>
+      </c>
+      <c r="D53" s="32">
+        <v>45518.999826388892</v>
+      </c>
+      <c r="E53" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1267.999826388892</v>
       </c>
       <c r="F53" s="25">
         <v>0</v>
@@ -2749,22 +2759,22 @@
       <c r="H53" s="34"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C54" s="22">
-        <v>44738</v>
+        <v>42736</v>
       </c>
       <c r="D54" s="4">
         <v>45546</v>
       </c>
-      <c r="E54" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>808</v>
+      <c r="E54" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2810</v>
       </c>
       <c r="F54" s="25">
         <v>0</v>
@@ -2773,22 +2783,22 @@
       <c r="H54" s="34"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C55" s="22">
-        <v>44735</v>
+        <v>44910</v>
       </c>
       <c r="D55" s="4">
         <v>45546</v>
       </c>
-      <c r="E55" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>811</v>
+      <c r="E55" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>636</v>
       </c>
       <c r="F55" s="25">
         <v>0</v>
@@ -2796,22 +2806,22 @@
       <c r="G55" s="2"/>
       <c r="H55" s="34"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C56" s="22">
-        <v>44734</v>
-      </c>
-      <c r="D56" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E56" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>812</v>
+        <v>44920</v>
+      </c>
+      <c r="D56" s="32">
+        <v>45324.995092592595</v>
+      </c>
+      <c r="E56" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>404.99509259259503</v>
       </c>
       <c r="F56" s="25">
         <v>0</v>
@@ -2820,23 +2830,20 @@
       <c r="H56" s="34"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="22">
-        <v>44460</v>
-      </c>
-      <c r="D57" s="32">
-        <v>45278.999930555554</v>
-      </c>
-      <c r="E57" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>818.99993055555387</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" t="s">
+        <v>264</v>
+      </c>
+      <c r="E57" s="42"/>
       <c r="F57" s="25">
         <v>0</v>
       </c>
@@ -2844,22 +2851,22 @@
       <c r="H57" s="34"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C58" s="22">
-        <v>44719</v>
+        <v>44105</v>
       </c>
       <c r="D58" s="4">
         <v>45546</v>
       </c>
-      <c r="E58" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>827</v>
+      <c r="E58" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1441</v>
       </c>
       <c r="F58" s="25">
         <v>0</v>
@@ -2868,22 +2875,22 @@
       <c r="H58" s="34"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C59" s="22">
-        <v>44680</v>
-      </c>
-      <c r="D59" s="32">
-        <v>45525.999895833331</v>
-      </c>
-      <c r="E59" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>845.99989583333081</v>
+        <v>44629</v>
+      </c>
+      <c r="D59" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E59" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>917</v>
       </c>
       <c r="F59" s="25">
         <v>0</v>
@@ -2892,22 +2899,22 @@
       <c r="H59" s="34"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C60" s="22">
-        <v>44680</v>
+        <v>43799</v>
       </c>
       <c r="D60" s="4">
         <v>45546</v>
       </c>
-      <c r="E60" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>866</v>
+      <c r="E60" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1747</v>
       </c>
       <c r="F60" s="25">
         <v>0</v>
@@ -2916,22 +2923,22 @@
       <c r="H60" s="34"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C61" s="22">
-        <v>44450</v>
-      </c>
-      <c r="D61" s="32">
-        <v>45325.999918981484</v>
-      </c>
-      <c r="E61" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>875.99991898148437</v>
+        <v>44126</v>
+      </c>
+      <c r="D61" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E61" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1420</v>
       </c>
       <c r="F61" s="25">
         <v>0</v>
@@ -2940,22 +2947,22 @@
       <c r="H61" s="34"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C62" s="22">
-        <v>44629</v>
+        <v>44184</v>
       </c>
       <c r="D62" s="4">
         <v>45546</v>
       </c>
-      <c r="E62" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>917</v>
+      <c r="E62" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1362</v>
       </c>
       <c r="F62" s="25">
         <v>0</v>
@@ -2964,22 +2971,22 @@
       <c r="H62" s="34"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="C63" s="22">
-        <v>44336</v>
-      </c>
-      <c r="D63" s="32">
-        <v>45278.999942129631</v>
-      </c>
-      <c r="E63" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>942.99994212963065</v>
+        <v>44210</v>
+      </c>
+      <c r="D63" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E63" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1336</v>
       </c>
       <c r="F63" s="25">
         <v>0</v>
@@ -2988,22 +2995,22 @@
       <c r="H63" s="34"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C64" s="22">
-        <v>44602</v>
+        <v>44915</v>
       </c>
       <c r="D64" s="4">
         <v>45546</v>
       </c>
-      <c r="E64" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>944</v>
+      <c r="E64" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>631</v>
       </c>
       <c r="F64" s="25">
         <v>0</v>
@@ -3012,22 +3019,22 @@
       <c r="H64" s="34"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C65" s="22">
-        <v>44598</v>
+        <v>44970</v>
       </c>
       <c r="D65" s="4">
         <v>45546</v>
       </c>
-      <c r="E65" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>948</v>
+      <c r="E65" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>576</v>
       </c>
       <c r="F65" s="25">
         <v>0</v>
@@ -3036,22 +3043,22 @@
       <c r="H65" s="34"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C66" s="22">
-        <v>44428</v>
-      </c>
-      <c r="D66" s="32">
-        <v>45396.999988425923</v>
-      </c>
-      <c r="E66" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>968.99998842592322</v>
+        <v>45209</v>
+      </c>
+      <c r="D66" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E66" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>337</v>
       </c>
       <c r="F66" s="25">
         <v>0</v>
@@ -3060,22 +3067,22 @@
       <c r="H66" s="34"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C67" s="22">
-        <v>44414</v>
-      </c>
-      <c r="D67" s="32">
-        <v>45400.874641203707</v>
-      </c>
-      <c r="E67" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>986.87464120370714</v>
+        <v>44457</v>
+      </c>
+      <c r="D67" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E67" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1089</v>
       </c>
       <c r="F67" s="25">
         <v>0</v>
@@ -3084,22 +3091,22 @@
       <c r="H67" s="34"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C68" s="22">
-        <v>44534</v>
+        <v>44916</v>
       </c>
       <c r="D68" s="4">
         <v>45546</v>
       </c>
-      <c r="E68" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1012</v>
+      <c r="E68" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>630</v>
       </c>
       <c r="F68" s="25">
         <v>0</v>
@@ -3108,22 +3115,22 @@
       <c r="H68" s="34"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C69" s="22">
-        <v>44525</v>
-      </c>
-      <c r="D69" s="32">
-        <v>45544.357870370368</v>
-      </c>
-      <c r="E69" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1019.3578703703679</v>
+        <v>44250</v>
+      </c>
+      <c r="D69" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E69" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1296</v>
       </c>
       <c r="F69" s="25">
         <v>0</v>
@@ -3132,22 +3139,22 @@
       <c r="H69" s="34"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C70" s="22">
-        <v>44418</v>
+        <v>45106</v>
       </c>
       <c r="D70" s="32">
-        <v>45468.999965277777</v>
-      </c>
-      <c r="E70" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1050.9999652777769</v>
+        <v>45539.996655092589</v>
+      </c>
+      <c r="E70" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>433.99665509258921</v>
       </c>
       <c r="F70" s="25">
         <v>0</v>
@@ -3156,22 +3163,22 @@
       <c r="H70" s="34"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C71" s="22">
-        <v>44493</v>
+        <v>44758</v>
       </c>
       <c r="D71" s="4">
         <v>45546</v>
       </c>
-      <c r="E71" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1053</v>
+      <c r="E71" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>788</v>
       </c>
       <c r="F71" s="25">
         <v>0</v>
@@ -3180,22 +3187,22 @@
       <c r="H71" s="34"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C72" s="22">
-        <v>44461</v>
-      </c>
-      <c r="D72" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E72" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1085</v>
+        <v>44816</v>
+      </c>
+      <c r="D72" s="32">
+        <v>45499.857685185183</v>
+      </c>
+      <c r="E72" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>683.85768518518307</v>
       </c>
       <c r="F72" s="25">
         <v>0</v>
@@ -3204,22 +3211,22 @@
       <c r="H72" s="34"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C73" s="22">
-        <v>44457</v>
+        <v>44846</v>
       </c>
       <c r="D73" s="4">
         <v>45546</v>
       </c>
-      <c r="E73" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1089</v>
+      <c r="E73" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>700</v>
       </c>
       <c r="F73" s="25">
         <v>0</v>
@@ -3228,22 +3235,22 @@
       <c r="H73" s="34"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C74" s="22">
-        <v>44369</v>
-      </c>
-      <c r="D74" s="32">
-        <v>45476.941145833334</v>
-      </c>
-      <c r="E74" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1107.9411458333343</v>
+        <v>43535</v>
+      </c>
+      <c r="D74" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E74" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2011</v>
       </c>
       <c r="F74" s="25">
         <v>0</v>
@@ -3252,22 +3259,22 @@
       <c r="H74" s="34"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C75" s="22">
-        <v>44432</v>
-      </c>
-      <c r="D75" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E75" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1114</v>
+        <v>45104</v>
+      </c>
+      <c r="D75" s="32">
+        <v>45386.999872685185</v>
+      </c>
+      <c r="E75" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>282.99987268518453</v>
       </c>
       <c r="F75" s="25">
         <v>0</v>
@@ -3276,22 +3283,22 @@
       <c r="H75" s="34"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C76" s="22">
-        <v>44406</v>
+        <v>45016</v>
       </c>
       <c r="D76" s="4">
         <v>45546</v>
       </c>
-      <c r="E76" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1140</v>
+      <c r="E76" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>530</v>
       </c>
       <c r="F76" s="26">
         <v>0</v>
@@ -3300,22 +3307,22 @@
       <c r="H76" s="34"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C77" s="22">
-        <v>44406</v>
+        <v>44734</v>
       </c>
       <c r="D77" s="4">
         <v>45546</v>
       </c>
-      <c r="E77" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1140</v>
+      <c r="E77" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>812</v>
       </c>
       <c r="F77" s="26">
         <v>0</v>
@@ -3324,22 +3331,22 @@
       <c r="H77" s="34"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C78" s="22">
-        <v>44406</v>
+        <v>45007</v>
       </c>
       <c r="D78" s="4">
         <v>45546</v>
       </c>
-      <c r="E78" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1140</v>
+      <c r="E78" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>539</v>
       </c>
       <c r="F78" s="26">
         <v>0</v>
@@ -3348,22 +3355,22 @@
       <c r="H78" s="34"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C79" s="22">
-        <v>44382</v>
+        <v>45046</v>
       </c>
       <c r="D79" s="4">
         <v>45546</v>
       </c>
-      <c r="E79" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1164</v>
+      <c r="E79" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>500</v>
       </c>
       <c r="F79" s="26">
         <v>0</v>
@@ -3372,22 +3379,22 @@
       <c r="H79" s="34"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C80" s="22">
-        <v>44375</v>
+        <v>45060</v>
       </c>
       <c r="D80" s="4">
         <v>45546</v>
       </c>
-      <c r="E80" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1171</v>
+      <c r="E80" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>486</v>
       </c>
       <c r="F80" s="26">
         <v>0</v>
@@ -3396,22 +3403,22 @@
       <c r="H80" s="34"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="C81" s="22">
-        <v>44358</v>
+        <v>43736</v>
       </c>
       <c r="D81" s="4">
         <v>45546</v>
       </c>
-      <c r="E81" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1188</v>
+      <c r="E81" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1810</v>
       </c>
       <c r="F81" s="26">
         <v>0</v>
@@ -3420,22 +3427,22 @@
       <c r="H81" s="34"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C82" s="22">
-        <v>44275</v>
-      </c>
-      <c r="D82" s="32">
-        <v>45463.999884259261</v>
-      </c>
-      <c r="E82" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1188.9998842592613</v>
+        <v>43349</v>
+      </c>
+      <c r="D82" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E82" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2197</v>
       </c>
       <c r="F82" s="26">
         <v>0</v>
@@ -3444,22 +3451,22 @@
       <c r="H82" s="34"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C83" s="22">
-        <v>44341</v>
+        <v>44375</v>
       </c>
       <c r="D83" s="4">
         <v>45546</v>
       </c>
-      <c r="E83" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1205</v>
+      <c r="E83" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1171</v>
       </c>
       <c r="F83" s="26">
         <v>0</v>
@@ -3468,46 +3475,46 @@
       <c r="H83" s="34"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C84" s="22">
-        <v>44313</v>
+        <v>45306</v>
       </c>
       <c r="D84" s="4">
         <v>45546</v>
       </c>
-      <c r="E84" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1233</v>
+      <c r="E84" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>240</v>
       </c>
       <c r="F84" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="34"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C85" s="22">
-        <v>44285</v>
-      </c>
-      <c r="D85" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E85" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1261</v>
+        <v>44369</v>
+      </c>
+      <c r="D85" s="32">
+        <v>45476.941145833334</v>
+      </c>
+      <c r="E85" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1107.9411458333343</v>
       </c>
       <c r="F85" s="26">
         <v>0</v>
@@ -3516,22 +3523,22 @@
       <c r="H85" s="34"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C86" s="22">
-        <v>44282</v>
+        <v>44406</v>
       </c>
       <c r="D86" s="4">
         <v>45546</v>
       </c>
-      <c r="E86" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1264</v>
+      <c r="E86" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1140</v>
       </c>
       <c r="F86" s="26">
         <v>0</v>
@@ -3540,22 +3547,22 @@
       <c r="H86" s="34"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
-        <v>50</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>53</v>
+        <v>83</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C87" s="22">
-        <v>44251</v>
-      </c>
-      <c r="D87" s="32">
-        <v>45518.999826388892</v>
-      </c>
-      <c r="E87" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1267.999826388892</v>
+        <v>44432</v>
+      </c>
+      <c r="D87" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E87" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1114</v>
       </c>
       <c r="F87" s="26">
         <v>0</v>
@@ -3564,22 +3571,22 @@
       <c r="H87" s="34"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C88" s="22">
-        <v>44254</v>
-      </c>
-      <c r="D88" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E88" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1292</v>
+        <v>44460</v>
+      </c>
+      <c r="D88" s="32">
+        <v>45278.999930555554</v>
+      </c>
+      <c r="E88" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>818.99993055555387</v>
       </c>
       <c r="F88" s="26">
         <v>0</v>
@@ -3588,22 +3595,22 @@
       <c r="H88" s="34"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C89" s="22">
-        <v>44252</v>
+        <v>43357</v>
       </c>
       <c r="D89" s="4">
         <v>45546</v>
       </c>
-      <c r="E89" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1294</v>
+      <c r="E89" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2189</v>
       </c>
       <c r="F89" s="26">
         <v>0</v>
@@ -3612,22 +3619,22 @@
       <c r="H89" s="34"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C90" s="22">
-        <v>44250</v>
-      </c>
-      <c r="D90" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E90" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1296</v>
+        <v>45092</v>
+      </c>
+      <c r="D90" s="32">
+        <v>45531.999537037038</v>
+      </c>
+      <c r="E90" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>439.99953703703795</v>
       </c>
       <c r="F90" s="26">
         <v>0</v>
@@ -3636,22 +3643,22 @@
       <c r="H90" s="34"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C91" s="22">
-        <v>44210</v>
+        <v>44828</v>
       </c>
       <c r="D91" s="4">
         <v>45546</v>
       </c>
-      <c r="E91" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1336</v>
+      <c r="E91" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>718</v>
       </c>
       <c r="F91" s="26">
         <v>0</v>
@@ -3660,22 +3667,22 @@
       <c r="H91" s="34"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C92" s="22">
-        <v>44194</v>
+        <v>44844</v>
       </c>
       <c r="D92" s="4">
         <v>45546</v>
       </c>
-      <c r="E92" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1352</v>
+      <c r="E92" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>702</v>
       </c>
       <c r="F92" s="26">
         <v>0</v>
@@ -3684,22 +3691,22 @@
       <c r="H92" s="34"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C93" s="22">
-        <v>44184</v>
-      </c>
-      <c r="D93" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E93" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1362</v>
+        <v>44916</v>
+      </c>
+      <c r="D93" s="32">
+        <v>45510.999884259261</v>
+      </c>
+      <c r="E93" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>594.99988425926131</v>
       </c>
       <c r="F93" s="26">
         <v>0</v>
@@ -3707,22 +3714,22 @@
       <c r="G93" s="2"/>
       <c r="H93" s="34"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <v>5</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C94" s="22">
-        <v>44172</v>
+        <v>45004</v>
       </c>
       <c r="D94" s="4">
         <v>45546</v>
       </c>
-      <c r="E94" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1374</v>
+      <c r="E94" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>542</v>
       </c>
       <c r="F94" s="26">
         <v>0</v>
@@ -3731,22 +3738,22 @@
       <c r="H94" s="34"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C95" s="22">
-        <v>44156</v>
+        <v>45007</v>
       </c>
       <c r="D95" s="4">
         <v>45546</v>
       </c>
-      <c r="E95" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1390</v>
+      <c r="E95" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>539</v>
       </c>
       <c r="F95" s="26">
         <v>0</v>
@@ -3755,23 +3762,20 @@
       <c r="H95" s="34"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C96" s="22">
-        <v>44129</v>
-      </c>
-      <c r="D96" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E96" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1417</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D96" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" s="42"/>
       <c r="F96" s="26">
         <v>0</v>
       </c>
@@ -3779,22 +3783,22 @@
       <c r="H96" s="34"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C97" s="22">
-        <v>44128</v>
-      </c>
-      <c r="D97" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E97" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1418</v>
+        <v>43650</v>
+      </c>
+      <c r="D97" s="32">
+        <v>45542.998993055553</v>
+      </c>
+      <c r="E97" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1892.998993055553</v>
       </c>
       <c r="F97" s="27">
         <v>0</v>
@@ -3803,22 +3807,22 @@
       <c r="H97" s="34"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C98" s="22">
-        <v>44126</v>
+        <v>43729</v>
       </c>
       <c r="D98" s="4">
         <v>45546</v>
       </c>
-      <c r="E98" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1420</v>
+      <c r="E98" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1817</v>
       </c>
       <c r="F98" s="27">
         <v>0</v>
@@ -3827,22 +3831,22 @@
       <c r="H98" s="34"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C99" s="22">
-        <v>44117</v>
+        <v>43886</v>
       </c>
       <c r="D99" s="4">
         <v>45546</v>
       </c>
-      <c r="E99" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1429</v>
+      <c r="E99" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1660</v>
       </c>
       <c r="F99" s="27">
         <v>0</v>
@@ -3851,22 +3855,22 @@
       <c r="H99" s="34"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C100" s="22">
-        <v>44106</v>
+        <v>43999</v>
       </c>
       <c r="D100" s="4">
         <v>45546</v>
       </c>
-      <c r="E100" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1440</v>
+      <c r="E100" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1547</v>
       </c>
       <c r="F100" s="27">
         <v>0</v>
@@ -3877,20 +3881,20 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C101" s="22">
-        <v>44105</v>
+        <v>43568</v>
       </c>
       <c r="D101" s="4">
         <v>45546</v>
       </c>
-      <c r="E101" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1441</v>
+      <c r="E101" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1978</v>
       </c>
       <c r="F101" s="27">
         <v>0</v>
@@ -3899,7 +3903,7 @@
       <c r="H101" s="34"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>98</v>
       </c>
@@ -3912,7 +3916,7 @@
       <c r="D102" s="4">
         <v>45546</v>
       </c>
-      <c r="E102" s="34">
+      <c r="E102" s="41">
         <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
         <v>1464</v>
       </c>
@@ -3923,22 +3927,22 @@
       <c r="H102" s="34"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C103" s="22">
-        <v>44060</v>
+        <v>44129</v>
       </c>
       <c r="D103" s="4">
         <v>45546</v>
       </c>
-      <c r="E103" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1486</v>
+      <c r="E103" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1417</v>
       </c>
       <c r="F103" s="27">
         <v>0</v>
@@ -3947,22 +3951,22 @@
       <c r="H103" s="34"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C104" s="22">
-        <v>44051</v>
+        <v>44156</v>
       </c>
       <c r="D104" s="4">
         <v>45546</v>
       </c>
-      <c r="E104" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1495</v>
+      <c r="E104" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1390</v>
       </c>
       <c r="F104" s="27">
         <v>0</v>
@@ -3971,22 +3975,22 @@
       <c r="H104" s="34"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C105" s="22">
-        <v>44040</v>
-      </c>
-      <c r="D105" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E105" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1506</v>
+        <v>44275</v>
+      </c>
+      <c r="D105" s="32">
+        <v>45463.999884259261</v>
+      </c>
+      <c r="E105" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1188.9998842592613</v>
       </c>
       <c r="F105" s="27">
         <v>0</v>
@@ -3995,22 +3999,22 @@
       <c r="H105" s="34"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C106" s="22">
-        <v>44018</v>
+        <v>44341</v>
       </c>
       <c r="D106" s="4">
         <v>45546</v>
       </c>
-      <c r="E106" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1528</v>
+      <c r="E106" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1205</v>
       </c>
       <c r="F106" s="27">
         <v>0</v>
@@ -4019,22 +4023,22 @@
       <c r="H106" s="34"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C107" s="22">
-        <v>44016</v>
+        <v>44598</v>
       </c>
       <c r="D107" s="4">
         <v>45546</v>
       </c>
-      <c r="E107" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1530</v>
+      <c r="E107" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>948</v>
       </c>
       <c r="F107" s="27">
         <v>0</v>
@@ -4043,22 +4047,22 @@
       <c r="H107" s="34"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C108" s="22">
-        <v>43999</v>
-      </c>
-      <c r="D108" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E108" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1547</v>
+        <v>44620</v>
+      </c>
+      <c r="D108" s="32">
+        <v>45283.999884259261</v>
+      </c>
+      <c r="E108" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>663.99988425926131</v>
       </c>
       <c r="F108" s="27">
         <v>0</v>
@@ -4066,22 +4070,22 @@
       <c r="G108" s="2"/>
       <c r="H108" s="34"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C109" s="22">
-        <v>43982</v>
+        <v>44680</v>
       </c>
       <c r="D109" s="4">
         <v>45546</v>
       </c>
-      <c r="E109" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1564</v>
+      <c r="E109" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>866</v>
       </c>
       <c r="F109" s="27">
         <v>0</v>
@@ -4090,22 +4094,22 @@
       <c r="H109" s="34"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C110" s="22">
-        <v>43886</v>
+        <v>44798</v>
       </c>
       <c r="D110" s="4">
         <v>45546</v>
       </c>
-      <c r="E110" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1660</v>
+      <c r="E110" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>748</v>
       </c>
       <c r="F110" s="27">
         <v>0</v>
@@ -4114,23 +4118,20 @@
       <c r="H110" s="34"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="22">
-        <v>43864</v>
-      </c>
-      <c r="D111" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E111" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1682</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" t="s">
+        <v>264</v>
+      </c>
+      <c r="E111" s="42"/>
       <c r="F111" s="27">
         <v>0</v>
       </c>
@@ -4138,22 +4139,22 @@
       <c r="H111" s="34"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C112" s="22">
-        <v>43827</v>
+        <v>42940</v>
       </c>
       <c r="D112" s="4">
         <v>45546</v>
       </c>
-      <c r="E112" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1719</v>
+      <c r="E112" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2606</v>
       </c>
       <c r="F112" s="27">
         <v>0</v>
@@ -4162,22 +4163,22 @@
       <c r="H112" s="34"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C113" s="22">
-        <v>43799</v>
+        <v>43419</v>
       </c>
       <c r="D113" s="4">
         <v>45546</v>
       </c>
-      <c r="E113" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1747</v>
+      <c r="E113" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2127</v>
       </c>
       <c r="F113" s="27">
         <v>0</v>
@@ -4186,22 +4187,22 @@
       <c r="H113" s="34"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C114" s="22">
-        <v>43736</v>
-      </c>
-      <c r="D114" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E114" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1810</v>
+        <v>44428</v>
+      </c>
+      <c r="D114" s="32">
+        <v>45396.999988425923</v>
+      </c>
+      <c r="E114" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>968.99998842592322</v>
       </c>
       <c r="F114" s="27">
         <v>0</v>
@@ -4210,22 +4211,22 @@
       <c r="H114" s="34"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C115" s="22">
-        <v>43729</v>
+        <v>44855</v>
       </c>
       <c r="D115" s="4">
         <v>45546</v>
       </c>
-      <c r="E115" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1817</v>
+      <c r="E115" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>691</v>
       </c>
       <c r="F115" s="27">
         <v>0</v>
@@ -4234,22 +4235,22 @@
       <c r="H115" s="34"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C116" s="22">
-        <v>43650</v>
-      </c>
-      <c r="D116" s="32">
-        <v>45542.998993055553</v>
-      </c>
-      <c r="E116" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1892.998993055553</v>
+        <v>44932</v>
+      </c>
+      <c r="D116" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E116" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>614</v>
       </c>
       <c r="F116" s="27">
         <v>0</v>
@@ -4258,22 +4259,22 @@
       <c r="H116" s="34"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C117" s="22">
-        <v>43621</v>
+        <v>44051</v>
       </c>
       <c r="D117" s="4">
         <v>45546</v>
       </c>
-      <c r="E117" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1925</v>
+      <c r="E117" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1495</v>
       </c>
       <c r="F117" s="27">
         <v>0</v>
@@ -4282,22 +4283,22 @@
       <c r="H117" s="34"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C118" s="22">
-        <v>43612</v>
+        <v>45153</v>
       </c>
       <c r="D118" s="4">
         <v>45546</v>
       </c>
-      <c r="E118" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1934</v>
+      <c r="E118" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>393</v>
       </c>
       <c r="F118" s="29">
         <v>0</v>
@@ -4306,22 +4307,22 @@
       <c r="H118" s="34"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C119" s="22">
-        <v>43572</v>
-      </c>
-      <c r="D119" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E119" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1974</v>
+        <v>44450</v>
+      </c>
+      <c r="D119" s="32">
+        <v>45325.999918981484</v>
+      </c>
+      <c r="E119" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>875.99991898148437</v>
       </c>
       <c r="F119" s="29">
         <v>0</v>
@@ -4330,22 +4331,22 @@
       <c r="H119" s="34"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C120" s="22">
-        <v>43567</v>
+        <v>43487</v>
       </c>
       <c r="D120" s="4">
         <v>45546</v>
       </c>
-      <c r="E120" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1979</v>
+      <c r="E120" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2059</v>
       </c>
       <c r="F120" s="29">
         <v>0</v>
@@ -4354,22 +4355,22 @@
       <c r="H120" s="34"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C121" s="22">
-        <v>43535</v>
+        <v>45083</v>
       </c>
       <c r="D121" s="4">
         <v>45546</v>
       </c>
-      <c r="E121" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2011</v>
+      <c r="E121" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>463</v>
       </c>
       <c r="F121" s="29">
         <v>0</v>
@@ -4378,22 +4379,22 @@
       <c r="H121" s="34"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C122" s="22">
-        <v>43487</v>
+        <v>44493</v>
       </c>
       <c r="D122" s="4">
         <v>45546</v>
       </c>
-      <c r="E122" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2059</v>
+      <c r="E122" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1053</v>
       </c>
       <c r="F122" s="29">
         <v>0</v>
@@ -4402,22 +4403,22 @@
       <c r="H122" s="34"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="C123" s="22">
-        <v>43433</v>
-      </c>
-      <c r="D123" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E123" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2113</v>
+        <v>44414</v>
+      </c>
+      <c r="D123" s="32">
+        <v>45400.874641203707</v>
+      </c>
+      <c r="E123" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>986.87464120370714</v>
       </c>
       <c r="F123" s="29">
         <v>0</v>
@@ -4426,22 +4427,22 @@
       <c r="H123" s="34"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C124" s="22">
-        <v>43419</v>
+        <v>44783</v>
       </c>
       <c r="D124" s="4">
         <v>45546</v>
       </c>
-      <c r="E124" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2127</v>
+      <c r="E124" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>763</v>
       </c>
       <c r="F124" s="29">
         <v>0</v>
@@ -4450,22 +4451,22 @@
       <c r="H124" s="34"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C125" s="22">
-        <v>43357</v>
+        <v>43245</v>
       </c>
       <c r="D125" s="4">
         <v>45546</v>
       </c>
-      <c r="E125" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2189</v>
+      <c r="E125" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2301</v>
       </c>
       <c r="F125" s="29">
         <v>0</v>
@@ -4474,22 +4475,22 @@
       <c r="H125" s="34"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C126" s="22">
-        <v>43349</v>
+        <v>43329</v>
       </c>
       <c r="D126" s="4">
         <v>45546</v>
       </c>
-      <c r="E126" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2197</v>
+      <c r="E126" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2217</v>
       </c>
       <c r="F126" s="29">
         <v>0</v>
@@ -4498,22 +4499,22 @@
       <c r="H126" s="34"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C127" s="22">
-        <v>43329</v>
+        <v>44285</v>
       </c>
       <c r="D127" s="4">
         <v>45546</v>
       </c>
-      <c r="E127" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2217</v>
+      <c r="E127" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1261</v>
       </c>
       <c r="F127" s="30">
         <v>0</v>
@@ -4522,22 +4523,22 @@
       <c r="H127" s="34"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="C128" s="22">
-        <v>43245</v>
+        <v>44735</v>
       </c>
       <c r="D128" s="4">
         <v>45546</v>
       </c>
-      <c r="E128" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2301</v>
+      <c r="E128" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>811</v>
       </c>
       <c r="F128" s="30">
         <v>0</v>
@@ -4546,22 +4547,22 @@
       <c r="H128" s="34"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C129" s="22">
-        <v>43163</v>
+        <v>44016</v>
       </c>
       <c r="D129" s="4">
         <v>45546</v>
       </c>
-      <c r="E129" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2383</v>
+      <c r="E129" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1530</v>
       </c>
       <c r="F129" s="30">
         <v>0</v>
@@ -4570,22 +4571,22 @@
       <c r="H129" s="34"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C130" s="22">
-        <v>42833</v>
-      </c>
-      <c r="D130" s="32">
-        <v>45360.991597222222</v>
-      </c>
-      <c r="E130" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2527.9915972222225</v>
+        <v>42866</v>
+      </c>
+      <c r="D130" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E130" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2680</v>
       </c>
       <c r="F130" s="30">
         <v>0</v>
@@ -4594,22 +4595,22 @@
       <c r="H130" s="34"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C131" s="22">
-        <v>42940</v>
+        <v>45033</v>
       </c>
       <c r="D131" s="4">
         <v>45546</v>
       </c>
-      <c r="E131" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2606</v>
+      <c r="E131" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>513</v>
       </c>
       <c r="F131" s="30">
         <v>0</v>
@@ -4618,22 +4619,22 @@
       <c r="H131" s="34"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C132" s="22">
-        <v>42866</v>
+        <v>43864</v>
       </c>
       <c r="D132" s="4">
         <v>45546</v>
       </c>
-      <c r="E132" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2680</v>
+      <c r="E132" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1682</v>
       </c>
       <c r="F132" s="14">
         <v>0</v>
@@ -4642,22 +4643,22 @@
       <c r="H132" s="34"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C133" s="22">
-        <v>42826</v>
+        <v>43621</v>
       </c>
       <c r="D133" s="4">
         <v>45546</v>
       </c>
-      <c r="E133" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2720</v>
+      <c r="E133" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1925</v>
       </c>
       <c r="F133" s="30">
         <v>0</v>
@@ -4666,22 +4667,22 @@
       <c r="H133" s="34"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="C134" s="22">
-        <v>42736</v>
-      </c>
-      <c r="D134" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E134" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2810</v>
+        <v>44336</v>
+      </c>
+      <c r="D134" s="32">
+        <v>45278.999942129631</v>
+      </c>
+      <c r="E134" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>942.99994212963065</v>
       </c>
       <c r="F134" s="30">
         <v>0</v>
@@ -4690,22 +4691,22 @@
       <c r="H134" s="34"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C135" s="22">
-        <v>42736</v>
+        <v>42403</v>
       </c>
       <c r="D135" s="4">
         <v>45546</v>
       </c>
-      <c r="E135" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2810</v>
+      <c r="E135" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>3143</v>
       </c>
       <c r="F135" s="30">
         <v>0</v>
@@ -4714,22 +4715,22 @@
       <c r="H135" s="34"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C136" s="22">
-        <v>42403</v>
+        <v>41049</v>
       </c>
       <c r="D136" s="4">
         <v>45546</v>
       </c>
-      <c r="E136" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>3143</v>
+      <c r="E136" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>4497</v>
       </c>
       <c r="F136" s="30">
         <v>0</v>
@@ -4738,22 +4739,22 @@
       <c r="H136" s="34"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="C137" s="22">
-        <v>42208</v>
+        <v>41674</v>
       </c>
       <c r="D137" s="4">
         <v>45546</v>
       </c>
-      <c r="E137" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>3338</v>
+      <c r="E137" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>3872</v>
       </c>
       <c r="F137" s="30">
         <v>0</v>
@@ -4762,22 +4763,22 @@
       <c r="H137" s="34"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C138" s="22">
-        <v>41674</v>
+        <v>44859</v>
       </c>
       <c r="D138" s="4">
         <v>45546</v>
       </c>
-      <c r="E138" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>3872</v>
+      <c r="E138" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>687</v>
       </c>
       <c r="F138" s="30">
         <v>0</v>
@@ -4786,22 +4787,22 @@
       <c r="H138" s="34"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="C139" s="22">
-        <v>41350</v>
+        <v>44981</v>
       </c>
       <c r="D139" s="4">
         <v>45546</v>
       </c>
-      <c r="E139" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>4196</v>
+      <c r="E139" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>565</v>
       </c>
       <c r="F139" s="30">
         <v>0</v>
@@ -4810,22 +4811,22 @@
       <c r="H139" s="34"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C140" s="22">
-        <v>41049</v>
+        <v>44313</v>
       </c>
       <c r="D140" s="4">
         <v>45546</v>
       </c>
-      <c r="E140" s="34">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>4497</v>
+      <c r="E140" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1233</v>
       </c>
       <c r="F140" s="30">
         <v>0</v>
@@ -4834,20 +4835,23 @@
       <c r="H140" s="34"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D141" t="s">
-        <v>264</v>
-      </c>
-      <c r="E141"/>
+        <v>136</v>
+      </c>
+      <c r="C141" s="22">
+        <v>43433</v>
+      </c>
+      <c r="D141" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E141" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2113</v>
+      </c>
       <c r="F141" s="30">
         <v>0</v>
       </c>
@@ -4855,20 +4859,23 @@
       <c r="H141" s="34"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D142" t="s">
-        <v>264</v>
-      </c>
-      <c r="E142"/>
+        <v>137</v>
+      </c>
+      <c r="C142" s="22">
+        <v>43572</v>
+      </c>
+      <c r="D142" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E142" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1974</v>
+      </c>
       <c r="F142" s="30">
         <v>0</v>
       </c>
@@ -4876,20 +4883,23 @@
       <c r="H142" s="34"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D143" t="s">
-        <v>264</v>
-      </c>
-      <c r="E143"/>
+        <v>139</v>
+      </c>
+      <c r="C143" s="22">
+        <v>45063</v>
+      </c>
+      <c r="D143" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E143" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>483</v>
+      </c>
       <c r="F143" s="30">
         <v>0</v>
       </c>
@@ -4897,20 +4907,23 @@
       <c r="H143" s="34"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D144" t="s">
-        <v>264</v>
-      </c>
-      <c r="E144"/>
+        <v>138</v>
+      </c>
+      <c r="C144" s="22">
+        <v>43612</v>
+      </c>
+      <c r="D144" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E144" s="41">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1934</v>
+      </c>
       <c r="F144" s="30">
         <v>0</v>
       </c>

--- a/info_wunder.xlsx
+++ b/info_wunder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\tecnicatura_ia\adscripcion\wunder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF4174-C2A6-42DA-A7C1-E2B778AD3AB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEDBF2B-C2B9-4E6D-B83A-0097A584A5DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,6 +1110,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1128,10 +1132,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1139,10 +1139,10 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
@@ -1246,23 +1246,17 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F1D090AC-1028-4E37-8AF3-21AF76AA1915}" name="Table3" displayName="Table3" ref="A1:F144" totalsRowShown="0">
-  <autoFilter ref="A1:F144" xr:uid="{0178986E-7A41-44C1-BFAB-9C4133D6CE5D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="IROSAR5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F144" xr:uid="{0178986E-7A41-44C1-BFAB-9C4133D6CE5D}"/>
   <sortState ref="A2:F144">
-    <sortCondition ref="B1:B144"/>
+    <sortCondition ref="C1:C144"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{32E268D2-049C-4DC8-A1E2-52ADDED4FC74}" name="índice" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D40DACC-075A-47A6-8206-96627E160B72}" name="id" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{5AF1C093-77D3-4351-81A5-6EEB9E2ADA96}" name="inicio" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{81953E3E-C968-4444-9FE5-4633B7C51C99}" name="fecha_ultimo_reporte" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{AB0A46F0-AC6A-4779-ADBF-1D9936A32704}" name="dias_obs" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{D21B3D98-A9FF-42E6-8F6A-AA58B6B9CACD}" name="buscar_obs" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AB0A46F0-AC6A-4779-ADBF-1D9936A32704}" name="dias_obs" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D21B3D98-A9FF-42E6-8F6A-AA58B6B9CACD}" name="buscar_obs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1476,7 +1470,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,22 +1505,22 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>131</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="C2" s="22">
-        <v>44874</v>
+        <v>41049</v>
       </c>
       <c r="D2" s="4">
         <v>45546</v>
       </c>
-      <c r="E2" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>672</v>
+      <c r="E2" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>4497</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1535,22 +1529,22 @@
       <c r="I2"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="22">
-        <v>44986</v>
+        <v>41350</v>
       </c>
       <c r="D3" s="4">
         <v>45546</v>
       </c>
-      <c r="E3" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>560</v>
+      <c r="E3" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>4196</v>
       </c>
       <c r="F3" s="21">
         <v>0</v>
@@ -1560,22 +1554,22 @@
       <c r="I3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>132</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="C4" s="22">
-        <v>45067</v>
-      </c>
-      <c r="D4" s="32">
-        <v>45344.902569444443</v>
-      </c>
-      <c r="E4" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>277.90256944444263</v>
+        <v>41674</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E4" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>3872</v>
       </c>
       <c r="F4" s="21">
         <v>0</v>
@@ -1585,22 +1579,22 @@
       <c r="I4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="22">
-        <v>45040</v>
-      </c>
-      <c r="D5" s="32">
-        <v>45407.999849537038</v>
-      </c>
-      <c r="E5" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>367.99984953703824</v>
+        <v>42208</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E5" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>3338</v>
       </c>
       <c r="F5" s="21">
         <v>0</v>
@@ -1609,22 +1603,22 @@
       <c r="H5" s="34"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>133</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="C6" s="22">
-        <v>44172</v>
+        <v>42403</v>
       </c>
       <c r="D6" s="4">
         <v>45546</v>
       </c>
-      <c r="E6" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1374</v>
+      <c r="E6" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>3143</v>
       </c>
       <c r="F6" s="21">
         <v>0</v>
@@ -1634,22 +1628,22 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="22">
-        <v>44943</v>
+        <v>42736</v>
       </c>
       <c r="D7" s="4">
         <v>45546</v>
       </c>
-      <c r="E7" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>603</v>
+      <c r="E7" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2810</v>
       </c>
       <c r="F7" s="21">
         <v>0</v>
@@ -1658,22 +1652,22 @@
       <c r="H7" s="34"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C8" s="22">
-        <v>45124</v>
+        <v>42736</v>
       </c>
       <c r="D8" s="4">
         <v>45546</v>
       </c>
-      <c r="E8" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>422</v>
+      <c r="E8" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2810</v>
       </c>
       <c r="F8" s="21">
         <v>0</v>
@@ -1682,22 +1676,22 @@
       <c r="H8" s="34"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C9" s="22">
-        <v>45104</v>
+        <v>42826</v>
       </c>
       <c r="D9" s="4">
         <v>45546</v>
       </c>
-      <c r="E9" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>442</v>
+      <c r="E9" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2720</v>
       </c>
       <c r="F9" s="21">
         <v>0</v>
@@ -1706,22 +1700,22 @@
       <c r="H9" s="34"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C10" s="22">
-        <v>45136</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E10" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>410</v>
+        <v>42833</v>
+      </c>
+      <c r="D10" s="32">
+        <v>45360.991597222222</v>
+      </c>
+      <c r="E10" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2527.9915972222225</v>
       </c>
       <c r="F10" s="21">
         <v>0</v>
@@ -1730,22 +1724,22 @@
       <c r="H10" s="34"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="C11" s="22">
-        <v>44106</v>
+        <v>42866</v>
       </c>
       <c r="D11" s="4">
         <v>45546</v>
       </c>
-      <c r="E11" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1440</v>
+      <c r="E11" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2680</v>
       </c>
       <c r="F11" s="21">
         <v>0</v>
@@ -1754,22 +1748,22 @@
       <c r="H11" s="34"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C12" s="22">
-        <v>44461</v>
+        <v>42940</v>
       </c>
       <c r="D12" s="4">
         <v>45546</v>
       </c>
-      <c r="E12" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1085</v>
+      <c r="E12" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2606</v>
       </c>
       <c r="F12" s="21">
         <v>0</v>
@@ -1778,22 +1772,22 @@
       <c r="H12" s="34"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C13" s="22">
-        <v>43827</v>
+        <v>43163</v>
       </c>
       <c r="D13" s="4">
         <v>45546</v>
       </c>
-      <c r="E13" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1719</v>
+      <c r="E13" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2383</v>
       </c>
       <c r="F13" s="21">
         <v>0</v>
@@ -1803,22 +1797,22 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C14" s="22">
-        <v>44040</v>
+        <v>43245</v>
       </c>
       <c r="D14" s="4">
         <v>45546</v>
       </c>
-      <c r="E14" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1506</v>
+      <c r="E14" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2301</v>
       </c>
       <c r="F14" s="21">
         <v>0</v>
@@ -1827,22 +1821,22 @@
       <c r="H14" s="34"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C15" s="22">
-        <v>44194</v>
+        <v>43329</v>
       </c>
       <c r="D15" s="4">
         <v>45546</v>
       </c>
-      <c r="E15" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1352</v>
+      <c r="E15" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2217</v>
       </c>
       <c r="F15" s="21">
         <v>0</v>
@@ -1851,22 +1845,22 @@
       <c r="H15" s="34"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="C16" s="22">
-        <v>44358</v>
+        <v>43349</v>
       </c>
       <c r="D16" s="4">
         <v>45546</v>
       </c>
-      <c r="E16" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1188</v>
+      <c r="E16" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2197</v>
       </c>
       <c r="F16" s="21">
         <v>0</v>
@@ -1875,22 +1869,22 @@
       <c r="H16" s="34"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C17" s="22">
-        <v>44534</v>
+        <v>43357</v>
       </c>
       <c r="D17" s="4">
         <v>45546</v>
       </c>
-      <c r="E17" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1012</v>
+      <c r="E17" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2189</v>
       </c>
       <c r="F17" s="21">
         <v>0</v>
@@ -1899,22 +1893,22 @@
       <c r="H17" s="34"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="C18" s="22">
-        <v>44738</v>
+        <v>43419</v>
       </c>
       <c r="D18" s="4">
         <v>45546</v>
       </c>
-      <c r="E18" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>808</v>
+      <c r="E18" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2127</v>
       </c>
       <c r="F18" s="14">
         <v>0</v>
@@ -1922,22 +1916,22 @@
       <c r="G18" s="2"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C19" s="22">
-        <v>44819</v>
+        <v>43433</v>
       </c>
       <c r="D19" s="4">
         <v>45546</v>
       </c>
-      <c r="E19" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>727</v>
+      <c r="E19" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2113</v>
       </c>
       <c r="F19" s="14">
         <v>0</v>
@@ -1946,20 +1940,23 @@
       <c r="H19" s="34"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E20" s="42"/>
+        <v>119</v>
+      </c>
+      <c r="C20" s="22">
+        <v>43487</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E20" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2059</v>
+      </c>
       <c r="F20" s="21">
         <v>0</v>
       </c>
@@ -1967,22 +1964,22 @@
       <c r="H20" s="34"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C21" s="22">
-        <v>44923</v>
+        <v>43535</v>
       </c>
       <c r="D21" s="4">
         <v>45546</v>
       </c>
-      <c r="E21" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>623</v>
+      <c r="E21" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>2011</v>
       </c>
       <c r="F21" s="21">
         <v>0</v>
@@ -1991,22 +1988,22 @@
       <c r="H21" s="34"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C22" s="22">
-        <v>42736</v>
+        <v>43568</v>
       </c>
       <c r="D22" s="4">
         <v>45546</v>
       </c>
-      <c r="E22" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2810</v>
+      <c r="E22" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1978</v>
       </c>
       <c r="F22" s="24">
         <v>0</v>
@@ -2015,22 +2012,22 @@
       <c r="H22" s="34"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="C23" s="22">
-        <v>44680</v>
-      </c>
-      <c r="D23" s="32">
-        <v>45525.999895833331</v>
-      </c>
-      <c r="E23" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>845.99989583333081</v>
+        <v>43572</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E23" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1974</v>
       </c>
       <c r="F23" s="24">
         <v>0</v>
@@ -2039,22 +2036,22 @@
       <c r="H23" s="34"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C24" s="22">
-        <v>42826</v>
+        <v>43612</v>
       </c>
       <c r="D24" s="4">
         <v>45546</v>
       </c>
-      <c r="E24" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2720</v>
+      <c r="E24" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1934</v>
       </c>
       <c r="F24" s="24">
         <v>0</v>
@@ -2063,22 +2060,22 @@
       <c r="H24" s="34"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C25" s="22">
-        <v>42833</v>
-      </c>
-      <c r="D25" s="32">
-        <v>45360.991597222222</v>
-      </c>
-      <c r="E25" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2527.9915972222225</v>
+        <v>43621</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E25" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1925</v>
       </c>
       <c r="F25" s="24">
         <v>0</v>
@@ -2087,22 +2084,22 @@
       <c r="H25" s="34"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C26" s="22">
-        <v>43163</v>
-      </c>
-      <c r="D26" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E26" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2383</v>
+        <v>43650</v>
+      </c>
+      <c r="D26" s="32">
+        <v>45542.998993055553</v>
+      </c>
+      <c r="E26" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1892.998993055553</v>
       </c>
       <c r="F26" s="24">
         <v>0</v>
@@ -2111,22 +2108,22 @@
       <c r="H26" s="34"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C27" s="22">
-        <v>41350</v>
+        <v>43729</v>
       </c>
       <c r="D27" s="4">
         <v>45546</v>
       </c>
-      <c r="E27" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>4196</v>
+      <c r="E27" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1817</v>
       </c>
       <c r="F27" s="24">
         <v>0</v>
@@ -2135,22 +2132,22 @@
       <c r="H27" s="34"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C28" s="22">
-        <v>42208</v>
+        <v>43736</v>
       </c>
       <c r="D28" s="4">
         <v>45546</v>
       </c>
-      <c r="E28" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>3338</v>
+      <c r="E28" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1810</v>
       </c>
       <c r="F28" s="24">
         <v>0</v>
@@ -2159,22 +2156,22 @@
       <c r="H28" s="34"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C29" s="22">
-        <v>44282</v>
+        <v>43799</v>
       </c>
       <c r="D29" s="4">
         <v>45546</v>
       </c>
-      <c r="E29" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1264</v>
+      <c r="E29" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1747</v>
       </c>
       <c r="F29" s="24">
         <v>0</v>
@@ -2183,22 +2180,22 @@
       <c r="H29" s="34"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C30" s="22">
-        <v>44418</v>
-      </c>
-      <c r="D30" s="32">
-        <v>45468.999965277777</v>
-      </c>
-      <c r="E30" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1050.9999652777769</v>
+        <v>43827</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E30" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1719</v>
       </c>
       <c r="F30" s="24">
         <v>0</v>
@@ -2207,22 +2204,22 @@
       <c r="H30" s="34"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C31" s="22">
-        <v>44866</v>
+        <v>43864</v>
       </c>
       <c r="D31" s="4">
         <v>45546</v>
       </c>
-      <c r="E31" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>680</v>
+      <c r="E31" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1682</v>
       </c>
       <c r="F31" s="24">
         <v>0</v>
@@ -2231,22 +2228,22 @@
       <c r="H31" s="34"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C32" s="22">
-        <v>44956</v>
+        <v>43886</v>
       </c>
       <c r="D32" s="4">
         <v>45546</v>
       </c>
-      <c r="E32" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>590</v>
+      <c r="E32" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1660</v>
       </c>
       <c r="F32" s="24">
         <v>0</v>
@@ -2255,22 +2252,22 @@
       <c r="H32" s="34"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C33" s="22">
-        <v>44874</v>
+        <v>43982</v>
       </c>
       <c r="D33" s="4">
         <v>45546</v>
       </c>
-      <c r="E33" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>672</v>
+      <c r="E33" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1564</v>
       </c>
       <c r="F33" s="24">
         <v>0</v>
@@ -2279,22 +2276,22 @@
       <c r="H33" s="34"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C34" s="22">
-        <v>44918</v>
+        <v>43999</v>
       </c>
       <c r="D34" s="4">
         <v>45546</v>
       </c>
-      <c r="E34" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>628</v>
+      <c r="E34" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1547</v>
       </c>
       <c r="F34" s="24">
         <v>0</v>
@@ -2303,22 +2300,22 @@
       <c r="H34" s="34"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C35" s="22">
-        <v>44060</v>
+        <v>44016</v>
       </c>
       <c r="D35" s="4">
         <v>45546</v>
       </c>
-      <c r="E35" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1486</v>
+      <c r="E35" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1530</v>
       </c>
       <c r="F35" s="24">
         <v>0</v>
@@ -2327,22 +2324,22 @@
       <c r="H35" s="34"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="22">
-        <v>44117</v>
+        <v>44018</v>
       </c>
       <c r="D36" s="4">
         <v>45546</v>
       </c>
-      <c r="E36" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1429</v>
+      <c r="E36" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1528</v>
       </c>
       <c r="F36" s="24">
         <v>0</v>
@@ -2351,22 +2348,22 @@
       <c r="H36" s="34"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C37" s="22">
-        <v>44128</v>
+        <v>44040</v>
       </c>
       <c r="D37" s="4">
         <v>45546</v>
       </c>
-      <c r="E37" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1418</v>
+      <c r="E37" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1506</v>
       </c>
       <c r="F37" s="24">
         <v>0</v>
@@ -2375,22 +2372,22 @@
       <c r="H37" s="34"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C38" s="22">
-        <v>44252</v>
+        <v>44051</v>
       </c>
       <c r="D38" s="4">
         <v>45546</v>
       </c>
-      <c r="E38" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1294</v>
+      <c r="E38" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1495</v>
       </c>
       <c r="F38" s="24">
         <v>0</v>
@@ -2399,22 +2396,22 @@
       <c r="H38" s="34"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" s="22">
-        <v>44254</v>
+        <v>44060</v>
       </c>
       <c r="D39" s="4">
         <v>45546</v>
       </c>
-      <c r="E39" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1292</v>
+      <c r="E39" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1486</v>
       </c>
       <c r="F39" s="24">
         <v>0</v>
@@ -2423,22 +2420,22 @@
       <c r="H39" s="34"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C40" s="22">
-        <v>44382</v>
+        <v>44082</v>
       </c>
       <c r="D40" s="4">
         <v>45546</v>
       </c>
-      <c r="E40" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1164</v>
+      <c r="E40" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1464</v>
       </c>
       <c r="F40" s="24">
         <v>0</v>
@@ -2447,22 +2444,22 @@
       <c r="H40" s="34"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C41" s="22">
-        <v>44406</v>
+        <v>44105</v>
       </c>
       <c r="D41" s="4">
         <v>45546</v>
       </c>
-      <c r="E41" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1140</v>
+      <c r="E41" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1441</v>
       </c>
       <c r="F41" s="24">
         <v>0</v>
@@ -2471,22 +2468,22 @@
       <c r="H41" s="34"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C42" s="22">
-        <v>44406</v>
+        <v>44106</v>
       </c>
       <c r="D42" s="4">
         <v>45546</v>
       </c>
-      <c r="E42" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1140</v>
+      <c r="E42" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1440</v>
       </c>
       <c r="F42" s="24">
         <v>0</v>
@@ -2495,22 +2492,22 @@
       <c r="H42" s="34"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C43" s="22">
-        <v>44525</v>
-      </c>
-      <c r="D43" s="32">
-        <v>45544.357870370368</v>
-      </c>
-      <c r="E43" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1019.3578703703679</v>
+        <v>44117</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E43" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1429</v>
       </c>
       <c r="F43" s="24">
         <v>0</v>
@@ -2519,22 +2516,22 @@
       <c r="H43" s="34"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C44" s="22">
-        <v>44602</v>
+        <v>44126</v>
       </c>
       <c r="D44" s="4">
         <v>45546</v>
       </c>
-      <c r="E44" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>944</v>
+      <c r="E44" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1420</v>
       </c>
       <c r="F44" s="24">
         <v>0</v>
@@ -2543,22 +2540,22 @@
       <c r="H44" s="34"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C45" s="22">
-        <v>44719</v>
+        <v>44128</v>
       </c>
       <c r="D45" s="4">
         <v>45546</v>
       </c>
-      <c r="E45" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>827</v>
+      <c r="E45" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1418</v>
       </c>
       <c r="F45" s="25">
         <v>0</v>
@@ -2567,22 +2564,22 @@
       <c r="H45" s="34"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C46" s="22">
-        <v>44752</v>
+        <v>44129</v>
       </c>
       <c r="D46" s="4">
         <v>45546</v>
       </c>
-      <c r="E46" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>794</v>
+      <c r="E46" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1417</v>
       </c>
       <c r="F46" s="25">
         <v>0</v>
@@ -2591,22 +2588,22 @@
       <c r="H46" s="34"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C47" s="22">
-        <v>44778</v>
-      </c>
-      <c r="D47" s="32">
-        <v>45400.999976851854</v>
-      </c>
-      <c r="E47" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>622.99997685185372</v>
+        <v>44156</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E47" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1390</v>
       </c>
       <c r="F47" s="25">
         <v>0</v>
@@ -2615,22 +2612,22 @@
       <c r="H47" s="34"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>46</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>49</v>
+        <v>5</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C48" s="22">
-        <v>45100</v>
-      </c>
-      <c r="D48" s="32">
-        <v>45545.595462962963</v>
-      </c>
-      <c r="E48" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>445.59546296296321</v>
+        <v>44172</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E48" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1374</v>
       </c>
       <c r="F48" s="25">
         <v>0</v>
@@ -2639,22 +2636,22 @@
       <c r="H48" s="34"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C49" s="22">
-        <v>45200</v>
+        <v>44184</v>
       </c>
       <c r="D49" s="4">
         <v>45546</v>
       </c>
-      <c r="E49" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>346</v>
+      <c r="E49" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1362</v>
       </c>
       <c r="F49" s="25">
         <v>0</v>
@@ -2663,22 +2660,22 @@
       <c r="H49" s="34"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C50" s="22">
-        <v>44018</v>
+        <v>44194</v>
       </c>
       <c r="D50" s="4">
         <v>45546</v>
       </c>
-      <c r="E50" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1528</v>
+      <c r="E50" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1352</v>
       </c>
       <c r="F50" s="25">
         <v>0</v>
@@ -2687,22 +2684,22 @@
       <c r="H50" s="34"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C51" s="22">
-        <v>45118</v>
+        <v>44210</v>
       </c>
       <c r="D51" s="4">
         <v>45546</v>
       </c>
-      <c r="E51" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>428</v>
+      <c r="E51" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1336</v>
       </c>
       <c r="F51" s="25">
         <v>0</v>
@@ -2711,22 +2708,22 @@
       <c r="H51" s="34"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C52" s="22">
-        <v>43982</v>
+        <v>44250</v>
       </c>
       <c r="D52" s="4">
         <v>45546</v>
       </c>
-      <c r="E52" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1564</v>
+      <c r="E52" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1296</v>
       </c>
       <c r="F52" s="25">
         <v>0</v>
@@ -2735,7 +2732,7 @@
       <c r="H52" s="34"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>50</v>
       </c>
@@ -2748,7 +2745,7 @@
       <c r="D53" s="32">
         <v>45518.999826388892</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="35">
         <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
         <v>1267.999826388892</v>
       </c>
@@ -2759,22 +2756,22 @@
       <c r="H53" s="34"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C54" s="22">
-        <v>42736</v>
+        <v>44252</v>
       </c>
       <c r="D54" s="4">
         <v>45546</v>
       </c>
-      <c r="E54" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2810</v>
+      <c r="E54" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1294</v>
       </c>
       <c r="F54" s="25">
         <v>0</v>
@@ -2783,22 +2780,22 @@
       <c r="H54" s="34"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C55" s="22">
-        <v>44910</v>
+        <v>44254</v>
       </c>
       <c r="D55" s="4">
         <v>45546</v>
       </c>
-      <c r="E55" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>636</v>
+      <c r="E55" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1292</v>
       </c>
       <c r="F55" s="25">
         <v>0</v>
@@ -2806,22 +2803,22 @@
       <c r="G55" s="2"/>
       <c r="H55" s="34"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C56" s="22">
-        <v>44920</v>
+        <v>44275</v>
       </c>
       <c r="D56" s="32">
-        <v>45324.995092592595</v>
-      </c>
-      <c r="E56" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>404.99509259259503</v>
+        <v>45463.999884259261</v>
+      </c>
+      <c r="E56" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1188.9998842592613</v>
       </c>
       <c r="F56" s="25">
         <v>0</v>
@@ -2830,20 +2827,23 @@
       <c r="H56" s="34"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D57" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="C57" s="22">
+        <v>44282</v>
+      </c>
+      <c r="D57" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E57" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1264</v>
+      </c>
       <c r="F57" s="25">
         <v>0</v>
       </c>
@@ -2851,22 +2851,22 @@
       <c r="H57" s="34"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C58" s="22">
-        <v>44105</v>
+        <v>44285</v>
       </c>
       <c r="D58" s="4">
         <v>45546</v>
       </c>
-      <c r="E58" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1441</v>
+      <c r="E58" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1261</v>
       </c>
       <c r="F58" s="25">
         <v>0</v>
@@ -2875,22 +2875,22 @@
       <c r="H58" s="34"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C59" s="22">
-        <v>44629</v>
+        <v>44313</v>
       </c>
       <c r="D59" s="4">
         <v>45546</v>
       </c>
-      <c r="E59" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>917</v>
+      <c r="E59" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1233</v>
       </c>
       <c r="F59" s="25">
         <v>0</v>
@@ -2899,22 +2899,22 @@
       <c r="H59" s="34"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C60" s="22">
-        <v>43799</v>
-      </c>
-      <c r="D60" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E60" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1747</v>
+        <v>44336</v>
+      </c>
+      <c r="D60" s="32">
+        <v>45278.999942129631</v>
+      </c>
+      <c r="E60" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>942.99994212963065</v>
       </c>
       <c r="F60" s="25">
         <v>0</v>
@@ -2923,22 +2923,22 @@
       <c r="H60" s="34"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C61" s="22">
-        <v>44126</v>
+        <v>44341</v>
       </c>
       <c r="D61" s="4">
         <v>45546</v>
       </c>
-      <c r="E61" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1420</v>
+      <c r="E61" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1205</v>
       </c>
       <c r="F61" s="25">
         <v>0</v>
@@ -2947,22 +2947,22 @@
       <c r="H61" s="34"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="C62" s="22">
-        <v>44184</v>
+        <v>44358</v>
       </c>
       <c r="D62" s="4">
         <v>45546</v>
       </c>
-      <c r="E62" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1362</v>
+      <c r="E62" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1188</v>
       </c>
       <c r="F62" s="25">
         <v>0</v>
@@ -2971,22 +2971,22 @@
       <c r="H62" s="34"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C63" s="22">
-        <v>44210</v>
-      </c>
-      <c r="D63" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E63" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1336</v>
+        <v>44369</v>
+      </c>
+      <c r="D63" s="32">
+        <v>45476.941145833334</v>
+      </c>
+      <c r="E63" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1107.9411458333343</v>
       </c>
       <c r="F63" s="25">
         <v>0</v>
@@ -2995,22 +2995,22 @@
       <c r="H63" s="34"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C64" s="22">
-        <v>44915</v>
+        <v>44375</v>
       </c>
       <c r="D64" s="4">
         <v>45546</v>
       </c>
-      <c r="E64" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>631</v>
+      <c r="E64" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1171</v>
       </c>
       <c r="F64" s="25">
         <v>0</v>
@@ -3019,22 +3019,22 @@
       <c r="H64" s="34"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C65" s="22">
-        <v>44970</v>
+        <v>44382</v>
       </c>
       <c r="D65" s="4">
         <v>45546</v>
       </c>
-      <c r="E65" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>576</v>
+      <c r="E65" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1164</v>
       </c>
       <c r="F65" s="25">
         <v>0</v>
@@ -3043,22 +3043,22 @@
       <c r="H65" s="34"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C66" s="22">
-        <v>45209</v>
+        <v>44406</v>
       </c>
       <c r="D66" s="4">
         <v>45546</v>
       </c>
-      <c r="E66" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>337</v>
+      <c r="E66" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1140</v>
       </c>
       <c r="F66" s="25">
         <v>0</v>
@@ -3067,22 +3067,22 @@
       <c r="H66" s="34"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C67" s="22">
-        <v>44457</v>
+        <v>44406</v>
       </c>
       <c r="D67" s="4">
         <v>45546</v>
       </c>
-      <c r="E67" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1089</v>
+      <c r="E67" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1140</v>
       </c>
       <c r="F67" s="25">
         <v>0</v>
@@ -3091,22 +3091,22 @@
       <c r="H67" s="34"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C68" s="22">
-        <v>44916</v>
+        <v>44406</v>
       </c>
       <c r="D68" s="4">
         <v>45546</v>
       </c>
-      <c r="E68" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>630</v>
+      <c r="E68" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1140</v>
       </c>
       <c r="F68" s="25">
         <v>0</v>
@@ -3115,22 +3115,22 @@
       <c r="H68" s="34"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C69" s="22">
-        <v>44250</v>
-      </c>
-      <c r="D69" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E69" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1296</v>
+        <v>44414</v>
+      </c>
+      <c r="D69" s="32">
+        <v>45400.874641203707</v>
+      </c>
+      <c r="E69" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>986.87464120370714</v>
       </c>
       <c r="F69" s="25">
         <v>0</v>
@@ -3139,22 +3139,22 @@
       <c r="H69" s="34"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C70" s="22">
-        <v>45106</v>
+        <v>44418</v>
       </c>
       <c r="D70" s="32">
-        <v>45539.996655092589</v>
-      </c>
-      <c r="E70" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>433.99665509258921</v>
+        <v>45468.999965277777</v>
+      </c>
+      <c r="E70" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1050.9999652777769</v>
       </c>
       <c r="F70" s="25">
         <v>0</v>
@@ -3163,22 +3163,22 @@
       <c r="H70" s="34"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="C71" s="22">
-        <v>44758</v>
-      </c>
-      <c r="D71" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E71" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>788</v>
+        <v>44428</v>
+      </c>
+      <c r="D71" s="32">
+        <v>45396.999988425923</v>
+      </c>
+      <c r="E71" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>968.99998842592322</v>
       </c>
       <c r="F71" s="25">
         <v>0</v>
@@ -3187,22 +3187,22 @@
       <c r="H71" s="34"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C72" s="22">
-        <v>44816</v>
-      </c>
-      <c r="D72" s="32">
-        <v>45499.857685185183</v>
-      </c>
-      <c r="E72" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>683.85768518518307</v>
+        <v>44432</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E72" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1114</v>
       </c>
       <c r="F72" s="25">
         <v>0</v>
@@ -3211,22 +3211,22 @@
       <c r="H72" s="34"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C73" s="22">
-        <v>44846</v>
-      </c>
-      <c r="D73" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E73" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>700</v>
+        <v>44450</v>
+      </c>
+      <c r="D73" s="32">
+        <v>45325.999918981484</v>
+      </c>
+      <c r="E73" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>875.99991898148437</v>
       </c>
       <c r="F73" s="25">
         <v>0</v>
@@ -3235,22 +3235,22 @@
       <c r="H73" s="34"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C74" s="22">
-        <v>43535</v>
+        <v>44457</v>
       </c>
       <c r="D74" s="4">
         <v>45546</v>
       </c>
-      <c r="E74" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2011</v>
+      <c r="E74" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1089</v>
       </c>
       <c r="F74" s="25">
         <v>0</v>
@@ -3259,22 +3259,22 @@
       <c r="H74" s="34"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C75" s="22">
-        <v>45104</v>
+        <v>44460</v>
       </c>
       <c r="D75" s="32">
-        <v>45386.999872685185</v>
-      </c>
-      <c r="E75" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>282.99987268518453</v>
+        <v>45278.999930555554</v>
+      </c>
+      <c r="E75" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>818.99993055555387</v>
       </c>
       <c r="F75" s="25">
         <v>0</v>
@@ -3283,22 +3283,22 @@
       <c r="H75" s="34"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C76" s="22">
-        <v>45016</v>
+        <v>44461</v>
       </c>
       <c r="D76" s="4">
         <v>45546</v>
       </c>
-      <c r="E76" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>530</v>
+      <c r="E76" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1085</v>
       </c>
       <c r="F76" s="26">
         <v>0</v>
@@ -3307,22 +3307,22 @@
       <c r="H76" s="34"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C77" s="22">
-        <v>44734</v>
+        <v>44493</v>
       </c>
       <c r="D77" s="4">
         <v>45546</v>
       </c>
-      <c r="E77" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>812</v>
+      <c r="E77" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1053</v>
       </c>
       <c r="F77" s="26">
         <v>0</v>
@@ -3331,22 +3331,22 @@
       <c r="H77" s="34"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C78" s="22">
-        <v>45007</v>
-      </c>
-      <c r="D78" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E78" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>539</v>
+        <v>44525</v>
+      </c>
+      <c r="D78" s="32">
+        <v>45544.357870370368</v>
+      </c>
+      <c r="E78" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1019.3578703703679</v>
       </c>
       <c r="F78" s="26">
         <v>0</v>
@@ -3355,22 +3355,22 @@
       <c r="H78" s="34"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C79" s="22">
-        <v>45046</v>
+        <v>44534</v>
       </c>
       <c r="D79" s="4">
         <v>45546</v>
       </c>
-      <c r="E79" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>500</v>
+      <c r="E79" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>1012</v>
       </c>
       <c r="F79" s="26">
         <v>0</v>
@@ -3379,22 +3379,22 @@
       <c r="H79" s="34"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C80" s="22">
-        <v>45060</v>
+        <v>44598</v>
       </c>
       <c r="D80" s="4">
         <v>45546</v>
       </c>
-      <c r="E80" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>486</v>
+      <c r="E80" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>948</v>
       </c>
       <c r="F80" s="26">
         <v>0</v>
@@ -3403,22 +3403,22 @@
       <c r="H80" s="34"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C81" s="22">
-        <v>43736</v>
+        <v>44602</v>
       </c>
       <c r="D81" s="4">
         <v>45546</v>
       </c>
-      <c r="E81" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1810</v>
+      <c r="E81" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>944</v>
       </c>
       <c r="F81" s="26">
         <v>0</v>
@@ -3427,22 +3427,22 @@
       <c r="H81" s="34"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C82" s="22">
-        <v>43349</v>
-      </c>
-      <c r="D82" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E82" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2197</v>
+        <v>44620</v>
+      </c>
+      <c r="D82" s="32">
+        <v>45283.999884259261</v>
+      </c>
+      <c r="E82" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>663.99988425926131</v>
       </c>
       <c r="F82" s="26">
         <v>0</v>
@@ -3451,22 +3451,22 @@
       <c r="H82" s="34"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C83" s="22">
-        <v>44375</v>
+        <v>44629</v>
       </c>
       <c r="D83" s="4">
         <v>45546</v>
       </c>
-      <c r="E83" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1171</v>
+      <c r="E83" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>917</v>
       </c>
       <c r="F83" s="26">
         <v>0</v>
@@ -3475,46 +3475,46 @@
       <c r="H83" s="34"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="C84" s="22">
-        <v>45306</v>
-      </c>
-      <c r="D84" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E84" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>240</v>
+        <v>44680</v>
+      </c>
+      <c r="D84" s="32">
+        <v>45525.999895833331</v>
+      </c>
+      <c r="E84" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>845.99989583333081</v>
       </c>
       <c r="F84" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="34"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C85" s="22">
-        <v>44369</v>
-      </c>
-      <c r="D85" s="32">
-        <v>45476.941145833334</v>
-      </c>
-      <c r="E85" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1107.9411458333343</v>
+        <v>44680</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E85" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>866</v>
       </c>
       <c r="F85" s="26">
         <v>0</v>
@@ -3523,22 +3523,22 @@
       <c r="H85" s="34"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C86" s="22">
-        <v>44406</v>
+        <v>44719</v>
       </c>
       <c r="D86" s="4">
         <v>45546</v>
       </c>
-      <c r="E86" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1140</v>
+      <c r="E86" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>827</v>
       </c>
       <c r="F86" s="26">
         <v>0</v>
@@ -3547,22 +3547,22 @@
       <c r="H86" s="34"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C87" s="22">
-        <v>44432</v>
+        <v>44734</v>
       </c>
       <c r="D87" s="4">
         <v>45546</v>
       </c>
-      <c r="E87" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1114</v>
+      <c r="E87" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>812</v>
       </c>
       <c r="F87" s="26">
         <v>0</v>
@@ -3571,22 +3571,22 @@
       <c r="H87" s="34"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C88" s="22">
-        <v>44460</v>
-      </c>
-      <c r="D88" s="32">
-        <v>45278.999930555554</v>
-      </c>
-      <c r="E88" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>818.99993055555387</v>
+        <v>44735</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E88" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>811</v>
       </c>
       <c r="F88" s="26">
         <v>0</v>
@@ -3595,22 +3595,22 @@
       <c r="H88" s="34"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C89" s="22">
-        <v>43357</v>
+        <v>44738</v>
       </c>
       <c r="D89" s="4">
         <v>45546</v>
       </c>
-      <c r="E89" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2189</v>
+      <c r="E89" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>808</v>
       </c>
       <c r="F89" s="26">
         <v>0</v>
@@ -3619,22 +3619,22 @@
       <c r="H89" s="34"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C90" s="22">
-        <v>45092</v>
-      </c>
-      <c r="D90" s="32">
-        <v>45531.999537037038</v>
-      </c>
-      <c r="E90" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>439.99953703703795</v>
+        <v>44752</v>
+      </c>
+      <c r="D90" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E90" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>794</v>
       </c>
       <c r="F90" s="26">
         <v>0</v>
@@ -3643,22 +3643,22 @@
       <c r="H90" s="34"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C91" s="22">
-        <v>44828</v>
+        <v>44758</v>
       </c>
       <c r="D91" s="4">
         <v>45546</v>
       </c>
-      <c r="E91" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>718</v>
+      <c r="E91" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>788</v>
       </c>
       <c r="F91" s="26">
         <v>0</v>
@@ -3667,22 +3667,22 @@
       <c r="H91" s="34"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C92" s="22">
-        <v>44844</v>
-      </c>
-      <c r="D92" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E92" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>702</v>
+        <v>44778</v>
+      </c>
+      <c r="D92" s="32">
+        <v>45400.999976851854</v>
+      </c>
+      <c r="E92" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>622.99997685185372</v>
       </c>
       <c r="F92" s="26">
         <v>0</v>
@@ -3691,22 +3691,22 @@
       <c r="H92" s="34"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="C93" s="22">
-        <v>44916</v>
-      </c>
-      <c r="D93" s="32">
-        <v>45510.999884259261</v>
-      </c>
-      <c r="E93" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>594.99988425926131</v>
+        <v>44783</v>
+      </c>
+      <c r="D93" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E93" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>763</v>
       </c>
       <c r="F93" s="26">
         <v>0</v>
@@ -3714,22 +3714,22 @@
       <c r="G93" s="2"/>
       <c r="H93" s="34"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C94" s="22">
-        <v>45004</v>
+        <v>44798</v>
       </c>
       <c r="D94" s="4">
         <v>45546</v>
       </c>
-      <c r="E94" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>542</v>
+      <c r="E94" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>748</v>
       </c>
       <c r="F94" s="26">
         <v>0</v>
@@ -3738,22 +3738,22 @@
       <c r="H94" s="34"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C95" s="22">
-        <v>45007</v>
-      </c>
-      <c r="D95" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E95" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>539</v>
+        <v>44816</v>
+      </c>
+      <c r="D95" s="32">
+        <v>45499.857685185183</v>
+      </c>
+      <c r="E95" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>683.85768518518307</v>
       </c>
       <c r="F95" s="26">
         <v>0</v>
@@ -3762,20 +3762,23 @@
       <c r="H95" s="34"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D96" t="s">
-        <v>264</v>
-      </c>
-      <c r="E96" s="42"/>
+        <v>140</v>
+      </c>
+      <c r="C96" s="22">
+        <v>44819</v>
+      </c>
+      <c r="D96" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E96" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>727</v>
+      </c>
       <c r="F96" s="26">
         <v>0</v>
       </c>
@@ -3783,22 +3786,22 @@
       <c r="H96" s="34"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C97" s="22">
-        <v>43650</v>
-      </c>
-      <c r="D97" s="32">
-        <v>45542.998993055553</v>
-      </c>
-      <c r="E97" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1892.998993055553</v>
+        <v>44828</v>
+      </c>
+      <c r="D97" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E97" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>718</v>
       </c>
       <c r="F97" s="27">
         <v>0</v>
@@ -3807,22 +3810,22 @@
       <c r="H97" s="34"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C98" s="22">
-        <v>43729</v>
+        <v>44844</v>
       </c>
       <c r="D98" s="4">
         <v>45546</v>
       </c>
-      <c r="E98" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1817</v>
+      <c r="E98" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>702</v>
       </c>
       <c r="F98" s="27">
         <v>0</v>
@@ -3831,22 +3834,22 @@
       <c r="H98" s="34"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C99" s="22">
-        <v>43886</v>
+        <v>44846</v>
       </c>
       <c r="D99" s="4">
         <v>45546</v>
       </c>
-      <c r="E99" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1660</v>
+      <c r="E99" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>700</v>
       </c>
       <c r="F99" s="27">
         <v>0</v>
@@ -3855,22 +3858,22 @@
       <c r="H99" s="34"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C100" s="22">
-        <v>43999</v>
+        <v>44855</v>
       </c>
       <c r="D100" s="4">
         <v>45546</v>
       </c>
-      <c r="E100" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1547</v>
+      <c r="E100" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>691</v>
       </c>
       <c r="F100" s="27">
         <v>0</v>
@@ -3881,20 +3884,20 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C101" s="22">
-        <v>43568</v>
+        <v>44859</v>
       </c>
       <c r="D101" s="4">
         <v>45546</v>
       </c>
-      <c r="E101" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1978</v>
+      <c r="E101" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>687</v>
       </c>
       <c r="F101" s="27">
         <v>0</v>
@@ -3903,22 +3906,22 @@
       <c r="H101" s="34"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="C102" s="22">
-        <v>44082</v>
+        <v>44866</v>
       </c>
       <c r="D102" s="4">
         <v>45546</v>
       </c>
-      <c r="E102" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1464</v>
+      <c r="E102" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>680</v>
       </c>
       <c r="F102" s="27">
         <v>0</v>
@@ -3927,22 +3930,22 @@
       <c r="H102" s="34"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
-        <v>99</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C103" s="22">
-        <v>44129</v>
+        <v>44874</v>
       </c>
       <c r="D103" s="4">
         <v>45546</v>
       </c>
-      <c r="E103" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1417</v>
+      <c r="E103" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>672</v>
       </c>
       <c r="F103" s="27">
         <v>0</v>
@@ -3951,22 +3954,22 @@
       <c r="H103" s="34"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C104" s="22">
-        <v>44156</v>
+        <v>44874</v>
       </c>
       <c r="D104" s="4">
         <v>45546</v>
       </c>
-      <c r="E104" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1390</v>
+      <c r="E104" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>672</v>
       </c>
       <c r="F104" s="27">
         <v>0</v>
@@ -3975,22 +3978,22 @@
       <c r="H104" s="34"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C105" s="22">
-        <v>44275</v>
-      </c>
-      <c r="D105" s="32">
-        <v>45463.999884259261</v>
-      </c>
-      <c r="E105" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1188.9998842592613</v>
+        <v>44910</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E105" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>636</v>
       </c>
       <c r="F105" s="27">
         <v>0</v>
@@ -3999,22 +4002,22 @@
       <c r="H105" s="34"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C106" s="22">
-        <v>44341</v>
+        <v>44915</v>
       </c>
       <c r="D106" s="4">
         <v>45546</v>
       </c>
-      <c r="E106" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1205</v>
+      <c r="E106" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>631</v>
       </c>
       <c r="F106" s="27">
         <v>0</v>
@@ -4023,22 +4026,22 @@
       <c r="H106" s="34"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C107" s="22">
-        <v>44598</v>
+        <v>44916</v>
       </c>
       <c r="D107" s="4">
         <v>45546</v>
       </c>
-      <c r="E107" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>948</v>
+      <c r="E107" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>630</v>
       </c>
       <c r="F107" s="27">
         <v>0</v>
@@ -4047,22 +4050,22 @@
       <c r="H107" s="34"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C108" s="22">
-        <v>44620</v>
+        <v>44916</v>
       </c>
       <c r="D108" s="32">
-        <v>45283.999884259261</v>
-      </c>
-      <c r="E108" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>663.99988425926131</v>
+        <v>45510.999884259261</v>
+      </c>
+      <c r="E108" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>594.99988425926131</v>
       </c>
       <c r="F108" s="27">
         <v>0</v>
@@ -4070,22 +4073,22 @@
       <c r="G108" s="2"/>
       <c r="H108" s="34"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C109" s="22">
-        <v>44680</v>
+        <v>44918</v>
       </c>
       <c r="D109" s="4">
         <v>45546</v>
       </c>
-      <c r="E109" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>866</v>
+      <c r="E109" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>628</v>
       </c>
       <c r="F109" s="27">
         <v>0</v>
@@ -4094,22 +4097,22 @@
       <c r="H109" s="34"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C110" s="22">
-        <v>44798</v>
-      </c>
-      <c r="D110" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E110" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>748</v>
+        <v>44920</v>
+      </c>
+      <c r="D110" s="32">
+        <v>45324.995092592595</v>
+      </c>
+      <c r="E110" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>404.99509259259503</v>
       </c>
       <c r="F110" s="27">
         <v>0</v>
@@ -4118,20 +4121,23 @@
       <c r="H110" s="34"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D111" t="s">
-        <v>264</v>
-      </c>
-      <c r="E111" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="C111" s="22">
+        <v>44923</v>
+      </c>
+      <c r="D111" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E111" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>623</v>
+      </c>
       <c r="F111" s="27">
         <v>0</v>
       </c>
@@ -4139,22 +4145,22 @@
       <c r="H111" s="34"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C112" s="22">
-        <v>42940</v>
+        <v>44932</v>
       </c>
       <c r="D112" s="4">
         <v>45546</v>
       </c>
-      <c r="E112" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2606</v>
+      <c r="E112" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>614</v>
       </c>
       <c r="F112" s="27">
         <v>0</v>
@@ -4163,22 +4169,22 @@
       <c r="H112" s="34"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="C113" s="22">
-        <v>43419</v>
+        <v>44943</v>
       </c>
       <c r="D113" s="4">
         <v>45546</v>
       </c>
-      <c r="E113" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2127</v>
+      <c r="E113" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>603</v>
       </c>
       <c r="F113" s="27">
         <v>0</v>
@@ -4187,22 +4193,22 @@
       <c r="H113" s="34"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="C114" s="22">
-        <v>44428</v>
-      </c>
-      <c r="D114" s="32">
-        <v>45396.999988425923</v>
-      </c>
-      <c r="E114" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>968.99998842592322</v>
+        <v>44956</v>
+      </c>
+      <c r="D114" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E114" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>590</v>
       </c>
       <c r="F114" s="27">
         <v>0</v>
@@ -4211,22 +4217,22 @@
       <c r="H114" s="34"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="C115" s="22">
-        <v>44855</v>
+        <v>44970</v>
       </c>
       <c r="D115" s="4">
         <v>45546</v>
       </c>
-      <c r="E115" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>691</v>
+      <c r="E115" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>576</v>
       </c>
       <c r="F115" s="27">
         <v>0</v>
@@ -4235,22 +4241,22 @@
       <c r="H115" s="34"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C116" s="22">
-        <v>44932</v>
+        <v>44981</v>
       </c>
       <c r="D116" s="4">
         <v>45546</v>
       </c>
-      <c r="E116" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>614</v>
+      <c r="E116" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>565</v>
       </c>
       <c r="F116" s="27">
         <v>0</v>
@@ -4259,22 +4265,22 @@
       <c r="H116" s="34"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
-        <v>110</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C117" s="22">
-        <v>44051</v>
+        <v>44986</v>
       </c>
       <c r="D117" s="4">
         <v>45546</v>
       </c>
-      <c r="E117" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1495</v>
+      <c r="E117" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>560</v>
       </c>
       <c r="F117" s="27">
         <v>0</v>
@@ -4283,22 +4289,22 @@
       <c r="H117" s="34"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C118" s="22">
-        <v>45153</v>
+        <v>45004</v>
       </c>
       <c r="D118" s="4">
         <v>45546</v>
       </c>
-      <c r="E118" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>393</v>
+      <c r="E118" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>542</v>
       </c>
       <c r="F118" s="29">
         <v>0</v>
@@ -4307,22 +4313,22 @@
       <c r="H118" s="34"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C119" s="22">
-        <v>44450</v>
-      </c>
-      <c r="D119" s="32">
-        <v>45325.999918981484</v>
-      </c>
-      <c r="E119" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>875.99991898148437</v>
+        <v>45007</v>
+      </c>
+      <c r="D119" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E119" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>539</v>
       </c>
       <c r="F119" s="29">
         <v>0</v>
@@ -4331,22 +4337,22 @@
       <c r="H119" s="34"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C120" s="22">
-        <v>43487</v>
+        <v>45007</v>
       </c>
       <c r="D120" s="4">
         <v>45546</v>
       </c>
-      <c r="E120" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2059</v>
+      <c r="E120" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>539</v>
       </c>
       <c r="F120" s="29">
         <v>0</v>
@@ -4355,22 +4361,22 @@
       <c r="H120" s="34"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C121" s="22">
-        <v>45083</v>
+        <v>45016</v>
       </c>
       <c r="D121" s="4">
         <v>45546</v>
       </c>
-      <c r="E121" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>463</v>
+      <c r="E121" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>530</v>
       </c>
       <c r="F121" s="29">
         <v>0</v>
@@ -4379,22 +4385,22 @@
       <c r="H121" s="34"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C122" s="22">
-        <v>44493</v>
+        <v>45033</v>
       </c>
       <c r="D122" s="4">
         <v>45546</v>
       </c>
-      <c r="E122" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1053</v>
+      <c r="E122" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>513</v>
       </c>
       <c r="F122" s="29">
         <v>0</v>
@@ -4403,22 +4409,22 @@
       <c r="H122" s="34"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
-        <v>119</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C123" s="22">
-        <v>44414</v>
+        <v>45040</v>
       </c>
       <c r="D123" s="32">
-        <v>45400.874641203707</v>
-      </c>
-      <c r="E123" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>986.87464120370714</v>
+        <v>45407.999849537038</v>
+      </c>
+      <c r="E123" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>367.99984953703824</v>
       </c>
       <c r="F123" s="29">
         <v>0</v>
@@ -4427,22 +4433,22 @@
       <c r="H123" s="34"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C124" s="22">
-        <v>44783</v>
+        <v>45046</v>
       </c>
       <c r="D124" s="4">
         <v>45546</v>
       </c>
-      <c r="E124" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>763</v>
+      <c r="E124" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>500</v>
       </c>
       <c r="F124" s="29">
         <v>0</v>
@@ -4451,22 +4457,22 @@
       <c r="H124" s="34"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C125" s="22">
-        <v>43245</v>
+        <v>45060</v>
       </c>
       <c r="D125" s="4">
         <v>45546</v>
       </c>
-      <c r="E125" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2301</v>
+      <c r="E125" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>486</v>
       </c>
       <c r="F125" s="29">
         <v>0</v>
@@ -4475,22 +4481,22 @@
       <c r="H125" s="34"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="14">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="C126" s="22">
-        <v>43329</v>
+        <v>45063</v>
       </c>
       <c r="D126" s="4">
         <v>45546</v>
       </c>
-      <c r="E126" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2217</v>
+      <c r="E126" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>483</v>
       </c>
       <c r="F126" s="29">
         <v>0</v>
@@ -4499,22 +4505,22 @@
       <c r="H126" s="34"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
-        <v>124</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C127" s="22">
-        <v>44285</v>
-      </c>
-      <c r="D127" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E127" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1261</v>
+        <v>45067</v>
+      </c>
+      <c r="D127" s="32">
+        <v>45344.902569444443</v>
+      </c>
+      <c r="E127" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>277.90256944444263</v>
       </c>
       <c r="F127" s="30">
         <v>0</v>
@@ -4523,22 +4529,22 @@
       <c r="H127" s="34"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C128" s="22">
-        <v>44735</v>
+        <v>45083</v>
       </c>
       <c r="D128" s="4">
         <v>45546</v>
       </c>
-      <c r="E128" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>811</v>
+      <c r="E128" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>463</v>
       </c>
       <c r="F128" s="30">
         <v>0</v>
@@ -4547,22 +4553,22 @@
       <c r="H128" s="34"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C129" s="22">
-        <v>44016</v>
-      </c>
-      <c r="D129" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E129" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1530</v>
+        <v>45092</v>
+      </c>
+      <c r="D129" s="32">
+        <v>45531.999537037038</v>
+      </c>
+      <c r="E129" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>439.99953703703795</v>
       </c>
       <c r="F129" s="30">
         <v>0</v>
@@ -4571,22 +4577,22 @@
       <c r="H129" s="34"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="C130" s="22">
-        <v>42866</v>
-      </c>
-      <c r="D130" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E130" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2680</v>
+        <v>45100</v>
+      </c>
+      <c r="D130" s="32">
+        <v>45545.595462962963</v>
+      </c>
+      <c r="E130" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>445.59546296296321</v>
       </c>
       <c r="F130" s="30">
         <v>0</v>
@@ -4595,22 +4601,22 @@
       <c r="H130" s="34"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="C131" s="22">
-        <v>45033</v>
+        <v>45104</v>
       </c>
       <c r="D131" s="4">
         <v>45546</v>
       </c>
-      <c r="E131" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>513</v>
+      <c r="E131" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>442</v>
       </c>
       <c r="F131" s="30">
         <v>0</v>
@@ -4619,22 +4625,22 @@
       <c r="H131" s="34"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C132" s="22">
-        <v>43864</v>
-      </c>
-      <c r="D132" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E132" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1682</v>
+        <v>45104</v>
+      </c>
+      <c r="D132" s="32">
+        <v>45386.999872685185</v>
+      </c>
+      <c r="E132" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>282.99987268518453</v>
       </c>
       <c r="F132" s="14">
         <v>0</v>
@@ -4643,22 +4649,22 @@
       <c r="H132" s="34"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C133" s="22">
-        <v>43621</v>
-      </c>
-      <c r="D133" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E133" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1925</v>
+        <v>45106</v>
+      </c>
+      <c r="D133" s="32">
+        <v>45539.996655092589</v>
+      </c>
+      <c r="E133" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>433.99665509258921</v>
       </c>
       <c r="F133" s="30">
         <v>0</v>
@@ -4667,22 +4673,22 @@
       <c r="H133" s="34"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C134" s="22">
-        <v>44336</v>
-      </c>
-      <c r="D134" s="32">
-        <v>45278.999942129631</v>
-      </c>
-      <c r="E134" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>942.99994212963065</v>
+        <v>45118</v>
+      </c>
+      <c r="D134" s="4">
+        <v>45546</v>
+      </c>
+      <c r="E134" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>428</v>
       </c>
       <c r="F134" s="30">
         <v>0</v>
@@ -4691,22 +4697,22 @@
       <c r="H134" s="34"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C135" s="22">
-        <v>42403</v>
+        <v>45124</v>
       </c>
       <c r="D135" s="4">
         <v>45546</v>
       </c>
-      <c r="E135" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>3143</v>
+      <c r="E135" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>422</v>
       </c>
       <c r="F135" s="30">
         <v>0</v>
@@ -4715,22 +4721,22 @@
       <c r="H135" s="34"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="C136" s="22">
-        <v>41049</v>
+        <v>45136</v>
       </c>
       <c r="D136" s="4">
         <v>45546</v>
       </c>
-      <c r="E136" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>4497</v>
+      <c r="E136" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>410</v>
       </c>
       <c r="F136" s="30">
         <v>0</v>
@@ -4739,22 +4745,22 @@
       <c r="H136" s="34"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C137" s="22">
-        <v>41674</v>
+        <v>45153</v>
       </c>
       <c r="D137" s="4">
         <v>45546</v>
       </c>
-      <c r="E137" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>3872</v>
+      <c r="E137" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>393</v>
       </c>
       <c r="F137" s="30">
         <v>0</v>
@@ -4763,22 +4769,22 @@
       <c r="H137" s="34"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="C138" s="22">
-        <v>44859</v>
+        <v>45200</v>
       </c>
       <c r="D138" s="4">
         <v>45546</v>
       </c>
-      <c r="E138" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>687</v>
+      <c r="E138" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>346</v>
       </c>
       <c r="F138" s="30">
         <v>0</v>
@@ -4787,22 +4793,22 @@
       <c r="H138" s="34"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C139" s="22">
-        <v>44981</v>
+        <v>45209</v>
       </c>
       <c r="D139" s="4">
         <v>45546</v>
       </c>
-      <c r="E139" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>565</v>
+      <c r="E139" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>337</v>
       </c>
       <c r="F139" s="30">
         <v>0</v>
@@ -4811,47 +4817,44 @@
       <c r="H139" s="34"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="14">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C140" s="22">
-        <v>44313</v>
+        <v>45306</v>
       </c>
       <c r="D140" s="4">
         <v>45546</v>
       </c>
-      <c r="E140" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1233</v>
+      <c r="E140" s="35">
+        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
+        <v>240</v>
       </c>
       <c r="F140" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="34"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C141" s="22">
-        <v>43433</v>
-      </c>
-      <c r="D141" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E141" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>2113</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D141" t="s">
+        <v>264</v>
+      </c>
+      <c r="E141" s="36"/>
       <c r="F141" s="30">
         <v>0</v>
       </c>
@@ -4859,23 +4862,20 @@
       <c r="H141" s="34"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C142" s="22">
-        <v>43572</v>
-      </c>
-      <c r="D142" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E142" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1974</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D142" t="s">
+        <v>264</v>
+      </c>
+      <c r="E142" s="36"/>
       <c r="F142" s="30">
         <v>0</v>
       </c>
@@ -4883,23 +4883,20 @@
       <c r="H142" s="34"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C143" s="22">
-        <v>45063</v>
-      </c>
-      <c r="D143" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E143" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>483</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D143" t="s">
+        <v>264</v>
+      </c>
+      <c r="E143" s="36"/>
       <c r="F143" s="30">
         <v>0</v>
       </c>
@@ -4907,23 +4904,20 @@
       <c r="H143" s="34"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C144" s="22">
-        <v>43612</v>
-      </c>
-      <c r="D144" s="4">
-        <v>45546</v>
-      </c>
-      <c r="E144" s="41">
-        <f>Table3[[#This Row],[fecha_ultimo_reporte]]-Table3[[#This Row],[inicio]]</f>
-        <v>1934</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D144" t="s">
+        <v>264</v>
+      </c>
+      <c r="E144" s="36"/>
       <c r="F144" s="30">
         <v>0</v>
       </c>
@@ -5350,11 +5344,11 @@
       <c r="H1" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5448,7 +5442,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="38">
         <v>2</v>
       </c>
       <c r="K4" t="s">
@@ -5483,7 +5477,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="38"/>
       <c r="K5" t="s">
         <v>241</v>
       </c>
@@ -5516,7 +5510,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J6" s="36"/>
+      <c r="J6" s="38"/>
       <c r="K6" t="s">
         <v>234</v>
       </c>
@@ -5549,7 +5543,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J7" s="36"/>
+      <c r="J7" s="38"/>
       <c r="K7" t="s">
         <v>242</v>
       </c>
@@ -5681,10 +5675,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="41">
         <f>L14+L29</f>
         <v>4.2859356589977011</v>
       </c>
@@ -5714,8 +5708,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="E13" t="s">
         <v>190</v>
       </c>
@@ -5795,11 +5789,11 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
@@ -5839,7 +5833,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="38">
         <v>1</v>
       </c>
       <c r="K18" t="s">
@@ -5864,7 +5858,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J19" s="36"/>
+      <c r="J19" s="38"/>
       <c r="K19" t="s">
         <v>248</v>
       </c>
@@ -5888,7 +5882,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J20" s="36"/>
+      <c r="J20" s="38"/>
       <c r="K20" t="s">
         <v>250</v>
       </c>
@@ -5912,7 +5906,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J21" s="36"/>
+      <c r="J21" s="38"/>
       <c r="K21" t="s">
         <v>251</v>
       </c>
@@ -5936,7 +5930,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="38">
         <v>2</v>
       </c>
       <c r="K22" s="20" t="s">
@@ -5961,7 +5955,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J23" s="36"/>
+      <c r="J23" s="38"/>
       <c r="K23" t="s">
         <v>253</v>
       </c>
@@ -5985,7 +5979,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J24" s="36"/>
+      <c r="J24" s="38"/>
       <c r="K24" t="s">
         <v>254</v>
       </c>
@@ -6009,7 +6003,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J25" s="36"/>
+      <c r="J25" s="38"/>
       <c r="K25" t="s">
         <v>255</v>
       </c>
@@ -6033,7 +6027,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J26" s="36"/>
+      <c r="J26" s="38"/>
       <c r="K26" t="s">
         <v>256</v>
       </c>
@@ -6057,7 +6051,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J27" s="36"/>
+      <c r="J27" s="38"/>
       <c r="K27" t="s">
         <v>257</v>
       </c>
@@ -6081,7 +6075,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J28" s="36"/>
+      <c r="J28" s="38"/>
       <c r="K28" t="s">
         <v>260</v>
       </c>
@@ -6105,7 +6099,7 @@
         <f>VLOOKUP(campos[[#This Row],[tipo_dato]],datos[],3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="J29" s="36"/>
+      <c r="J29" s="38"/>
       <c r="K29" t="s">
         <v>261</v>
       </c>

--- a/info_wunder.xlsx
+++ b/info_wunder.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\tecnicatura_ia\adscripcion\wunder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B7BF2-3BCE-4413-98FD-FA3A8D7B48D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF376A8B-1898-4332-83EB-99060941DFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estaciones" sheetId="1" r:id="rId1"/>
-    <sheet name="db" sheetId="4" r:id="rId2"/>
-    <sheet name="apiKeys" sheetId="2" r:id="rId3"/>
-    <sheet name="tamaño_DB" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="db" sheetId="4" r:id="rId3"/>
+    <sheet name="apiKeys" sheetId="2" r:id="rId4"/>
+    <sheet name="tamaño_DB" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="db">db!$A$1:$D$140</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="306">
   <si>
     <t>ISANLORE34</t>
   </si>
@@ -1539,7 +1540,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5889,6 +5890,736 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B6631-9B09-4EB2-BE14-CDBD12F18C00}">
+  <dimension ref="A1:A143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7406A5-A71D-4461-B5BD-63800EDE98EF}">
   <dimension ref="A1:D140"/>
   <sheetViews>
@@ -7869,12 +8600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C3B681-42F9-41A2-B521-362FB4730680}">
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8231,12 +8962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A905401-12BF-43E6-A189-B8D84824F13C}">
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/info_wunder.xlsx
+++ b/info_wunder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\tecnicatura_ia\adscripcion\wunder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE4F0BB-3217-428C-A98B-112E3D56246C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D03DF97-A49C-473C-AD99-89D1B25CCC74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,10 +958,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1074,7 +1075,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1176,6 +1177,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1560,7 +1564,7 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1573,8 @@
     <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" style="34" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
@@ -5907,7 +5912,7 @@
       <c r="D140" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="44">
         <v>-33.720500000000001</v>
       </c>
       <c r="F140" s="7">

--- a/info_wunder.xlsx
+++ b/info_wunder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\tecnicatura_ia\adscripcion\wunder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC4DF3-9680-40AE-B209-C8B8EDDD53B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65760D56-8412-4910-8AA3-520A5E924440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estaciones" sheetId="1" r:id="rId1"/>
@@ -816,9 +816,6 @@
     <t>comentario</t>
   </si>
   <si>
-    <t>304f6ba05c8440f78f6ba05c84f0f7be</t>
-  </si>
-  <si>
     <t>lote 1</t>
   </si>
   <si>
@@ -2043,9 +2040,6 @@
     <t>de17385b3fe54df397385b3fe57df36e</t>
   </si>
   <si>
-    <t>c995af144642475a95af144642a75a0e</t>
-  </si>
-  <si>
     <t>f8ec49377cc74c9fac49377cc7ec9f95</t>
   </si>
   <si>
@@ -2061,13 +2055,19 @@
     <t>400602926eb845738602926eb8457398</t>
   </si>
   <si>
-    <t>d604f8e26567494684f8e26567b9462c</t>
-  </si>
-  <si>
     <t>29ff68ece46b4497bf68ece46b44978a</t>
   </si>
   <si>
     <t>7fe0747290424f91a074729042ef9161</t>
+  </si>
+  <si>
+    <t>3d80ef4863b6460980ef4863b6160932</t>
+  </si>
+  <si>
+    <t>c7916775bc5d4d0a916775bc5ddd0a65</t>
+  </si>
+  <si>
+    <t>e5659d7c49604f37a59d7c4960cf3701</t>
   </si>
 </sst>
 </file>
@@ -2707,7 +2707,7 @@
         <v>44874</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -2725,7 +2725,7 @@
         <v>44986</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" s="21"/>
     </row>
@@ -2743,7 +2743,7 @@
         <v>45067</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" s="21"/>
     </row>
@@ -2761,7 +2761,7 @@
         <v>45040</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -2779,7 +2779,7 @@
         <v>44172</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -2797,7 +2797,7 @@
         <v>44943</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="21"/>
     </row>
@@ -2815,7 +2815,7 @@
         <v>45124</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -2833,7 +2833,7 @@
         <v>45104</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -2851,7 +2851,7 @@
         <v>45136</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -2869,7 +2869,7 @@
         <v>44106</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F11" s="21"/>
     </row>
@@ -2887,7 +2887,7 @@
         <v>44461</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F12" s="21"/>
     </row>
@@ -2905,7 +2905,7 @@
         <v>43827</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F13" s="21"/>
     </row>
@@ -2923,7 +2923,7 @@
         <v>44040</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F14" s="21"/>
     </row>
@@ -2941,7 +2941,7 @@
         <v>44194</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F15" s="21"/>
     </row>
@@ -2959,7 +2959,7 @@
         <v>44534</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F16" s="21"/>
     </row>
@@ -2977,7 +2977,7 @@
         <v>44738</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F17" s="21"/>
     </row>
@@ -2995,7 +2995,7 @@
         <v>44923</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F18" s="21"/>
     </row>
@@ -3013,7 +3013,7 @@
         <v>42736</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -3031,7 +3031,7 @@
         <v>44680</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F20" s="21"/>
     </row>
@@ -3049,7 +3049,7 @@
         <v>42826</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F21" s="21"/>
     </row>
@@ -3067,7 +3067,7 @@
         <v>42833</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F22" s="21"/>
     </row>
@@ -3085,7 +3085,7 @@
         <v>43163</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F23" s="21"/>
     </row>
@@ -3103,7 +3103,7 @@
         <v>41350</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F24" s="21"/>
     </row>
@@ -3121,7 +3121,7 @@
         <v>42208</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F25" s="21"/>
     </row>
@@ -3139,7 +3139,7 @@
         <v>44282</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F26" s="21"/>
     </row>
@@ -3157,7 +3157,7 @@
         <v>44418</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -3175,7 +3175,7 @@
         <v>44866</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -3193,7 +3193,7 @@
         <v>44956</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F29" s="21"/>
     </row>
@@ -3211,7 +3211,7 @@
         <v>44874</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F30" s="21"/>
     </row>
@@ -3229,7 +3229,7 @@
         <v>44918</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F31" s="21"/>
     </row>
@@ -3247,7 +3247,7 @@
         <v>44018</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F32" s="21"/>
     </row>
@@ -3265,7 +3265,7 @@
         <v>44060</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F33" s="21"/>
     </row>
@@ -3283,7 +3283,7 @@
         <v>44117</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F34" s="21"/>
     </row>
@@ -3301,7 +3301,7 @@
         <v>44128</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F35" s="21"/>
     </row>
@@ -3319,7 +3319,7 @@
         <v>44252</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F36" s="21"/>
     </row>
@@ -3337,7 +3337,7 @@
         <v>44254</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F37" s="21"/>
     </row>
@@ -3355,7 +3355,7 @@
         <v>44382</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" s="21"/>
     </row>
@@ -3373,7 +3373,7 @@
         <v>44406</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F39" s="21"/>
     </row>
@@ -3391,7 +3391,7 @@
         <v>44406</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F40" s="21"/>
     </row>
@@ -3409,7 +3409,7 @@
         <v>44525</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F41" s="21"/>
     </row>
@@ -3427,7 +3427,7 @@
         <v>44602</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F42" s="21"/>
     </row>
@@ -3445,7 +3445,7 @@
         <v>44719</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F43" s="21"/>
     </row>
@@ -3463,7 +3463,7 @@
         <v>44752</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F44" s="21"/>
     </row>
@@ -3481,7 +3481,7 @@
         <v>44778</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F45" s="21"/>
     </row>
@@ -3499,7 +3499,7 @@
         <v>45100</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F46" s="21"/>
     </row>
@@ -3517,7 +3517,7 @@
         <v>45200</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F47" s="21"/>
     </row>
@@ -3535,7 +3535,7 @@
         <v>45118</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F48" s="21"/>
     </row>
@@ -3553,7 +3553,7 @@
         <v>43982</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F49" s="21"/>
     </row>
@@ -3571,7 +3571,7 @@
         <v>44251</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F50" s="21"/>
     </row>
@@ -3589,7 +3589,7 @@
         <v>42736</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F51" s="21"/>
     </row>
@@ -3607,7 +3607,7 @@
         <v>44910</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F52" s="21"/>
     </row>
@@ -3625,7 +3625,7 @@
         <v>44920</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F53" s="21"/>
     </row>
@@ -3643,7 +3643,7 @@
         <v>44105</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F54" s="21"/>
     </row>
@@ -3661,7 +3661,7 @@
         <v>44629</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F55" s="21"/>
     </row>
@@ -3679,7 +3679,7 @@
         <v>43799</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F56" s="21"/>
     </row>
@@ -3697,7 +3697,7 @@
         <v>44126</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F57" s="21"/>
     </row>
@@ -3715,7 +3715,7 @@
         <v>44184</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F58" s="21"/>
     </row>
@@ -3733,7 +3733,7 @@
         <v>44210</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F59" s="21"/>
     </row>
@@ -3751,7 +3751,7 @@
         <v>44915</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F60" s="21"/>
     </row>
@@ -3769,7 +3769,7 @@
         <v>44970</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F61" s="21"/>
     </row>
@@ -3787,7 +3787,7 @@
         <v>45209</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F62" s="21"/>
     </row>
@@ -3805,7 +3805,7 @@
         <v>44250</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F63" s="21"/>
     </row>
@@ -3823,7 +3823,7 @@
         <v>44457</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F64" s="21"/>
     </row>
@@ -3841,7 +3841,7 @@
         <v>44916</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F65" s="21"/>
     </row>
@@ -3859,7 +3859,7 @@
         <v>45106</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F66" s="21"/>
     </row>
@@ -3877,7 +3877,7 @@
         <v>44758</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F67" s="21"/>
     </row>
@@ -3895,7 +3895,7 @@
         <v>44816</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F68" s="21"/>
     </row>
@@ -3913,7 +3913,7 @@
         <v>44846</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -3931,7 +3931,7 @@
         <v>43535</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F70" s="21"/>
     </row>
@@ -3949,7 +3949,7 @@
         <v>45104</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F71" s="21"/>
     </row>
@@ -3967,7 +3967,7 @@
         <v>45016</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -3985,7 +3985,7 @@
         <v>43736</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -4003,7 +4003,7 @@
         <v>44734</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -4021,7 +4021,7 @@
         <v>45007</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F75" s="21"/>
     </row>
@@ -4039,7 +4039,7 @@
         <v>45046</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F76" s="21"/>
     </row>
@@ -4057,7 +4057,7 @@
         <v>45060</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F77" s="21"/>
     </row>
@@ -4075,7 +4075,7 @@
         <v>43349</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F78" s="21"/>
     </row>
@@ -4093,7 +4093,7 @@
         <v>44375</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F79" s="21"/>
     </row>
@@ -4111,7 +4111,7 @@
         <v>44369</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -4129,7 +4129,7 @@
         <v>44406</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F81" s="21"/>
     </row>
@@ -4147,7 +4147,7 @@
         <v>44432</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F82" s="21"/>
     </row>
@@ -4165,7 +4165,7 @@
         <v>44460</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F83" s="21"/>
     </row>
@@ -4183,7 +4183,7 @@
         <v>43357</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F84" s="21"/>
     </row>
@@ -4201,7 +4201,7 @@
         <v>45092</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F85" s="21"/>
     </row>
@@ -4219,7 +4219,7 @@
         <v>44828</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F86" s="21"/>
     </row>
@@ -4237,7 +4237,7 @@
         <v>44844</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F87" s="21"/>
     </row>
@@ -4255,7 +4255,7 @@
         <v>44916</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F88" s="21"/>
     </row>
@@ -4273,7 +4273,7 @@
         <v>45004</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F89" s="21"/>
     </row>
@@ -4291,7 +4291,7 @@
         <v>45007</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F90" s="21"/>
     </row>
@@ -4309,7 +4309,7 @@
         <v>43568</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F91" s="21"/>
     </row>
@@ -4327,7 +4327,7 @@
         <v>43650</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F92" s="21"/>
     </row>
@@ -4345,7 +4345,7 @@
         <v>43729</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F93" s="21"/>
     </row>
@@ -4363,7 +4363,7 @@
         <v>43886</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F94" s="21"/>
     </row>
@@ -4381,7 +4381,7 @@
         <v>43999</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F95" s="21"/>
     </row>
@@ -4399,7 +4399,7 @@
         <v>44082</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F96" s="21"/>
     </row>
@@ -4417,7 +4417,7 @@
         <v>44129</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F97" s="21"/>
     </row>
@@ -4435,7 +4435,7 @@
         <v>44156</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F98" s="21"/>
     </row>
@@ -4453,7 +4453,7 @@
         <v>44275</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F99" s="21"/>
     </row>
@@ -4471,7 +4471,7 @@
         <v>44341</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F100" s="21"/>
     </row>
@@ -4489,7 +4489,7 @@
         <v>44598</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F101" s="21"/>
     </row>
@@ -4507,7 +4507,7 @@
         <v>44620</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F102" s="21"/>
     </row>
@@ -4525,7 +4525,7 @@
         <v>44680</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F103" s="21"/>
     </row>
@@ -4543,7 +4543,7 @@
         <v>44798</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F104" s="21"/>
     </row>
@@ -4561,7 +4561,7 @@
         <v>42940</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F105" s="21"/>
     </row>
@@ -4579,7 +4579,7 @@
         <v>43419</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F106" s="21"/>
     </row>
@@ -4597,7 +4597,7 @@
         <v>44051</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F107" s="21"/>
     </row>
@@ -4615,7 +4615,7 @@
         <v>44428</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F108" s="21"/>
     </row>
@@ -4633,7 +4633,7 @@
         <v>44855</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F109" s="21"/>
     </row>
@@ -4651,7 +4651,7 @@
         <v>44932</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F110" s="21"/>
     </row>
@@ -4669,7 +4669,7 @@
         <v>45153</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F111" s="21"/>
     </row>
@@ -4687,7 +4687,7 @@
         <v>44450</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F112" s="21"/>
     </row>
@@ -4705,7 +4705,7 @@
         <v>43487</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F113" s="21"/>
     </row>
@@ -4723,7 +4723,7 @@
         <v>45083</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F114" s="21"/>
     </row>
@@ -4741,7 +4741,7 @@
         <v>44493</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F115" s="21"/>
     </row>
@@ -4759,7 +4759,7 @@
         <v>44414</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F116" s="21"/>
     </row>
@@ -4777,7 +4777,7 @@
         <v>44783</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F117" s="21"/>
     </row>
@@ -4795,7 +4795,7 @@
         <v>43245</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F118" s="21"/>
     </row>
@@ -4813,7 +4813,7 @@
         <v>43329</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F119" s="21"/>
     </row>
@@ -4831,7 +4831,7 @@
         <v>44016</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F120" s="21"/>
     </row>
@@ -4849,7 +4849,7 @@
         <v>44285</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F121" s="21"/>
     </row>
@@ -4867,7 +4867,7 @@
         <v>44735</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F122" s="21"/>
     </row>
@@ -4885,7 +4885,7 @@
         <v>42866</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F123" s="21"/>
     </row>
@@ -4903,7 +4903,7 @@
         <v>43621</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F124" s="21"/>
     </row>
@@ -4921,7 +4921,7 @@
         <v>43864</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F125" s="21"/>
     </row>
@@ -4939,7 +4939,7 @@
         <v>44336</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F126" s="21"/>
     </row>
@@ -4957,7 +4957,7 @@
         <v>45033</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F127" s="21"/>
     </row>
@@ -4975,7 +4975,7 @@
         <v>41049</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F128" s="21"/>
     </row>
@@ -4993,7 +4993,7 @@
         <v>41674</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F129" s="21"/>
     </row>
@@ -5011,7 +5011,7 @@
         <v>42403</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F130" s="21"/>
     </row>
@@ -5029,7 +5029,7 @@
         <v>44859</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F131" s="21"/>
     </row>
@@ -5047,7 +5047,7 @@
         <v>44981</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F132" s="21"/>
     </row>
@@ -5065,7 +5065,7 @@
         <v>44313</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F133" s="21"/>
     </row>
@@ -5083,7 +5083,7 @@
         <v>43433</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F134" s="21"/>
     </row>
@@ -5101,7 +5101,7 @@
         <v>43572</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F135" s="21"/>
     </row>
@@ -5119,7 +5119,7 @@
         <v>43612</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F136" s="21"/>
     </row>
@@ -5137,7 +5137,7 @@
         <v>45063</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F137" s="21"/>
     </row>
@@ -5155,7 +5155,7 @@
         <v>45306</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F138" s="21"/>
     </row>
@@ -5173,7 +5173,7 @@
         <v>44819</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F139" s="21"/>
     </row>
@@ -5191,7 +5191,7 @@
         <v>44358</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F140" s="21"/>
     </row>
@@ -5208,7 +5208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D418CE8-E1A4-482A-90EA-48D338BE90D8}">
   <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -5242,10 +5242,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="7">
         <v>-31.730399999999999</v>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="7">
         <v>-31.824359999999999</v>
@@ -5272,10 +5272,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="7">
         <v>-31.824339999999999</v>
@@ -5287,10 +5287,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="7">
         <v>-31.82498</v>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="7">
         <v>-31.825500000000002</v>
@@ -5317,10 +5317,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="7">
         <v>-31.624690000000001</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" s="7">
         <v>-32.015059999999998</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" s="7">
         <v>-32.3337</v>
@@ -5362,10 +5362,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="7">
         <v>-32.34216</v>
@@ -5377,10 +5377,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="7">
         <v>-32.370480000000001</v>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="7">
         <v>-32.408560000000001</v>
@@ -5407,10 +5407,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" s="7">
         <v>-33.28369</v>
@@ -5422,10 +5422,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="7">
         <v>-33.387149999999998</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="7">
         <v>-33.175620000000002</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="7">
         <v>-33.387059999999998</v>
@@ -5467,10 +5467,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="7">
         <v>-33.39443</v>
@@ -5482,10 +5482,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="7">
         <v>-33.114669999999997</v>
@@ -5497,10 +5497,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="7">
         <v>-33.45232</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="7">
         <v>-33.129539999999999</v>
@@ -5527,10 +5527,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" s="7">
         <v>-33.626469999999998</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" s="7">
         <v>-33.920369999999998</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C23" s="7">
         <v>-33.937379999999997</v>
@@ -5572,10 +5572,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" s="7">
         <v>-32.095239999999997</v>
@@ -5587,10 +5587,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25" s="7">
         <v>-32.52901</v>
@@ -5602,10 +5602,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26" s="7">
         <v>-33.150759999999998</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C27" s="7">
         <v>-33.151090000000003</v>
@@ -5632,10 +5632,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C28" s="7">
         <v>-33.622</v>
@@ -5647,10 +5647,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" s="7">
         <v>-33.120350000000002</v>
@@ -5662,10 +5662,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" s="7">
         <v>-31.96349</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="7">
         <v>-32.601570000000002</v>
@@ -5692,10 +5692,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" s="7">
         <v>-33.123289999999997</v>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C33" s="7">
         <v>-31.80246</v>
@@ -5722,10 +5722,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" s="7">
         <v>-31.773849999999999</v>
@@ -5737,10 +5737,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" s="7">
         <v>-31.983889999999999</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" s="7">
         <v>-33.109319999999997</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="7">
         <v>-32.15663</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C38" s="7">
         <v>-33.11927</v>
@@ -5797,10 +5797,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" s="7">
         <v>-33.12379</v>
@@ -5812,10 +5812,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C40" s="7">
         <v>-34.039859999999997</v>
@@ -5827,10 +5827,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" s="7">
         <v>-31.647839999999999</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C42" s="7">
         <v>-32.195</v>
@@ -5857,10 +5857,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C43" s="7">
         <v>-32.194989999999997</v>
@@ -5872,10 +5872,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C44" s="7">
         <v>-33.097810000000003</v>
@@ -5887,10 +5887,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" s="7">
         <v>-34.307540000000003</v>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" s="7">
         <v>-31.733409999999999</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C47" s="7">
         <v>-31.734660000000002</v>
@@ -5932,10 +5932,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C48" s="7">
         <v>-31.7377</v>
@@ -5947,10 +5947,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C49" s="7">
         <v>-31.731439999999999</v>
@@ -5962,10 +5962,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C50" s="7">
         <v>-31.644449999999999</v>
@@ -5977,10 +5977,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" s="7">
         <v>-32.217039999999997</v>
@@ -5992,10 +5992,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C52" s="7">
         <v>-34.070149999999998</v>
@@ -6007,10 +6007,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C53" s="7">
         <v>-34.493160000000003</v>
@@ -6022,10 +6022,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C54" s="7">
         <v>-31.65822</v>
@@ -6037,10 +6037,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C55" s="7">
         <v>-31.65954</v>
@@ -6052,10 +6052,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="7">
         <v>-31.65943</v>
@@ -6067,10 +6067,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" s="7">
         <v>-31.66958</v>
@@ -6082,10 +6082,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C58" s="7">
         <v>-31.73498</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" s="7">
         <v>-31.941880000000001</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C60" s="7">
         <v>-33.127000000000002</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C61" s="7">
         <v>-33.357590000000002</v>
@@ -6142,10 +6142,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C62" s="7">
         <v>-31.657409999999999</v>
@@ -6157,10 +6157,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" s="7">
         <v>-31.729330000000001</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" s="7">
         <v>-31.862670000000001</v>
@@ -6187,10 +6187,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" s="7">
         <v>-31.94397</v>
@@ -6202,10 +6202,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C66" s="7">
         <v>-32.02966</v>
@@ -6217,10 +6217,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" s="7">
         <v>-32.479210000000002</v>
@@ -6232,10 +6232,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" s="7">
         <v>-33.096670000000003</v>
@@ -6247,10 +6247,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" s="7">
         <v>-33.634819999999998</v>
@@ -6262,10 +6262,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" s="7">
         <v>-34.001930000000002</v>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C71" s="7">
         <v>-32.187159999999999</v>
@@ -6292,10 +6292,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C72" s="7">
         <v>-33.69876</v>
@@ -6307,10 +6307,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C73" s="7">
         <v>-31.753499999999999</v>
@@ -6322,10 +6322,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74" s="7">
         <v>-32.478540000000002</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" s="7">
         <v>-33.124299999999998</v>
@@ -6352,10 +6352,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" s="7">
         <v>-33.698</v>
@@ -6367,10 +6367,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="7">
         <v>-31.831230000000001</v>
@@ -6382,10 +6382,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78" s="7">
         <v>-31.90447</v>
@@ -6397,10 +6397,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="7">
         <v>-31.91891</v>
@@ -6412,10 +6412,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" s="7">
         <v>-32.17</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C81" s="7">
         <v>-32.17</v>
@@ -6442,10 +6442,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="7">
         <v>-32.300089999999997</v>
@@ -6457,10 +6457,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" s="7">
         <v>-33.110639999999997</v>
@@ -6472,10 +6472,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C84" s="7">
         <v>-31.702549999999999</v>
@@ -6487,10 +6487,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C85" s="7">
         <v>-31.91816</v>
@@ -6502,10 +6502,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C86" s="7">
         <v>-31.92933</v>
@@ -6517,10 +6517,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C87" s="7">
         <v>-32.028709999999997</v>
@@ -6532,10 +6532,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" s="7">
         <v>-32.169499999999999</v>
@@ -6547,10 +6547,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" s="7">
         <v>-32.205370000000002</v>
@@ -6562,10 +6562,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90" s="7">
         <v>-32.478369999999998</v>
@@ -6577,10 +6577,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C91" s="7">
         <v>-32.478479999999998</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" s="7">
         <v>-33.122</v>
@@ -6607,10 +6607,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C93" s="7">
         <v>-32.18</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C94" s="7">
         <v>-32.172029999999999</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C95" s="7">
         <v>-32.325000000000003</v>
@@ -6652,10 +6652,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C96" s="7">
         <v>-33.276870000000002</v>
@@ -6667,10 +6667,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97" s="7">
         <v>-31.91986</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98" s="7">
         <v>-32.704590000000003</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C99" s="7">
         <v>-33.636629999999997</v>
@@ -6712,10 +6712,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C100" s="7">
         <v>-32.230589999999999</v>
@@ -6727,10 +6727,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101" s="7">
         <v>-32.376379999999997</v>
@@ -6742,10 +6742,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C102" s="7">
         <v>-33.653280000000002</v>
@@ -6757,10 +6757,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C103" s="7">
         <v>-31.643730000000001</v>
@@ -6772,10 +6772,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C104" s="7">
         <v>-31.650490000000001</v>
@@ -6787,10 +6787,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C105" s="7">
         <v>-32.699669999999998</v>
@@ -6802,10 +6802,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C106" s="7">
         <v>-33.350020000000001</v>
@@ -6817,10 +6817,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C107" s="7">
         <v>-34.133560000000003</v>
@@ -6832,10 +6832,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C108" s="7">
         <v>-34.133679999999998</v>
@@ -6847,10 +6847,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C109" s="7">
         <v>-31.65297</v>
@@ -6862,10 +6862,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C110" s="7">
         <v>-31.645869999999999</v>
@@ -6877,10 +6877,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C111" s="7">
         <v>-34.011650000000003</v>
@@ -6892,10 +6892,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C112" s="7">
         <v>-31.91179</v>
@@ -6907,10 +6907,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C113" s="7">
         <v>-32.435000000000002</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C114" s="7">
         <v>-32.610340000000001</v>
@@ -6937,10 +6937,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C115" s="7">
         <v>-33.903700000000001</v>
@@ -6952,10 +6952,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C116" s="7">
         <v>-33.20335</v>
@@ -6967,10 +6967,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C117" s="7">
         <v>-33.07761</v>
@@ -6982,10 +6982,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C118" s="7">
         <v>-31.647410000000001</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C119" s="7">
         <v>-31.64752</v>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C120" s="7">
         <v>-31.861660000000001</v>
@@ -7027,10 +7027,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C121" s="7">
         <v>-31.861059999999998</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C122" s="7">
         <v>-32.048369999999998</v>
@@ -7057,10 +7057,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C123" s="7">
         <v>-32.387520000000002</v>
@@ -7072,10 +7072,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C124" s="7">
         <v>-32.42212</v>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C125" s="7">
         <v>-32.422060000000002</v>
@@ -7102,10 +7102,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C126" s="7">
         <v>-32.458309999999997</v>
@@ -7117,10 +7117,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C127" s="7">
         <v>-34.172600000000003</v>
@@ -7132,10 +7132,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C128" s="7">
         <v>-31.650559999999999</v>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C129" s="7">
         <v>-31.647819999999999</v>
@@ -7162,10 +7162,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C130" s="7">
         <v>-31.82235</v>
@@ -7177,10 +7177,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C131" s="7">
         <v>-32.393889999999999</v>
@@ -7192,10 +7192,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C132" s="7">
         <v>-33.932369999999999</v>
@@ -7207,10 +7207,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C133" s="7">
         <v>-32.130659999999999</v>
@@ -7222,10 +7222,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C134" s="7">
         <v>-33.833579999999998</v>
@@ -7237,10 +7237,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C135" s="7">
         <v>-31.66675</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C136" s="7">
         <v>-31.952660000000002</v>
@@ -7267,10 +7267,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C137" s="7">
         <v>-31.964849999999998</v>
@@ -7282,10 +7282,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C138" s="7">
         <v>-32.723610000000001</v>
@@ -7297,10 +7297,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C139" s="7">
         <v>-32.8949</v>
@@ -7312,10 +7312,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C140" s="7">
         <v>-31.66367</v>
@@ -7327,10 +7327,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C141" s="7">
         <v>-31.664739999999998</v>
@@ -7342,10 +7342,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C142" s="7">
         <v>-31.635760000000001</v>
@@ -7357,10 +7357,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C143" s="7">
         <v>-32.591749999999998</v>
@@ -7372,10 +7372,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C144" s="7">
         <v>-32.976190000000003</v>
@@ -7387,10 +7387,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C145" s="7">
         <v>-33.311349999999997</v>
@@ -7402,10 +7402,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C146" s="7">
         <v>-34.27402</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C147" s="7">
         <v>-34.274430000000002</v>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C148" s="7">
         <v>-32.890099999999997</v>
@@ -7447,10 +7447,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C149" s="7">
         <v>-32.89</v>
@@ -7462,10 +7462,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C150" s="7">
         <v>-32.916429999999998</v>
@@ -7477,10 +7477,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C151" s="7">
         <v>-33.630769999999998</v>
@@ -7492,10 +7492,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C152" s="7">
         <v>-34.274039999999999</v>
@@ -7507,10 +7507,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C153" s="7">
         <v>-31.6342</v>
@@ -7522,10 +7522,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C154" s="7">
         <v>-32.943309999999997</v>
@@ -7537,10 +7537,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C155" s="7">
         <v>-33.375120000000003</v>
@@ -7552,10 +7552,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C156" s="7">
         <v>-33.599640000000001</v>
@@ -7567,10 +7567,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C157" s="7">
         <v>-34.274050000000003</v>
@@ -7582,10 +7582,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C158" s="7">
         <v>-34.274099999999997</v>
@@ -7597,10 +7597,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C159" s="7">
         <v>-32.622999999999998</v>
@@ -7612,10 +7612,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C160" s="7">
         <v>-34.276780000000002</v>
@@ -7627,10 +7627,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C161" s="7">
         <v>-31.814900000000002</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C162" s="7">
         <v>-31.814910000000001</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C163" s="7">
         <v>-31.80152</v>
@@ -7672,10 +7672,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C164" s="7">
         <v>-32.719670000000001</v>
@@ -7687,10 +7687,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C165" s="7">
         <v>-32.877600000000001</v>
@@ -7702,10 +7702,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C166" s="7">
         <v>-31.80311</v>
@@ -7717,10 +7717,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C167" s="7">
         <v>-31.806000000000001</v>
@@ -7732,10 +7732,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C168" s="7">
         <v>-32.632089999999998</v>
@@ -7747,10 +7747,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C169" s="7">
         <v>-33.239420000000003</v>
@@ -7762,10 +7762,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C170" s="7">
         <v>-33.238120000000002</v>
@@ -7777,10 +7777,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C171" s="7">
         <v>-33.468260000000001</v>
@@ -7792,10 +7792,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C172" s="7">
         <v>-31.96781</v>
@@ -7807,10 +7807,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C173" s="7">
         <v>-34.260039999999996</v>
@@ -7822,10 +7822,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C174" s="7">
         <v>-32.37603</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C175" s="7">
         <v>-32.488869999999999</v>
@@ -7852,10 +7852,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C176" s="7">
         <v>-32.618690000000001</v>
@@ -7867,10 +7867,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C177" s="7">
         <v>-31.966850000000001</v>
@@ -7882,10 +7882,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C178" s="7">
         <v>-32.641620000000003</v>
@@ -7897,10 +7897,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C179" s="7">
         <v>-33.873519999999999</v>
@@ -7912,10 +7912,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C180" s="7">
         <v>-32.70973</v>
@@ -7927,10 +7927,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C181" s="7">
         <v>-32.83925</v>
@@ -7942,10 +7942,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C182" s="7">
         <v>-33.289560000000002</v>
@@ -7957,10 +7957,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C183" s="7">
         <v>-34.185079999999999</v>
@@ -7972,10 +7972,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C184" s="7">
         <v>-34.226100000000002</v>
@@ -7987,10 +7987,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C185" s="7">
         <v>-34.266150000000003</v>
@@ -8002,10 +8002,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C186" s="7">
         <v>-34.266469999999998</v>
@@ -8017,10 +8017,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C187" s="7">
         <v>-34.266770000000001</v>
@@ -8032,10 +8032,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C188" s="7">
         <v>-32.692</v>
@@ -8047,10 +8047,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C189" s="7">
         <v>-34.575000000000003</v>
@@ -8062,10 +8062,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C190" s="7">
         <v>-32.360599999999998</v>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C191" s="7">
         <v>-32.265720000000002</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C192" s="7">
         <v>-32.265700000000002</v>
@@ -8107,10 +8107,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C193" s="7">
         <v>-32.807470000000002</v>
@@ -8122,10 +8122,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C194" s="7">
         <v>-33.755000000000003</v>
@@ -8137,10 +8137,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C195" s="7">
         <v>-33.747999999999998</v>
@@ -8152,10 +8152,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C196" s="7">
         <v>-33.984090000000002</v>
@@ -8167,10 +8167,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C197" s="7">
         <v>-32.37753</v>
@@ -8182,10 +8182,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C198" s="7">
         <v>-32.378790000000002</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C199" s="7">
         <v>-33.418930000000003</v>
@@ -8212,10 +8212,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C200" s="7">
         <v>-34.326259999999998</v>
@@ -8227,10 +8227,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C201" s="7">
         <v>-34.324849999999998</v>
@@ -8242,10 +8242,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C202" s="7">
         <v>-32.379620000000003</v>
@@ -8257,10 +8257,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C203" s="7">
         <v>-32.43844</v>
@@ -8272,10 +8272,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C204" s="7">
         <v>-32.981299999999997</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C205" s="7">
         <v>-33.182479999999998</v>
@@ -8302,10 +8302,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C206" s="7">
         <v>-33.181849999999997</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C207" s="7">
         <v>-33.616579999999999</v>
@@ -8332,10 +8332,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C208" s="7">
         <v>-33.177999999999997</v>
@@ -8347,10 +8347,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C209" s="7">
         <v>-33.616909999999997</v>
@@ -8362,10 +8362,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C210" s="7">
         <v>-33.898339999999997</v>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C211" s="7">
         <v>-34.441130000000001</v>
@@ -8392,10 +8392,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C212" s="7">
         <v>-34.440750000000001</v>
@@ -8407,10 +8407,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C213" s="7">
         <v>-34.444659999999999</v>
@@ -8422,10 +8422,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C214" s="7">
         <v>-33.01</v>
@@ -8437,10 +8437,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C215" s="7">
         <v>-33.094000000000001</v>
@@ -8452,10 +8452,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C216" s="7">
         <v>-33.841709999999999</v>
@@ -8467,10 +8467,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C217" s="7">
         <v>-34.382109999999997</v>
@@ -8482,10 +8482,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C218" s="7">
         <v>-32.201999999999998</v>
@@ -8497,10 +8497,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C219" s="7">
         <v>-32.202750000000002</v>
@@ -8512,10 +8512,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C220" s="7">
         <v>-32.401249999999997</v>
@@ -8527,10 +8527,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C221" s="7">
         <v>-32.446680000000001</v>
@@ -8542,10 +8542,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C222" s="7">
         <v>-32.746749999999999</v>
@@ -8557,10 +8557,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C223" s="7">
         <v>-33.007840000000002</v>
@@ -8572,10 +8572,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C224" s="7">
         <v>-33.094160000000002</v>
@@ -8587,10 +8587,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C225" s="7">
         <v>-33.242910000000002</v>
@@ -8602,10 +8602,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C226" s="7">
         <v>-34.3705</v>
@@ -8617,10 +8617,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C227" s="7">
         <v>-32.593229999999998</v>
@@ -8632,10 +8632,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C228" s="7">
         <v>-33.094079999999998</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C229" s="7">
         <v>-33.09413</v>
@@ -8662,10 +8662,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C230" s="7">
         <v>-33.4649</v>
@@ -8677,10 +8677,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C231" s="7">
         <v>-34.363</v>
@@ -8692,10 +8692,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C232" s="7">
         <v>-32.865659999999998</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C233" s="7">
         <v>-33.094029999999997</v>
@@ -8722,10 +8722,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C234" s="7">
         <v>-33.094110000000001</v>
@@ -8737,10 +8737,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C235" s="7">
         <v>-32.250709999999998</v>
@@ -8752,10 +8752,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C236" s="7">
         <v>-32.708959999999998</v>
@@ -8767,10 +8767,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C237" s="7">
         <v>-33.69802</v>
@@ -8782,10 +8782,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C238" s="7">
         <v>-34.516629999999999</v>
@@ -8797,10 +8797,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C239" s="7">
         <v>-32.393039999999999</v>
@@ -8812,10 +8812,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C240" s="7">
         <v>-32.490189999999998</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C241" s="7">
         <v>-33.119320000000002</v>
@@ -8842,10 +8842,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C242" s="7">
         <v>-33.119320000000002</v>
@@ -8857,10 +8857,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C243" s="7">
         <v>-32.253329999999998</v>
@@ -8872,10 +8872,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C244" s="7">
         <v>-32.27552</v>
@@ -8887,10 +8887,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C245" s="7">
         <v>-32.419249999999998</v>
@@ -8902,10 +8902,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C246" s="7">
         <v>-32.926229999999997</v>
@@ -8917,10 +8917,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C247" s="7">
         <v>-33.116790000000002</v>
@@ -8932,10 +8932,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C248" s="7">
         <v>-33.856870000000001</v>
@@ -8947,10 +8947,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C249" s="7">
         <v>-32.383369999999999</v>
@@ -8962,10 +8962,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C250" s="7">
         <v>-32.485840000000003</v>
@@ -8977,10 +8977,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C251" s="7">
         <v>-32.486040000000003</v>
@@ -8992,10 +8992,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C252" s="7">
         <v>-32.476999999999997</v>
@@ -9007,10 +9007,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C253" s="7">
         <v>-32.473950000000002</v>
@@ -9022,10 +9022,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C254" s="7">
         <v>-32.683109999999999</v>
@@ -9037,10 +9037,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C255" s="7">
         <v>-33.110570000000003</v>
@@ -9052,10 +9052,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C256" s="7">
         <v>-33.434890000000003</v>
@@ -9067,10 +9067,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C257" s="7">
         <v>-33.450000000000003</v>
@@ -9082,10 +9082,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C258" s="7">
         <v>-34.486899999999999</v>
@@ -9097,10 +9097,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C259" s="7">
         <v>-34.488280000000003</v>
@@ -9112,10 +9112,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C260" s="7">
         <v>-32.27037</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C261" s="7">
         <v>-32.897309999999997</v>
@@ -9142,10 +9142,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C262" s="7">
         <v>-33.428550000000001</v>
@@ -9157,10 +9157,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C263" s="7">
         <v>-33.657550000000001</v>
@@ -9172,10 +9172,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C264" s="7">
         <v>-33.817999999999998</v>
@@ -9187,10 +9187,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C265" s="7">
         <v>-32.323709999999998</v>
@@ -9202,10 +9202,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C266" s="7">
         <v>-33.146079999999998</v>
@@ -9217,10 +9217,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C267" s="7">
         <v>-33.836239999999997</v>
@@ -9232,10 +9232,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C268" s="7">
         <v>-33.834240000000001</v>
@@ -9247,10 +9247,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C269" s="7">
         <v>-33.973649999999999</v>
@@ -9262,10 +9262,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C270" s="7">
         <v>-32.311770000000003</v>
@@ -9277,10 +9277,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C271" s="7">
         <v>-32.823309999999999</v>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="7">
         <v>-33.248280000000001</v>
@@ -9307,10 +9307,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C273" s="7">
         <v>-32.358789999999999</v>
@@ -9322,10 +9322,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C274" s="7">
         <v>-33.24832</v>
@@ -9337,10 +9337,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C275" s="7">
         <v>-33.2483</v>
@@ -9352,10 +9352,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C276" s="7">
         <v>-33.239739999999998</v>
@@ -9367,10 +9367,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C277" s="7">
         <v>-33.818300000000001</v>
@@ -9382,10 +9382,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C278" s="7">
         <v>-33.880690000000001</v>
@@ -9397,10 +9397,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C279" s="7">
         <v>-32.365229999999997</v>
@@ -9412,10 +9412,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C280" s="7">
         <v>-32.426389999999998</v>
@@ -9427,10 +9427,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C281" s="7">
         <v>-32.426929999999999</v>
@@ -9442,10 +9442,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C282" s="7">
         <v>-32.737349999999999</v>
@@ -9457,10 +9457,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C283" s="7">
         <v>-33.809339999999999</v>
@@ -9472,10 +9472,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C284" s="7">
         <v>-34.27364</v>
@@ -9487,10 +9487,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C285" s="7">
         <v>-33.080649999999999</v>
@@ -9502,10 +9502,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C286" s="7">
         <v>-33.305309999999999</v>
@@ -9517,10 +9517,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C287" s="7">
         <v>-33.158760000000001</v>
@@ -9532,10 +9532,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C288" s="7">
         <v>-34.546720000000001</v>
@@ -9547,10 +9547,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C289" s="7">
         <v>-32.584099999999999</v>
@@ -9562,10 +9562,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C290" s="7">
         <v>-32.861870000000003</v>
@@ -9577,10 +9577,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C291" s="7">
         <v>-33.3748</v>
@@ -9592,10 +9592,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C292" s="7">
         <v>-34.458570000000002</v>
@@ -9607,10 +9607,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C293" s="7">
         <v>-34.577779999999997</v>
@@ -9622,10 +9622,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C294" s="7">
         <v>-34.710590000000003</v>
@@ -9637,10 +9637,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C295" s="7">
         <v>-34.716430000000003</v>
@@ -9652,10 +9652,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C296" s="7">
         <v>-32.65654</v>
@@ -9667,10 +9667,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C297" s="7">
         <v>-33.036670000000001</v>
@@ -9682,10 +9682,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C298" s="7">
         <v>-34.576160000000002</v>
@@ -9697,10 +9697,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C299" s="7">
         <v>-33.373170000000002</v>
@@ -9712,10 +9712,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C300" s="7">
         <v>-34.656889999999997</v>
@@ -9727,10 +9727,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C301" s="7">
         <v>-32.553489999999996</v>
@@ -9742,10 +9742,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C302" s="7">
         <v>-34.007089999999998</v>
@@ -9757,10 +9757,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C303" s="7">
         <v>-34.562779999999997</v>
@@ -9772,10 +9772,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C304" s="7">
         <v>-34.621760000000002</v>
@@ -9787,10 +9787,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C305" s="7">
         <v>-32.36636</v>
@@ -9802,10 +9802,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C306" s="7">
         <v>-32.604050000000001</v>
@@ -9817,10 +9817,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C307" s="7">
         <v>-34.593919999999997</v>
@@ -9832,10 +9832,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C308" s="7">
         <v>-34.621740000000003</v>
@@ -9847,10 +9847,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C309" s="7">
         <v>-32.895850000000003</v>
@@ -9862,10 +9862,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C310" s="7">
         <v>-33.913960000000003</v>
@@ -9877,10 +9877,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C311" s="7">
         <v>-34.588540000000002</v>
@@ -9892,10 +9892,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C312" s="7">
         <v>-34.601570000000002</v>
@@ -9907,10 +9907,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C313" s="7">
         <v>-32.572650000000003</v>
@@ -9922,10 +9922,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C314" s="7">
         <v>-32.918210000000002</v>
@@ -9937,10 +9937,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C315" s="7">
         <v>-32.918970000000002</v>
@@ -9952,10 +9952,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C316" s="7">
         <v>-33.58137</v>
@@ -9967,10 +9967,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C317" s="7">
         <v>-33.99409</v>
@@ -9982,10 +9982,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C318" s="7">
         <v>-32.619759999999999</v>
@@ -9997,10 +9997,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C319" s="7">
         <v>-32.92653</v>
@@ -10012,10 +10012,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C320" s="7">
         <v>-32.62556</v>
@@ -10027,10 +10027,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C321" s="7">
         <v>-32.84834</v>
@@ -10042,10 +10042,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C322" s="7">
         <v>-32.915999999999997</v>
@@ -10057,10 +10057,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C323" s="7">
         <v>-32.917270000000002</v>
@@ -10072,10 +10072,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C324" s="7">
         <v>-33.114060000000002</v>
@@ -10087,10 +10087,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C325" s="7">
         <v>-33.184190000000001</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C326" s="7">
         <v>-34.28152</v>
@@ -10117,10 +10117,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C327" s="7">
         <v>-33.084829999999997</v>
@@ -10132,10 +10132,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C328" s="7">
         <v>-33.08493</v>
@@ -10147,10 +10147,10 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C329" s="7">
         <v>-33.900820000000003</v>
@@ -10162,10 +10162,10 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C330" s="7">
         <v>-34.266860000000001</v>
@@ -10177,10 +10177,10 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C331" s="7">
         <v>-32.811520000000002</v>
@@ -10192,10 +10192,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C332" s="7">
         <v>-33.315019999999997</v>
@@ -10207,10 +10207,10 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C333" s="7">
         <v>-33.900919999999999</v>
@@ -10222,10 +10222,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C334" s="7">
         <v>-33.891280000000002</v>
@@ -10237,10 +10237,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C335" s="7">
         <v>-32.963839999999998</v>
@@ -10252,10 +10252,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C336" s="7">
         <v>-33.392989999999998</v>
@@ -10267,10 +10267,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C337" s="7">
         <v>-33.866590000000002</v>
@@ -10282,10 +10282,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C338" s="7">
         <v>-32.859909999999999</v>
@@ -10297,10 +10297,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C339" s="7">
         <v>-32.86036</v>
@@ -10312,10 +10312,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C340" s="7">
         <v>-32.923000000000002</v>
@@ -10327,10 +10327,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C341" s="7">
         <v>-32.925409999999999</v>
@@ -10342,10 +10342,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C342" s="7">
         <v>-33.103000000000002</v>
@@ -10357,10 +10357,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C343" s="7">
         <v>-33.109560000000002</v>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C344" s="7">
         <v>-33.159059999999997</v>
@@ -10387,10 +10387,10 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C345" s="7">
         <v>-33.603789999999996</v>
@@ -10402,10 +10402,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C346" s="7">
         <v>-33.895650000000003</v>
@@ -10417,10 +10417,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C347" s="7">
         <v>-32.898960000000002</v>
@@ -10432,10 +10432,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C348" s="7">
         <v>-32.899790000000003</v>
@@ -10447,10 +10447,10 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C349" s="7">
         <v>-32.929340000000003</v>
@@ -10462,10 +10462,10 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C350" s="7">
         <v>-32.937840000000001</v>
@@ -10477,10 +10477,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C351" s="7">
         <v>-32.934010000000001</v>
@@ -10492,10 +10492,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C352" s="7">
         <v>-32.93412</v>
@@ -10507,10 +10507,10 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C353" s="7">
         <v>-32.934139999999999</v>
@@ -10522,10 +10522,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C354" s="7">
         <v>-32.996299999999998</v>
@@ -10537,10 +10537,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C355" s="7">
         <v>-33.107439999999997</v>
@@ -10552,10 +10552,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C356" s="7">
         <v>-32.90334</v>
@@ -10567,10 +10567,10 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C357" s="7">
         <v>-32.929679999999998</v>
@@ -10582,10 +10582,10 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C358" s="7">
         <v>-32.947589999999998</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C359" s="7">
         <v>-32.937370000000001</v>
@@ -10612,10 +10612,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C360" s="7">
         <v>-32.937370000000001</v>
@@ -10627,10 +10627,10 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C361" s="7">
         <v>-32.937869999999997</v>
@@ -10642,10 +10642,10 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C362" s="7">
         <v>-32.953000000000003</v>
@@ -10657,10 +10657,10 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C363" s="7">
         <v>-32.968240000000002</v>
@@ -10672,10 +10672,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C364" s="7">
         <v>-32.968220000000002</v>
@@ -10687,10 +10687,10 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C365" s="7">
         <v>-32.968220000000002</v>
@@ -10702,10 +10702,10 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C366" s="7">
         <v>-32.968229999999998</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C367" s="7">
         <v>-33.521859999999997</v>
@@ -10732,10 +10732,10 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C368" s="7">
         <v>-32.928240000000002</v>
@@ -10747,10 +10747,10 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C369" s="7">
         <v>-32.93967</v>
@@ -10762,10 +10762,10 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C370" s="7">
         <v>-32.947560000000003</v>
@@ -10777,10 +10777,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C371" s="7">
         <v>-32.949759999999998</v>
@@ -10792,10 +10792,10 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C372" s="7">
         <v>-32.950000000000003</v>
@@ -10807,10 +10807,10 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C373" s="7">
         <v>-32.956580000000002</v>
@@ -10822,10 +10822,10 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C374" s="7">
         <v>-32.959960000000002</v>
@@ -10837,10 +10837,10 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C375" s="7">
         <v>-32.954180000000001</v>
@@ -10852,10 +10852,10 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C376" s="7">
         <v>-32.958069999999999</v>
@@ -10867,10 +10867,10 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C377" s="7">
         <v>-33.12773</v>
@@ -10882,10 +10882,10 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C378" s="7">
         <v>-33.317830000000001</v>
@@ -10897,10 +10897,10 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C379" s="7">
         <v>-33.897959999999998</v>
@@ -10912,10 +10912,10 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C380" s="7">
         <v>-33.90522</v>
@@ -10927,10 +10927,10 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C381" s="7">
         <v>-32.941040000000001</v>
@@ -10942,10 +10942,10 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C382" s="7">
         <v>-33.32282</v>
@@ -10957,10 +10957,10 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C383" s="7">
         <v>-33.337499999999999</v>
@@ -10972,10 +10972,10 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C384" s="7">
         <v>-33.339680000000001</v>
@@ -10987,10 +10987,10 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C385" s="7">
         <v>-33.3386</v>
@@ -11002,10 +11002,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C386" s="7">
         <v>-33.336509999999997</v>
@@ -11017,10 +11017,10 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C387" s="7">
         <v>-33.336179999999999</v>
@@ -11043,8 +11043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C3B681-42F9-41A2-B521-362FB4730680}">
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11083,7 +11083,7 @@
         <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -11092,7 +11092,7 @@
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -11101,7 +11101,7 @@
         <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -11110,7 +11110,7 @@
         <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -11119,7 +11119,7 @@
         <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>679</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -11128,7 +11128,7 @@
         <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -11137,7 +11137,7 @@
         <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -11146,7 +11146,7 @@
         <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -11155,7 +11155,7 @@
         <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -11164,7 +11164,7 @@
         <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -11173,7 +11173,7 @@
         <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -11182,7 +11182,7 @@
         <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -11190,7 +11190,7 @@
         <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -11198,7 +11198,7 @@
         <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -11206,7 +11206,7 @@
         <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -11214,7 +11214,7 @@
         <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -11222,7 +11222,7 @@
         <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -11230,7 +11230,7 @@
         <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -11238,7 +11238,7 @@
         <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -11246,7 +11246,7 @@
         <v>159</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -11254,7 +11254,7 @@
         <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -11262,7 +11262,7 @@
         <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -11270,7 +11270,7 @@
         <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -11278,7 +11278,7 @@
         <v>163</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -11286,7 +11286,7 @@
         <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -11294,7 +11294,7 @@
         <v>165</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -11302,7 +11302,7 @@
         <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -11310,7 +11310,7 @@
         <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -11318,7 +11318,7 @@
         <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -11326,7 +11326,7 @@
         <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="225" spans="6:6" x14ac:dyDescent="0.25">
@@ -11395,9 +11395,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{A461DFE7-4315-4EC7-913E-A3A81FE43FDB}"/>
+    <hyperlink ref="A29" r:id="rId2" xr:uid="{34D95853-67BD-41F6-8836-57B01718FB64}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{15CECE15-D41D-47AE-BD2F-A2CCA37B6A26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/info_wunder.xlsx
+++ b/info_wunder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\tecnicatura_ia\adscripcion\wunder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\wunder\wunder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65760D56-8412-4910-8AA3-520A5E924440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6779BFE-ECAE-45E7-9636-BC767F4B20D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2064,10 +2064,10 @@
     <t>3d80ef4863b6460980ef4863b6160932</t>
   </si>
   <si>
-    <t>c7916775bc5d4d0a916775bc5ddd0a65</t>
-  </si>
-  <si>
     <t>e5659d7c49604f37a59d7c4960cf3701</t>
+  </si>
+  <si>
+    <t>2271a1c25c7c4d22b1a1c25c7cfd224e</t>
   </si>
 </sst>
 </file>
@@ -11044,7 +11044,7 @@
   <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11083,7 +11083,7 @@
         <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -11119,7 +11119,7 @@
         <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -11397,9 +11397,10 @@
     <hyperlink ref="A5" r:id="rId1" xr:uid="{A461DFE7-4315-4EC7-913E-A3A81FE43FDB}"/>
     <hyperlink ref="A29" r:id="rId2" xr:uid="{34D95853-67BD-41F6-8836-57B01718FB64}"/>
     <hyperlink ref="A8" r:id="rId3" xr:uid="{15CECE15-D41D-47AE-BD2F-A2CCA37B6A26}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{ACE36BD4-B4AA-440E-B97D-3811D4A42A34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
